--- a/Documents/progress.xlsx
+++ b/Documents/progress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mojtaba\Documents\Racer2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -297,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,13 +305,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -323,10 +335,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,8 +347,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -617,7 +634,7 @@
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,7 +670,7 @@
       <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -709,43 +726,43 @@
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1">
-        <v>60</v>
+      <c r="C2" s="3">
+        <v>50</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
       </c>
       <c r="E2" s="1">
         <f>C2*$Y$12</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F44" si="0">C2*($Y$12+$Y$13)</f>
-        <v>9.0000000000000018</v>
+        <v>7.5000000000000009</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G43" si="1">D2*(E2+F2)/2</f>
-        <v>37.500000000000007</v>
+        <v>31.25</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H44" si="2">G2*$Y$15</f>
-        <v>6562.5000000000009</v>
+        <v>5468.75</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I44" si="3">C2*$T$12*(2*$Y$12+$Y$13)/2</f>
-        <v>0.46875</v>
+        <v>0.390625</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ref="J2:J44" si="4">G2/($V$6+I2)</f>
-        <v>2.4411508282476029</v>
+        <v>2.0446911055936909</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K44" si="5">J2/$V$10</f>
-        <v>2.5089605734767033E-2</v>
+        <v>2.1014880807490713E-2</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ref="L2:L44" si="6">J2*$T$12</f>
-        <v>0.15257192676547518</v>
+        <v>0.12779319409960568</v>
       </c>
       <c r="O2" t="s">
         <v>9</v>
@@ -784,44 +801,44 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <f>C2+B3</f>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E44" si="7">C3*$Y$12</f>
-        <v>6.1000000000000005</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>9.1500000000000021</v>
+        <v>7.6500000000000012</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="1"/>
-        <v>38.125000000000007</v>
+        <v>31.875000000000004</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="2"/>
-        <v>6671.8750000000009</v>
+        <v>5578.1250000000009</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="3"/>
-        <v>0.4765625</v>
+        <v>0.3984375</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="4"/>
-        <v>2.4805751216324166</v>
+        <v>2.0845193781475806</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="5"/>
-        <v>2.5494799861222061E-2</v>
+        <v>2.1424226942072359E-2</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="6"/>
-        <v>0.15503594510202603</v>
+        <v>0.13028246113422379</v>
       </c>
       <c r="O3" t="s">
         <v>10</v>
@@ -860,44 +877,44 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:C44" si="8">C3+B4</f>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="7"/>
-        <v>6.3000000000000007</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>9.4500000000000011</v>
+        <v>7.9500000000000011</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>78.750000000000014</v>
+        <v>66.250000000000014</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>13781.250000000002</v>
+        <v>11593.750000000002</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>0.4921875</v>
+        <v>0.4140625</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="4"/>
-        <v>5.1186071817192609</v>
+        <v>4.3281079110463008</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="5"/>
-        <v>5.2607907145447962E-2</v>
+        <v>4.4483331307975875E-2</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="6"/>
-        <v>0.3199129488574538</v>
+        <v>0.2705067444403938</v>
       </c>
       <c r="O4" t="s">
         <v>11</v>
@@ -929,44 +946,44 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" si="8"/>
-        <v>66</v>
+      <c r="C5" s="3">
+        <f t="shared" si="8"/>
+        <v>56</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="7"/>
-        <v>6.6000000000000005</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>9.9000000000000021</v>
+        <v>8.4000000000000021</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>82.500000000000014</v>
+        <v>70.000000000000014</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>14437.500000000002</v>
+        <v>12250.000000000002</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>0.515625</v>
+        <v>0.4375</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="4"/>
-        <v>5.354193828770101</v>
+        <v>4.5661036691904497</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="5"/>
-        <v>5.5029214351248266E-2</v>
+        <v>4.692939882223518E-2</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="6"/>
-        <v>0.33463711429813131</v>
+        <v>0.28538147932440311</v>
       </c>
       <c r="O5" t="s">
         <v>12</v>
@@ -1000,44 +1017,44 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" si="8"/>
-        <v>70</v>
+      <c r="C6" s="3">
+        <f t="shared" si="8"/>
+        <v>60</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>10.500000000000002</v>
+        <v>9.0000000000000018</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>75.000000000000014</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>15312.5</v>
+        <v>13125.000000000002</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>0.546875</v>
+        <v>0.46875</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="4"/>
-        <v>5.6671967616018506</v>
+        <v>4.8823016564952058</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="5"/>
-        <v>5.8246188938685689E-2</v>
+        <v>5.0179211469534066E-2</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="6"/>
-        <v>0.35419979760011566</v>
+        <v>0.30514385353095036</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1063,44 +1080,44 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" si="8"/>
-        <v>75</v>
+      <c r="C7" s="3">
+        <f t="shared" si="8"/>
+        <v>65</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="7"/>
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>11.250000000000002</v>
+        <v>9.7500000000000018</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>93.75</v>
+        <v>81.25</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>16406.25</v>
+        <v>14218.75</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>0.5859375</v>
+        <v>0.5078125</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="4"/>
-        <v>6.0566731559593343</v>
+        <v>5.2757446191753026</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="5"/>
-        <v>6.2249140769582052E-2</v>
+        <v>5.4222930808190614E-2</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="6"/>
-        <v>0.37854207224745839</v>
+        <v>0.32973403869845641</v>
       </c>
       <c r="O7" t="s">
         <v>13</v>
@@ -1132,44 +1149,44 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" si="8"/>
-        <v>81</v>
+      <c r="C8" s="3">
+        <f t="shared" si="8"/>
+        <v>71</v>
       </c>
       <c r="D8" s="1">
         <v>15</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="7"/>
-        <v>8.1</v>
+        <v>7.1000000000000005</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>12.150000000000002</v>
+        <v>10.650000000000002</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>151.875</v>
+        <v>133.12500000000003</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>26578.125</v>
+        <v>23296.875000000004</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="3"/>
-        <v>0.6328125</v>
+        <v>0.5546875</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="4"/>
-        <v>9.7821867586801812</v>
+        <v>8.6178744310382225</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="5"/>
-        <v>0.1005391416864352</v>
+        <v>8.8572598319003965E-2</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="6"/>
-        <v>0.61138667241751132</v>
+        <v>0.53861715193988891</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1183,44 +1200,44 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" si="8"/>
-        <v>88</v>
+      <c r="C9" s="3">
+        <f t="shared" si="8"/>
+        <v>78</v>
       </c>
       <c r="D9" s="1">
         <v>15</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="7"/>
-        <v>8.8000000000000007</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>13.200000000000003</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>165.00000000000003</v>
+        <v>146.25</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="2"/>
-        <v>28875.000000000004</v>
+        <v>25593.75</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="3"/>
-        <v>0.6875</v>
+        <v>0.609375</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="4"/>
-        <v>10.590257879656162</v>
+        <v>9.4341252699784022</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="5"/>
-        <v>0.10884431709646612</v>
+        <v>9.6961843052555813E-2</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="6"/>
-        <v>0.66189111747851015</v>
+        <v>0.58963282937365014</v>
       </c>
       <c r="V9" s="1">
         <f>Y9*3600</f>
@@ -1243,44 +1260,44 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" si="8"/>
-        <v>96</v>
+      <c r="C10" s="3">
+        <f t="shared" si="8"/>
+        <v>86</v>
       </c>
       <c r="D10" s="1">
         <v>15</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="7"/>
-        <v>9.6000000000000014</v>
+        <v>8.6</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>14.400000000000002</v>
+        <v>12.900000000000002</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>180.00000000000003</v>
+        <v>161.25</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="2"/>
-        <v>31500.000000000004</v>
+        <v>28218.75</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0.671875</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="4"/>
-        <v>11.506849315068495</v>
+        <v>10.35995984511688</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="5"/>
-        <v>0.11826484018264842</v>
+        <v>0.10647736507481238</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="6"/>
-        <v>0.71917808219178092</v>
+        <v>0.64749749031980497</v>
       </c>
       <c r="O10" t="s">
         <v>81</v>
@@ -1320,44 +1337,44 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
-        <f t="shared" si="8"/>
-        <v>105</v>
+      <c r="C11" s="3">
+        <f t="shared" si="8"/>
+        <v>95</v>
       </c>
       <c r="D11" s="1">
         <v>20</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="7"/>
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>15.750000000000002</v>
+        <v>14.250000000000002</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>262.5</v>
+        <v>237.5</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>45937.5</v>
+        <v>41562.5</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>0.8203125</v>
+        <v>0.7421875</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="4"/>
-        <v>16.705731941189004</v>
+        <v>15.190234849025627</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="5"/>
-        <v>0.17169780050666478</v>
+        <v>0.15612185817054117</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="6"/>
-        <v>1.0441082463243128</v>
+        <v>0.94938967806410168</v>
       </c>
       <c r="O11" t="s">
         <v>83</v>
@@ -1390,44 +1407,44 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
-        <f t="shared" si="8"/>
-        <v>115</v>
+      <c r="C12" s="3">
+        <f t="shared" si="8"/>
+        <v>105</v>
       </c>
       <c r="D12" s="1">
         <v>20</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="7"/>
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>17.250000000000004</v>
+        <v>15.750000000000002</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>287.50000000000006</v>
+        <v>262.5</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="2"/>
-        <v>50312.500000000007</v>
+        <v>45937.5</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="3"/>
-        <v>0.8984375</v>
+        <v>0.8203125</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="4"/>
-        <v>18.206233656088774</v>
+        <v>16.705731941189004</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="5"/>
-        <v>0.18711962368757906</v>
+        <v>0.17169780050666478</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="6"/>
-        <v>1.1378896035055484</v>
+        <v>1.0441082463243128</v>
       </c>
       <c r="O12" t="s">
         <v>82</v>
@@ -1464,46 +1481,46 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="8"/>
-        <v>130</v>
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="8"/>
+        <v>116</v>
       </c>
       <c r="D13" s="1">
         <v>15</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>19.500000000000004</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>243.75</v>
+        <v>217.50000000000003</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="2"/>
-        <v>42656.25</v>
+        <v>38062.500000000007</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="3"/>
-        <v>1.015625</v>
+        <v>0.90625</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="4"/>
-        <v>15.3220148730181</v>
+        <v>13.766600734670813</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="5"/>
-        <v>0.15747626397268605</v>
+        <v>0.14149006310633894</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="6"/>
-        <v>0.95762592956363124</v>
+        <v>0.86041254591692584</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1520,46 +1537,46 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="8"/>
-        <v>150</v>
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="8"/>
+        <v>128</v>
       </c>
       <c r="D14" s="1">
         <v>25</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>12.8</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>22.500000000000004</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>468.75</v>
+        <v>400</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="2"/>
-        <v>82031.25</v>
+        <v>70000</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="3"/>
-        <v>1.171875</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="4"/>
-        <v>29.178824510212589</v>
+        <v>25.168539325842698</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="5"/>
-        <v>0.29989347413274053</v>
+        <v>0.2586766541822722</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="6"/>
-        <v>1.8236765318882868</v>
+        <v>1.5730337078651686</v>
       </c>
       <c r="Y14" s="1"/>
     </row>
@@ -1568,46 +1585,46 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="8"/>
-        <v>175</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="8"/>
+        <v>141</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="7"/>
-        <v>17.5</v>
+        <v>14.100000000000001</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>26.250000000000004</v>
+        <v>21.150000000000002</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>437.5</v>
+        <v>352.5</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="2"/>
-        <v>76562.5</v>
+        <v>61687.5</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="3"/>
-        <v>1.3671875</v>
+        <v>1.1015625</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="4"/>
-        <v>26.906445191845702</v>
+        <v>22.038936571069708</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="5"/>
-        <v>0.27653846447174751</v>
+        <v>0.22651129253599425</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="6"/>
-        <v>1.6816528244903564</v>
+        <v>1.3774335356918568</v>
       </c>
       <c r="Y15" s="1">
         <v>175</v>
@@ -1621,46 +1638,46 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="8"/>
-        <v>205</v>
+        <v>14</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="8"/>
+        <v>155</v>
       </c>
       <c r="D16" s="1">
         <v>25</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="7"/>
-        <v>20.5</v>
+        <v>15.5</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>30.750000000000004</v>
+        <v>23.250000000000004</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>640.625</v>
+        <v>484.375</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="2"/>
-        <v>112109.375</v>
+        <v>84765.625</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="3"/>
-        <v>1.6015625</v>
+        <v>1.2109375</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="4"/>
-        <v>38.838893023885241</v>
+        <v>30.078314505509738</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="5"/>
-        <v>0.39917751163437609</v>
+        <v>0.30913823241773897</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="6"/>
-        <v>2.4274308139928276</v>
+        <v>1.8798946565943586</v>
       </c>
       <c r="Y16" s="1"/>
     </row>
@@ -1669,46 +1686,46 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="8"/>
-        <v>240</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="8"/>
+        <v>170</v>
       </c>
       <c r="D17" s="1">
         <v>30</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>36.000000000000007</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>900.00000000000011</v>
+        <v>637.5</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="2"/>
-        <v>157500.00000000003</v>
+        <v>111562.5</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="3"/>
-        <v>1.875</v>
+        <v>1.328125</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="4"/>
-        <v>53.67412140575081</v>
+        <v>39.300949497729462</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="5"/>
-        <v>0.55165069222577223</v>
+        <v>0.40392642539333062</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="6"/>
-        <v>3.3546325878594256</v>
+        <v>2.4563093436080914</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
@@ -1716,46 +1733,46 @@
         <v>41</v>
       </c>
       <c r="B18">
-        <v>40</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="8"/>
-        <v>280</v>
+        <v>16</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="8"/>
+        <v>186</v>
       </c>
       <c r="D18" s="1">
         <v>30</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>42.000000000000007</v>
+        <v>27.900000000000006</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>1050</v>
+        <v>697.50000000000011</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="2"/>
-        <v>183750</v>
+        <v>122062.50000000001</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="3"/>
-        <v>2.1875</v>
+        <v>1.453125</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="4"/>
-        <v>61.474124411918453</v>
+        <v>42.671036460467029</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="5"/>
-        <v>0.63181738978916191</v>
+        <v>0.43856343028813338</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="6"/>
-        <v>3.8421327757449033</v>
+        <v>2.6669397787791893</v>
       </c>
       <c r="O18" t="s">
         <v>14</v>
@@ -1792,46 +1809,46 @@
         <v>42</v>
       </c>
       <c r="B19">
-        <v>45</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="8"/>
-        <v>325</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="8"/>
+        <v>203</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="7"/>
-        <v>32.5</v>
+        <v>20.3</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>48.750000000000007</v>
+        <v>30.450000000000003</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>1625</v>
+        <v>1015</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="2"/>
-        <v>284375</v>
+        <v>177625</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="3"/>
-        <v>2.5390625</v>
+        <v>1.5859375</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="4"/>
-        <v>93.2197964018183</v>
+        <v>61.594310870301392</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="5"/>
-        <v>0.95809235190757702</v>
+        <v>0.63305263950031987</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="6"/>
-        <v>5.8262372751136438</v>
+        <v>3.849644429393837</v>
       </c>
       <c r="O19" t="s">
         <v>15</v>
@@ -1862,46 +1879,46 @@
         <v>43</v>
       </c>
       <c r="B20">
-        <v>50</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="8"/>
-        <v>375</v>
+        <v>18</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="8"/>
+        <v>221</v>
       </c>
       <c r="D20" s="1">
         <v>30</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="7"/>
-        <v>37.5</v>
+        <v>22.1</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>56.250000000000007</v>
+        <v>33.150000000000006</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>1406.25</v>
+        <v>828.75000000000011</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>246093.75</v>
+        <v>145031.25000000003</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="3"/>
-        <v>2.9296875</v>
+        <v>1.7265625</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="4"/>
-        <v>78.902874318993057</v>
+        <v>49.866362232220816</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="5"/>
-        <v>0.8109462082785398</v>
+        <v>0.51251538960893617</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="6"/>
-        <v>4.931429644937066</v>
+        <v>3.116647639513801</v>
       </c>
       <c r="O20" t="s">
         <v>80</v>
@@ -1932,46 +1949,46 @@
         <v>44</v>
       </c>
       <c r="B21">
-        <v>55</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="8"/>
-        <v>430</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="8"/>
+        <v>240</v>
       </c>
       <c r="D21" s="1">
         <v>35</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="7"/>
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>64.500000000000014</v>
+        <v>36.000000000000007</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>1881.2500000000002</v>
+        <v>1050.0000000000002</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="2"/>
-        <v>329218.75000000006</v>
+        <v>183750.00000000003</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="3"/>
-        <v>3.359375</v>
+        <v>1.875</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="4"/>
-        <v>103.06958542252661</v>
+        <v>62.619808306709281</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="5"/>
-        <v>1.0593262946204125</v>
+        <v>0.64359247426340094</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="6"/>
-        <v>6.4418490889079134</v>
+        <v>3.9137380191693301</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
@@ -1979,46 +1996,46 @@
         <v>45</v>
       </c>
       <c r="B22">
-        <v>60</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="8"/>
-        <v>490</v>
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="8"/>
+        <v>260</v>
       </c>
       <c r="D22" s="1">
         <v>40</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="7"/>
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>73.500000000000014</v>
+        <v>39.000000000000007</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>2450.0000000000005</v>
+        <v>1300</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="2"/>
-        <v>428750.00000000006</v>
+        <v>227500</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="3"/>
-        <v>3.828125</v>
+        <v>2.03125</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="4"/>
-        <v>130.86920233695008</v>
+        <v>76.813505671326823</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="5"/>
-        <v>1.3450445795742092</v>
+        <v>0.78947214162197021</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="6"/>
-        <v>8.1793251460593801</v>
+        <v>4.8008441044579264</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
@@ -2026,46 +2043,46 @@
         <v>46</v>
       </c>
       <c r="B23">
-        <v>65</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="8"/>
-        <v>555</v>
+        <v>21</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="8"/>
+        <v>281</v>
       </c>
       <c r="D23" s="1">
         <v>35</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="7"/>
-        <v>55.5</v>
+        <v>28.1</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>83.250000000000014</v>
+        <v>42.150000000000006</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
-        <v>2428.125</v>
+        <v>1229.375</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="2"/>
-        <v>424921.875</v>
+        <v>215140.625</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="3"/>
-        <v>4.3359375</v>
+        <v>2.1953125</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="4"/>
-        <v>126.27546578443322</v>
+        <v>71.943047482202346</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="5"/>
-        <v>1.2978311761177861</v>
+        <v>0.73941465467819079</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="6"/>
-        <v>7.8922166115270764</v>
+        <v>4.4964404676376466</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -2073,46 +2090,46 @@
         <v>47</v>
       </c>
       <c r="B24">
-        <v>70</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="8"/>
-        <v>625</v>
+        <v>22</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="8"/>
+        <v>303</v>
       </c>
       <c r="D24" s="1">
         <v>30</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="7"/>
-        <v>62.5</v>
+        <v>30.3</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>93.750000000000014</v>
+        <v>45.45000000000001</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
-        <v>2343.75</v>
+        <v>1136.2500000000002</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="2"/>
-        <v>410156.25</v>
+        <v>198843.75000000003</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="3"/>
-        <v>4.8828125</v>
+        <v>2.3671875</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="4"/>
-        <v>118.51684632315593</v>
+        <v>65.831231813773044</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="5"/>
-        <v>1.2180898094324359</v>
+        <v>0.67659877141933411</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="6"/>
-        <v>7.4073028951972457</v>
+        <v>4.1144519883608153</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -2123,46 +2140,46 @@
         <v>48</v>
       </c>
       <c r="B25">
-        <v>75</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="8"/>
-        <v>700</v>
+        <v>23</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="8"/>
+        <v>326</v>
       </c>
       <c r="D25" s="1">
         <v>30</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>32.6</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>105.00000000000001</v>
+        <v>48.900000000000006</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
-        <v>2625</v>
+        <v>1222.5</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v>459375</v>
+        <v>213937.5</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="3"/>
-        <v>5.46875</v>
+        <v>2.546875</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="4"/>
-        <v>128.91909668932252</v>
+        <v>70.098553692563684</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="5"/>
-        <v>1.3250018270847037</v>
+        <v>0.72045735739579342</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="6"/>
-        <v>8.0574435430826572</v>
+        <v>4.3811596057852302</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -2170,46 +2187,46 @@
         <v>49</v>
       </c>
       <c r="B26">
-        <v>80</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="8"/>
-        <v>780</v>
+        <v>24</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="8"/>
+        <v>350</v>
       </c>
       <c r="D26" s="1">
         <v>30</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="7"/>
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>117.00000000000001</v>
+        <v>52.500000000000007</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="1"/>
-        <v>2925</v>
+        <v>1312.5</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="2"/>
-        <v>511875</v>
+        <v>229687.5</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="3"/>
-        <v>6.09375</v>
+        <v>2.734375</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="4"/>
-        <v>139.37460114869177</v>
+        <v>74.458655185513493</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="5"/>
-        <v>1.4324611784726655</v>
+        <v>0.76526951162888868</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="6"/>
-        <v>8.7109125717932354</v>
+        <v>4.6536659490945933</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
@@ -2217,46 +2234,46 @@
         <v>50</v>
       </c>
       <c r="B27">
-        <v>85</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="8"/>
-        <v>865</v>
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="8"/>
+        <v>375</v>
       </c>
       <c r="D27" s="1">
         <v>35</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="7"/>
-        <v>86.5</v>
+        <v>37.5</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>129.75000000000003</v>
+        <v>56.250000000000007</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>3784.3750000000005</v>
+        <v>1640.625</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="2"/>
-        <v>662265.62500000012</v>
+        <v>287109.375</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="3"/>
-        <v>6.7578125</v>
+        <v>2.9296875</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="4"/>
-        <v>174.79251507809684</v>
+        <v>92.053353372158554</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="5"/>
-        <v>1.7964786271915509</v>
+        <v>0.94610390965829627</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="6"/>
-        <v>10.924532192381053</v>
+        <v>5.7533345857599096</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -2264,46 +2281,46 @@
         <v>51</v>
       </c>
       <c r="B28">
-        <v>90</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="8"/>
-        <v>955</v>
+        <v>26</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="8"/>
+        <v>401</v>
       </c>
       <c r="D28" s="1">
         <v>40</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="7"/>
-        <v>95.5</v>
+        <v>40.1</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>143.25000000000003</v>
+        <v>60.150000000000006</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="1"/>
-        <v>4775.0000000000009</v>
+        <v>2005</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v>835625.00000000012</v>
+        <v>350875</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="3"/>
-        <v>7.4609375</v>
+        <v>3.1328125</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="4"/>
-        <v>213.61026511558245</v>
+        <v>111.23026437991456</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="5"/>
-        <v>2.1954388359101533</v>
+        <v>1.143199939460233</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="6"/>
-        <v>13.350641569723903</v>
+        <v>6.9518915237446599</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
@@ -2311,46 +2328,46 @@
         <v>52</v>
       </c>
       <c r="B29">
-        <v>95</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="8"/>
-        <v>1050</v>
+        <v>27</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="8"/>
+        <v>428</v>
       </c>
       <c r="D29" s="1">
         <v>45</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="7"/>
-        <v>105</v>
+        <v>42.800000000000004</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>157.50000000000003</v>
+        <v>64.2</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="1"/>
-        <v>5906.25</v>
+        <v>2407.5</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="2"/>
-        <v>1033593.75</v>
+        <v>421312.5</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="3"/>
-        <v>8.203125</v>
+        <v>3.34375</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="4"/>
-        <v>255.72629747752973</v>
+        <v>132.01468788249696</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="5"/>
-        <v>2.6282980574079446</v>
+        <v>1.3568176254589965</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="6"/>
-        <v>15.982893592345608</v>
+        <v>8.2509179926560599</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
@@ -2358,46 +2375,46 @@
         <v>53</v>
       </c>
       <c r="B30">
-        <v>100</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="8"/>
-        <v>1150</v>
+        <v>28</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="8"/>
+        <v>456</v>
       </c>
       <c r="D30" s="1">
         <v>35</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="7"/>
-        <v>115</v>
+        <v>45.6</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>172.50000000000003</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="1"/>
-        <v>5031.25</v>
+        <v>1995</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="2"/>
-        <v>880468.75</v>
+        <v>349125</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="3"/>
-        <v>8.984375</v>
+        <v>3.5625</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="4"/>
-        <v>210.71328409834533</v>
+        <v>108.09869375907112</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="5"/>
-        <v>2.1656643087885494</v>
+        <v>1.1110143525237866</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="6"/>
-        <v>13.169580256146583</v>
+        <v>6.7561683599419453</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -2405,46 +2422,46 @@
         <v>54</v>
       </c>
       <c r="B31">
-        <v>105</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="8"/>
-        <v>1255</v>
+        <v>29</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="8"/>
+        <v>485</v>
       </c>
       <c r="D31" s="1">
         <v>45</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="7"/>
-        <v>125.5</v>
+        <v>48.5</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>188.25000000000003</v>
+        <v>72.750000000000014</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>7059.375</v>
+        <v>2728.1250000000005</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
-        <v>1235390.625</v>
+        <v>477421.87500000006</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="3"/>
-        <v>9.8046875</v>
+        <v>3.7890625</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="4"/>
-        <v>285.83306972750688</v>
+        <v>146.03022880697773</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="5"/>
-        <v>2.9377287721993763</v>
+        <v>1.5008662405161601</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="6"/>
-        <v>17.86456685796918</v>
+        <v>9.1268893004361082</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
@@ -2452,46 +2469,46 @@
         <v>55</v>
       </c>
       <c r="B32">
-        <v>110</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="8"/>
-        <v>1365</v>
+        <v>30</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="8"/>
+        <v>515</v>
       </c>
       <c r="D32" s="1">
         <v>40</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="7"/>
-        <v>136.5</v>
+        <v>51.5</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>204.75000000000003</v>
+        <v>77.250000000000014</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="1"/>
-        <v>6825</v>
+        <v>2575</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="2"/>
-        <v>1194375</v>
+        <v>450625</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="3"/>
-        <v>10.6640625</v>
+        <v>4.0234375</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="4"/>
-        <v>267.05096292414515</v>
+        <v>136.12602513422621</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="5"/>
-        <v>2.7446904522759366</v>
+        <v>1.3990730361017696</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="6"/>
-        <v>16.690685182759072</v>
+        <v>8.5078765708891382</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -2499,46 +2516,46 @@
         <v>56</v>
       </c>
       <c r="B33">
-        <v>115</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="8"/>
-        <v>1480</v>
+        <v>31</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="8"/>
+        <v>546</v>
       </c>
       <c r="D33" s="1">
         <v>35</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="7"/>
-        <v>148</v>
+        <v>54.6</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>222.00000000000003</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="1"/>
-        <v>6475</v>
+        <v>2388.75</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="2"/>
-        <v>1133125</v>
+        <v>418031.25</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="3"/>
-        <v>11.5625</v>
+        <v>4.265625</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="4"/>
-        <v>244.7519406007425</v>
+        <v>124.6836770360014</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="5"/>
-        <v>2.5155060561742979</v>
+        <v>1.2814711250922366</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="6"/>
-        <v>15.296996287546406</v>
+        <v>7.7927298147500874</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2546,46 +2563,46 @@
         <v>57</v>
       </c>
       <c r="B34">
-        <v>120</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="8"/>
-        <v>1600</v>
+        <v>32</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="8"/>
+        <v>578</v>
       </c>
       <c r="D34" s="1">
         <v>45</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>57.800000000000004</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>240.00000000000003</v>
+        <v>86.700000000000017</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>3251.2500000000005</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="2"/>
-        <v>1575000</v>
+        <v>568968.75000000012</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>4.515625</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="4"/>
-        <v>328.55280312907433</v>
+        <v>167.51696377228293</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="5"/>
-        <v>3.3767926988265975</v>
+        <v>1.7217021276595748</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="6"/>
-        <v>20.534550195567146</v>
+        <v>10.469810235767683</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2593,46 +2610,46 @@
         <v>58</v>
       </c>
       <c r="B35">
-        <v>125</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" si="8"/>
-        <v>1725</v>
+        <v>33</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="8"/>
+        <v>611</v>
       </c>
       <c r="D35" s="1">
         <v>50</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="7"/>
-        <v>172.5</v>
+        <v>61.1</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>258.75000000000006</v>
+        <v>91.65000000000002</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="1"/>
-        <v>10781.250000000002</v>
+        <v>3818.7500000000009</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
-        <v>1886718.7500000002</v>
+        <v>668281.25000000012</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="3"/>
-        <v>13.4765625</v>
+        <v>4.7734375</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="4"/>
-        <v>380.03068570754169</v>
+        <v>194.17740196356624</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="5"/>
-        <v>3.9058709364386233</v>
+        <v>1.9957121868477643</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="6"/>
-        <v>23.751917856721356</v>
+        <v>12.13608762272289</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2640,46 +2657,46 @@
         <v>59</v>
       </c>
       <c r="B36">
-        <v>130</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" si="8"/>
-        <v>1855</v>
+        <v>34</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="8"/>
+        <v>645</v>
       </c>
       <c r="D36" s="1">
         <v>50</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="7"/>
-        <v>185.5</v>
+        <v>64.5</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>278.25000000000006</v>
+        <v>96.750000000000014</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="1"/>
-        <v>11593.750000000002</v>
+        <v>4031.25</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
-        <v>2028906.2500000002</v>
+        <v>705468.75</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="3"/>
-        <v>14.4921875</v>
+        <v>5.0390625</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="4"/>
-        <v>394.54593793915461</v>
+        <v>202.25096589954646</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="5"/>
-        <v>4.0550554732635335</v>
+        <v>2.0786904828564499</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="6"/>
-        <v>24.659121121197163</v>
+        <v>12.640685368721654</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2687,46 +2704,46 @@
         <v>60</v>
       </c>
       <c r="B37">
-        <v>135</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="8"/>
-        <v>1990</v>
+        <v>35</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="8"/>
+        <v>680</v>
       </c>
       <c r="D37" s="1">
         <v>60</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="7"/>
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>298.50000000000006</v>
+        <v>102.00000000000001</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="1"/>
-        <v>14925.000000000002</v>
+        <v>5100</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
-        <v>2611875.0000000005</v>
+        <v>892500</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="3"/>
-        <v>15.546875</v>
+        <v>5.3125</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="4"/>
-        <v>490.31311872112644</v>
+        <v>252.40830755634116</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="5"/>
-        <v>5.0393292757449109</v>
+        <v>2.5941964943290619</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="6"/>
-        <v>30.644569920070403</v>
+        <v>15.775519222271322</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2734,46 +2751,46 @@
         <v>61</v>
       </c>
       <c r="B38">
-        <v>140</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="8"/>
-        <v>2130</v>
+        <v>36</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="8"/>
+        <v>716</v>
       </c>
       <c r="D38" s="1">
         <v>55</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="7"/>
-        <v>213</v>
+        <v>71.600000000000009</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>319.50000000000006</v>
+        <v>107.40000000000002</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="1"/>
-        <v>14643.75</v>
+        <v>4922.5000000000009</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
-        <v>2562656.25</v>
+        <v>861437.50000000012</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="3"/>
-        <v>16.640625</v>
+        <v>5.59375</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="4"/>
-        <v>464.38734338500745</v>
+        <v>240.27892787099591</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="5"/>
-        <v>4.7728699181236882</v>
+        <v>2.4695334253407917</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="6"/>
-        <v>29.024208961562966</v>
+        <v>15.017432991937245</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2781,46 +2798,46 @@
         <v>62</v>
       </c>
       <c r="B39">
-        <v>145</v>
-      </c>
-      <c r="C39" s="1">
-        <f t="shared" si="8"/>
-        <v>2275</v>
+        <v>37</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="8"/>
+        <v>753</v>
       </c>
       <c r="D39" s="1">
         <v>55</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="7"/>
-        <v>227.5</v>
+        <v>75.3</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>341.25000000000006</v>
+        <v>112.95000000000002</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="1"/>
-        <v>15640.625</v>
+        <v>5176.875</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
-        <v>2737109.375</v>
+        <v>905953.125</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="3"/>
-        <v>17.7734375</v>
+        <v>5.8828125</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="4"/>
-        <v>478.80009566435484</v>
+        <v>249.17969379532636</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="5"/>
-        <v>4.921000983216981</v>
+        <v>2.5610135195630765</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" si="6"/>
-        <v>29.925005979022178</v>
+        <v>15.573730862207897</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2828,46 +2845,46 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <v>150</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" si="8"/>
-        <v>2425</v>
+        <v>38</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="8"/>
+        <v>791</v>
       </c>
       <c r="D40" s="1">
         <v>50</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="7"/>
-        <v>242.5</v>
+        <v>79.100000000000009</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>363.75000000000006</v>
+        <v>118.65000000000002</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="1"/>
-        <v>15156.25</v>
+        <v>4943.7500000000009</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
-        <v>2652343.75</v>
+        <v>865156.25000000012</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="3"/>
-        <v>18.9453125</v>
+        <v>6.1796875</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="4"/>
-        <v>447.90395461591748</v>
+        <v>234.60621789100159</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="5"/>
-        <v>4.6034573113302635</v>
+        <v>2.4112305727686274</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="6"/>
-        <v>27.993997163494843</v>
+        <v>14.662888618187599</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2875,46 +2892,46 @@
         <v>64</v>
       </c>
       <c r="B41">
-        <v>155</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="8"/>
-        <v>2580</v>
+        <v>39</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="8"/>
+        <v>830</v>
       </c>
       <c r="D41" s="1">
         <v>55</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="7"/>
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>387.00000000000006</v>
+        <v>124.50000000000001</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="1"/>
-        <v>17737.5</v>
+        <v>5706.25</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="2"/>
-        <v>3104062.5</v>
+        <v>998593.75</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="3"/>
-        <v>20.15625</v>
+        <v>6.484375</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="4"/>
-        <v>506.07565915170051</v>
+        <v>266.93118930771641</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="5"/>
-        <v>5.2013331635035884</v>
+        <v>2.7434594456626411</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="6"/>
-        <v>31.629728696981282</v>
+        <v>16.683199331732276</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2922,46 +2939,46 @@
         <v>65</v>
       </c>
       <c r="B42">
-        <v>160</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" si="8"/>
-        <v>2740</v>
+        <v>40</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="8"/>
+        <v>870</v>
       </c>
       <c r="D42" s="1">
         <v>65</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="7"/>
-        <v>274</v>
+        <v>87</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>411.00000000000006</v>
+        <v>130.50000000000003</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="1"/>
-        <v>22262.5</v>
+        <v>7068.7500000000009</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
-        <v>3895937.5</v>
+        <v>1237031.2500000002</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="3"/>
-        <v>21.40625</v>
+        <v>6.796875</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="4"/>
-        <v>613.30709629811838</v>
+        <v>325.90305649891945</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="5"/>
-        <v>6.3034340452862168</v>
+        <v>3.3495591917944503</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="6"/>
-        <v>38.331693518632399</v>
+        <v>20.368941031182466</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2969,46 +2986,46 @@
         <v>66</v>
       </c>
       <c r="B43">
-        <v>165</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="shared" si="8"/>
-        <v>2905</v>
+        <v>41</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="8"/>
+        <v>911</v>
       </c>
       <c r="D43" s="1">
         <v>60</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="7"/>
-        <v>290.5</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>435.75000000000006</v>
+        <v>136.65000000000003</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="1"/>
-        <v>21787.5</v>
+        <v>6832.5000000000018</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
-        <v>3812812.5</v>
+        <v>1195687.5000000002</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="3"/>
-        <v>22.6953125</v>
+        <v>7.1171875</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="4"/>
-        <v>579.63716262359344</v>
+        <v>310.42644896303443</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="5"/>
-        <v>5.9573819491869333</v>
+        <v>3.1904940587867427</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="6"/>
-        <v>36.22732266397459</v>
+        <v>19.401653060189652</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3016,52 +3033,52 @@
         <v>67</v>
       </c>
       <c r="B44">
-        <v>170</v>
-      </c>
-      <c r="C44" s="1">
-        <f t="shared" si="8"/>
-        <v>3075</v>
+        <v>42</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="8"/>
+        <v>953</v>
       </c>
       <c r="D44" s="1">
         <v>70</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="7"/>
-        <v>307.5</v>
+        <v>95.300000000000011</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>461.25000000000006</v>
+        <v>142.95000000000002</v>
       </c>
       <c r="G44" s="1">
         <f>D44*(E44+F44)/2</f>
-        <v>26906.25</v>
+        <v>8338.7500000000018</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
-        <v>4708593.75</v>
+        <v>1459281.2500000002</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="3"/>
-        <v>24.0234375</v>
+        <v>7.4453125</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="4"/>
-        <v>691.38776563709894</v>
+        <v>373.29602797901583</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="5"/>
-        <v>7.1059298134924065</v>
+        <v>3.8366536208954409</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="6"/>
-        <v>43.211735352318684</v>
+        <v>23.33100174868849</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K46" s="1">
         <f>SUM(K2:K45)</f>
-        <v>84.954790480037133</v>
+        <v>45.807555838637825</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/progress.xlsx
+++ b/Documents/progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>زمان هر مسابقه</t>
   </si>
@@ -297,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,8 +312,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,8 +333,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -334,12 +347,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,8 +379,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -631,39 +665,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z46"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -676,53 +711,62 @@
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -732,69 +776,78 @@
       <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
-        <f>C2*$Y$12</f>
+      <c r="E2" s="4">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F44" si="0">C2*($Y$12+$Y$13)</f>
+        <f>C2*$Z$12</f>
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <f>C2*($Z$12+$Z$13)</f>
         <v>7.5000000000000009</v>
       </c>
-      <c r="G2" s="1">
-        <f t="shared" ref="G2:G43" si="1">D2*(E2+F2)/2</f>
+      <c r="H2" s="1">
+        <f>D2*(F2+G2)/2</f>
         <v>31.25</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H44" si="2">G2*$Y$15</f>
+      <c r="I2" s="1">
+        <f>H2*$Z$15</f>
         <v>5468.75</v>
       </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I44" si="3">C2*$T$12*(2*$Y$12+$Y$13)/2</f>
-        <v>0.390625</v>
-      </c>
-      <c r="J2" s="2">
-        <f t="shared" ref="J2:J44" si="4">G2/($V$6+I2)</f>
-        <v>2.0446911055936909</v>
-      </c>
-      <c r="K2" s="1">
-        <f t="shared" ref="K2:K44" si="5">J2/$V$10</f>
+      <c r="J2" s="1">
+        <f>C2*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>0.546875</v>
+      </c>
+      <c r="K2" s="2">
+        <f>H2/($W$6+J2)</f>
+        <v>2.0239988434292324</v>
+      </c>
+      <c r="L2" s="1">
+        <f>K2/$W$10</f>
+        <v>3.3920721357471394E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <f>K2*$U$12</f>
+        <v>0.17709989880005783</v>
+      </c>
+      <c r="N2" s="5">
         <v>2.1014880807490713E-2</v>
       </c>
-      <c r="L2" s="1">
-        <f t="shared" ref="L2:L44" si="6">J2*$T$12</f>
+      <c r="O2" s="5">
         <v>0.12779319409960568</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>1</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>2</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>3</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>5</v>
       </c>
-      <c r="T2" s="1"/>
-      <c r="V2" s="1">
-        <f>SUM(Y2:Y4)</f>
-        <v>132</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="U2" s="1"/>
+      <c r="W2" s="1">
+        <f>SUM(Z2:Z4)</f>
+        <v>137</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>75</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -808,69 +861,78 @@
       <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E44" si="7">C3*$Y$12</f>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <f>C3*$Z$12</f>
         <v>5.1000000000000005</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" si="0"/>
+      <c r="G3" s="1">
+        <f>C3*($Z$12+$Z$13)</f>
         <v>7.6500000000000012</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" si="1"/>
+      <c r="H3" s="1">
+        <f>D3*(F3+G3)/2</f>
         <v>31.875000000000004</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" si="2"/>
+      <c r="I3" s="1">
+        <f>H3*$Z$15</f>
         <v>5578.1250000000009</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" si="3"/>
-        <v>0.3984375</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" si="4"/>
-        <v>2.0845193781475806</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" si="5"/>
+      <c r="J3" s="1">
+        <f>C3*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>0.55781249999999993</v>
+      </c>
+      <c r="K3" s="2">
+        <f>H3/($W$6+J3)</f>
+        <v>2.0630173796212024</v>
+      </c>
+      <c r="L3" s="1">
+        <f>K3/$W$10</f>
+        <v>3.457464312142941E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <f>K3*$U$12</f>
+        <v>0.18051402071685518</v>
+      </c>
+      <c r="N3" s="5">
         <v>2.1424226942072359E-2</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" si="6"/>
+      <c r="O3" s="5">
         <v>0.13028246113422379</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>1000</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>1500</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>2000</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>4000</v>
       </c>
-      <c r="T3" s="1"/>
-      <c r="V3" s="1">
-        <f>Y18/V2</f>
-        <v>6.8181818181818183</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="U3" s="1"/>
+      <c r="W3" s="1">
+        <f>Z18/W2</f>
+        <v>6.5693430656934311</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="1">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="1">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -878,49 +940,55 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C44" si="8">C3+B4</f>
+        <f t="shared" ref="C4:C44" si="0">C3+B4</f>
         <v>53</v>
       </c>
       <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" si="7"/>
+      <c r="F4" s="1">
+        <f>C4*$Z$12</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
+      <c r="G4" s="1">
+        <f>C4*($Z$12+$Z$13)</f>
         <v>7.9500000000000011</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" si="1"/>
-        <v>66.250000000000014</v>
-      </c>
       <c r="H4" s="1">
-        <f t="shared" si="2"/>
-        <v>11593.750000000002</v>
+        <f>D4*(F4+G4)/2</f>
+        <v>53.000000000000007</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="3"/>
-        <v>0.4140625</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="4"/>
-        <v>4.3281079110463008</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="5"/>
+        <f>H4*$Z$15</f>
+        <v>9275.0000000000018</v>
+      </c>
+      <c r="J4" s="1">
+        <f>C4*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>0.57968749999999991</v>
+      </c>
+      <c r="K4" s="2">
+        <f>H4/($W$6+J4)</f>
+        <v>3.4254223350693196</v>
+      </c>
+      <c r="L4" s="1">
+        <f>K4/$W$10</f>
+        <v>5.7407540985883972E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f>K4*$U$12</f>
+        <v>0.29972445431856543</v>
+      </c>
+      <c r="N4" s="5">
         <v>4.4483331307975875E-2</v>
       </c>
-      <c r="L4" s="1">
-        <f t="shared" si="6"/>
+      <c r="O4" s="5">
         <v>0.2705067444403938</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>11</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -931,15 +999,18 @@
       <c r="S4" s="1">
         <v>1</v>
       </c>
-      <c r="T4" s="1"/>
-      <c r="Y4" s="1">
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="Z4" s="1">
         <v>17</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -947,49 +1018,55 @@
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" si="7"/>
+      <c r="F5" s="1">
+        <f>C5*$Z$12</f>
         <v>5.6000000000000005</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
+      <c r="G5" s="1">
+        <f>C5*($Z$12+$Z$13)</f>
         <v>8.4000000000000021</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>70.000000000000014</v>
-      </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
-        <v>12250.000000000002</v>
+        <f>D5*(F5+G5)/2</f>
+        <v>56.000000000000014</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="3"/>
-        <v>0.4375</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="4"/>
-        <v>4.5661036691904497</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="5"/>
+        <f>H5*$Z$15</f>
+        <v>9800.0000000000018</v>
+      </c>
+      <c r="J5" s="1">
+        <f>C5*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="K5" s="2">
+        <f>H5/($W$6+J5)</f>
+        <v>3.6116549579638382</v>
+      </c>
+      <c r="L5" s="1">
+        <f>K5/$W$10</f>
+        <v>6.0528661795505069E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f>K5*$U$12</f>
+        <v>0.31601980882183583</v>
+      </c>
+      <c r="N5" s="5">
         <v>4.692939882223518E-2</v>
       </c>
-      <c r="L5" s="1">
-        <f t="shared" si="6"/>
+      <c r="O5" s="5">
         <v>0.28538147932440311</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>12</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
@@ -998,19 +1075,22 @@
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="V5" s="1">
-        <f>T11/Y15</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="W5" s="1">
+        <f>U11/Z15</f>
         <v>12.142857142857142</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1018,62 +1098,71 @@
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="7"/>
+      <c r="F6" s="1">
+        <f>C6*$Z$12</f>
         <v>6</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
+      <c r="G6" s="1">
+        <f>C6*($Z$12+$Z$13)</f>
         <v>9.0000000000000018</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" si="1"/>
-        <v>75.000000000000014</v>
-      </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>13125.000000000002</v>
+        <f>D6*(F6+G6)/2</f>
+        <v>60.000000000000007</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="3"/>
-        <v>0.46875</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="4"/>
-        <v>4.8823016564952058</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="5"/>
+        <f>H6*$Z$15</f>
+        <v>10500.000000000002</v>
+      </c>
+      <c r="J6" s="1">
+        <f>C6*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>0.65625</v>
+      </c>
+      <c r="K6" s="2">
+        <f>H6/($W$6+J6)</f>
+        <v>3.8587424633936269</v>
+      </c>
+      <c r="L6" s="1">
+        <f>K6/$W$10</f>
+        <v>6.4669665358726522E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f>K6*$U$12</f>
+        <v>0.33763996554694231</v>
+      </c>
+      <c r="N6" s="5">
         <v>5.0179211469534066E-2</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="6"/>
+      <c r="O6" s="5">
         <v>0.30514385353095036</v>
       </c>
-      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="V6" s="1">
-        <f>T10+V5</f>
+      <c r="U6" s="1"/>
+      <c r="W6" s="1">
+        <f>U10+W5</f>
         <v>14.892857142857142</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Y6" s="1">
-        <v>900</v>
-      </c>
-      <c r="Z6" s="1" t="s">
+      <c r="Z6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1081,49 +1170,55 @@
         <v>5</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" si="7"/>
+      <c r="F7" s="1">
+        <f>C7*$Z$12</f>
         <v>6.5</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
+      <c r="G7" s="1">
+        <f>C7*($Z$12+$Z$13)</f>
         <v>9.7500000000000018</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>81.25</v>
-      </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
-        <v>14218.75</v>
+        <f>D7*(F7+G7)/2</f>
+        <v>65</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.5078125</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="4"/>
-        <v>5.2757446191753026</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="5"/>
+        <f>H7*$Z$15</f>
+        <v>11375</v>
+      </c>
+      <c r="J7" s="1">
+        <f>C7*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>0.7109375</v>
+      </c>
+      <c r="K7" s="2">
+        <f>H7/($W$6+J7)</f>
+        <v>4.1656533867391463</v>
+      </c>
+      <c r="L7" s="1">
+        <f>K7/$W$10</f>
+        <v>6.9813265092572727E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f>K7*$U$12</f>
+        <v>0.36449467133967528</v>
+      </c>
+      <c r="N7" s="5">
         <v>5.4222930808190614E-2</v>
       </c>
-      <c r="L7" s="1">
-        <f t="shared" si="6"/>
+      <c r="O7" s="5">
         <v>0.32973403869845641</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>13</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.25</v>
       </c>
       <c r="Q7" s="1">
         <v>0.25</v>
@@ -1134,15 +1229,18 @@
       <c r="S7" s="1">
         <v>0.25</v>
       </c>
-      <c r="T7" s="1"/>
-      <c r="Y7" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="1" t="s">
+      <c r="T7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="Z7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1150,50 +1248,59 @@
         <v>6</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
         <v>15</v>
       </c>
-      <c r="E8" s="1">
-        <f t="shared" si="7"/>
+      <c r="F8" s="1">
+        <f>C8*$Z$12</f>
         <v>7.1000000000000005</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
+      <c r="G8" s="1">
+        <f>C8*($Z$12+$Z$13)</f>
         <v>10.650000000000002</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>133.12500000000003</v>
-      </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
-        <v>23296.875000000004</v>
+        <f>D8*(F8+G8)/2</f>
+        <v>88.750000000000014</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="3"/>
-        <v>0.5546875</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="4"/>
-        <v>8.6178744310382225</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="5"/>
+        <f>H8*$Z$15</f>
+        <v>15531.250000000002</v>
+      </c>
+      <c r="J8" s="1">
+        <f>C8*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>0.77656249999999993</v>
+      </c>
+      <c r="K8" s="2">
+        <f>H8/($W$6+J8)</f>
+        <v>5.6638983461302876</v>
+      </c>
+      <c r="L8" s="1">
+        <f>K8/$W$10</f>
+        <v>9.4922740800887237E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f>K8*$U$12</f>
+        <v>0.49559110528640016</v>
+      </c>
+      <c r="N8" s="5">
         <v>8.8572598319003965E-2</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" si="6"/>
+      <c r="O8" s="5">
         <v>0.53861715193988891</v>
       </c>
-      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1201,59 +1308,68 @@
         <v>7</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
         <v>15</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="7"/>
+      <c r="F9" s="1">
+        <f>C9*$Z$12</f>
         <v>7.8000000000000007</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
+      <c r="G9" s="1">
+        <f>C9*($Z$12+$Z$13)</f>
         <v>11.700000000000001</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>146.25</v>
-      </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
-        <v>25593.75</v>
+        <f>D9*(F9+G9)/2</f>
+        <v>97.5</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="3"/>
-        <v>0.609375</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="4"/>
-        <v>9.4341252699784022</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="5"/>
+        <f>H9*$Z$15</f>
+        <v>17062.5</v>
+      </c>
+      <c r="J9" s="1">
+        <f>C9*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>0.85312499999999991</v>
+      </c>
+      <c r="K9" s="2">
+        <f>H9/($W$6+J9)</f>
+        <v>6.1920557965467378</v>
+      </c>
+      <c r="L9" s="1">
+        <f>K9/$W$10</f>
+        <v>0.10377426844212588</v>
+      </c>
+      <c r="M9" s="1">
+        <f>K9*$U$12</f>
+        <v>0.54180488219783951</v>
+      </c>
+      <c r="N9" s="5">
         <v>9.6961843052555813E-2</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="6"/>
+      <c r="O9" s="5">
         <v>0.58963282937365014</v>
       </c>
-      <c r="V9" s="1">
-        <f>Y9*3600</f>
+      <c r="W9" s="1">
+        <f>Z9*3600</f>
         <v>21600</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>6</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1261,76 +1377,85 @@
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
         <v>15</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="7"/>
+      <c r="F10" s="1">
+        <f>C10*$Z$12</f>
         <v>8.6</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
+      <c r="G10" s="1">
+        <f>C10*($Z$12+$Z$13)</f>
         <v>12.900000000000002</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>161.25</v>
-      </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
-        <v>28218.75</v>
+        <f>D10*(F10+G10)/2</f>
+        <v>107.5</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.671875</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="4"/>
-        <v>10.35995984511688</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="5"/>
+        <f>H10*$Z$15</f>
+        <v>18812.5</v>
+      </c>
+      <c r="J10" s="1">
+        <f>C10*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>0.94062499999999993</v>
+      </c>
+      <c r="K10" s="2">
+        <f>H10/($W$6+J10)</f>
+        <v>6.7894098739673501</v>
+      </c>
+      <c r="L10" s="1">
+        <f>K10/$W$10</f>
+        <v>0.11378548029519356</v>
+      </c>
+      <c r="M10" s="1">
+        <f>K10*$U$12</f>
+        <v>0.59407336397214305</v>
+      </c>
+      <c r="N10" s="5">
         <v>0.10647736507481238</v>
       </c>
-      <c r="L10" s="1">
-        <f t="shared" si="6"/>
+      <c r="O10" s="5">
         <v>0.64749749031980497</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>81</v>
-      </c>
-      <c r="P10" s="1">
-        <f>P2*P7</f>
-        <v>0.25</v>
       </c>
       <c r="Q10" s="1">
         <f>Q2*Q7</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R10" s="1">
         <f>R2*R7</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S10" s="1">
         <f>S2*S7</f>
+        <v>0.75</v>
+      </c>
+      <c r="T10" s="1">
+        <f>T2*T7</f>
         <v>1.25</v>
       </c>
-      <c r="T10" s="1">
-        <f>SUM(P10:S10)</f>
+      <c r="U10" s="1">
+        <f>SUM(Q10:T10)</f>
         <v>2.75</v>
       </c>
-      <c r="V10" s="2">
-        <f>V9/(V2+Y6/Y7)</f>
-        <v>97.297297297297291</v>
-      </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="2">
+        <f>W9/(W2+Z6/Z7)</f>
+        <v>59.668508287292816</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1338,69 +1463,78 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="D11" s="1">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4">
         <v>20</v>
       </c>
-      <c r="E11" s="1">
-        <f t="shared" si="7"/>
+      <c r="F11" s="1">
+        <f>C11*$Z$12</f>
         <v>9.5</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
+      <c r="G11" s="1">
+        <f>C11*($Z$12+$Z$13)</f>
         <v>14.250000000000002</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>237.5</v>
-      </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
-        <v>41562.5</v>
+        <f>D11*(F11+G11)/2</f>
+        <v>178.125</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="3"/>
-        <v>0.7421875</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="4"/>
-        <v>15.190234849025627</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="5"/>
+        <f>H11*$Z$15</f>
+        <v>31171.875</v>
+      </c>
+      <c r="J11" s="1">
+        <f>C11*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>1.0390625</v>
+      </c>
+      <c r="K11" s="2">
+        <f>H11/($W$6+J11)</f>
+        <v>11.180385288966725</v>
+      </c>
+      <c r="L11" s="1">
+        <f>K11/$W$10</f>
+        <v>0.18737497567620159</v>
+      </c>
+      <c r="M11" s="1">
+        <f>K11*$U$12</f>
+        <v>0.97828371278458837</v>
+      </c>
+      <c r="N11" s="5">
         <v>0.15612185817054117</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" si="6"/>
+      <c r="O11" s="5">
         <v>0.94938967806410168</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>83</v>
-      </c>
-      <c r="P11" s="1">
-        <f>P3*P7</f>
-        <v>250</v>
       </c>
       <c r="Q11" s="1">
         <f>Q3*Q7</f>
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="R11" s="1">
         <f>R3*R7</f>
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="S11" s="1">
         <f>S3*S7</f>
+        <v>500</v>
+      </c>
+      <c r="T11" s="1">
+        <f>T3*T7</f>
         <v>1000</v>
       </c>
-      <c r="T11" s="1">
-        <f>SUM(P11:S11)</f>
+      <c r="U11" s="1">
+        <f>SUM(Q11:T11)</f>
         <v>2125</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1408,75 +1542,84 @@
         <v>10</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="D12" s="1">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4">
         <v>20</v>
       </c>
-      <c r="E12" s="1">
-        <f t="shared" si="7"/>
+      <c r="F12" s="1">
+        <f>C12*$Z$12</f>
         <v>10.5</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
+      <c r="G12" s="1">
+        <f>C12*($Z$12+$Z$13)</f>
         <v>15.750000000000002</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
+        <f>D12*(F12+G12)/2</f>
+        <v>196.875</v>
+      </c>
+      <c r="I12" s="1">
+        <f>H12*$Z$15</f>
+        <v>34453.125</v>
+      </c>
+      <c r="J12" s="1">
+        <f>C12*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>1.1484375</v>
+      </c>
+      <c r="K12" s="2">
+        <f>H12/($W$6+J12)</f>
+        <v>12.273011897307452</v>
+      </c>
+      <c r="L12" s="1">
+        <f>K12/$W$10</f>
+        <v>0.20568658827894898</v>
+      </c>
+      <c r="M12" s="1">
+        <f>K12*$U$12</f>
+        <v>1.0738885410144019</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.17169780050666478</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1.0441082463243128</v>
+      </c>
+      <c r="P12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>Q5*Q7</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" ref="R12:T12" si="1">R5*R7</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
         <f t="shared" si="1"/>
-        <v>262.5</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="2"/>
-        <v>45937.5</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="3"/>
-        <v>0.8203125</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="4"/>
-        <v>16.705731941189004</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="5"/>
-        <v>0.17169780050666478</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0441082463243128</v>
-      </c>
-      <c r="O12" t="s">
-        <v>82</v>
-      </c>
-      <c r="P12" s="1">
-        <f>P5*P7</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="1">
-        <f t="shared" ref="Q12:S12" si="9">Q5*Q7</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" si="9"/>
-        <v>6.25E-2</v>
-      </c>
       <c r="T12" s="1">
-        <f>SUM(P12:S12)</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="Y12" s="1">
+        <f t="shared" si="1"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <f>SUM(Q12:T12)</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="Z12" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1484,55 +1627,64 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4">
         <v>15</v>
       </c>
-      <c r="E13" s="1">
-        <f t="shared" si="7"/>
+      <c r="F13" s="1">
+        <f>C13*$Z$12</f>
         <v>11.600000000000001</v>
       </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
+      <c r="G13" s="1">
+        <f>C13*($Z$12+$Z$13)</f>
         <v>17.400000000000002</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>217.50000000000003</v>
-      </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
-        <v>38062.500000000007</v>
+        <f>D13*(F13+G13)/2</f>
+        <v>145.00000000000003</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="3"/>
-        <v>0.90625</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="4"/>
-        <v>13.766600734670813</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="5"/>
+        <f>H13*$Z$15</f>
+        <v>25375.000000000004</v>
+      </c>
+      <c r="J13" s="1">
+        <f>C13*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>1.2687499999999998</v>
+      </c>
+      <c r="K13" s="2">
+        <f>H13/($W$6+J13)</f>
+        <v>8.9718800066294691</v>
+      </c>
+      <c r="L13" s="1">
+        <f>K13/$W$10</f>
+        <v>0.15036206307406796</v>
+      </c>
+      <c r="M13" s="1">
+        <f>K13*$U$12</f>
+        <v>0.78503950058007854</v>
+      </c>
+      <c r="N13" s="5">
         <v>0.14149006310633894</v>
       </c>
-      <c r="L13" s="1">
-        <f t="shared" si="6"/>
+      <c r="O13" s="5">
         <v>0.86041254591692584</v>
       </c>
-      <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="Y13" s="1">
+      <c r="U13" s="1"/>
+      <c r="Z13" s="1">
         <v>0.05</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1540,47 +1692,56 @@
         <v>12</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="D14" s="1">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4">
         <v>25</v>
       </c>
-      <c r="E14" s="1">
-        <f t="shared" si="7"/>
+      <c r="F14" s="1">
+        <f>C14*$Z$12</f>
         <v>12.8</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
+      <c r="G14" s="1">
+        <f>C14*($Z$12+$Z$13)</f>
         <v>19.200000000000003</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
-        <v>70000</v>
+        <f>D14*(F14+G14)/2</f>
+        <v>320</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="4"/>
-        <v>25.168539325842698</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="5"/>
+        <f>H14*$Z$15</f>
+        <v>56000</v>
+      </c>
+      <c r="J14" s="1">
+        <f>C14*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>1.4</v>
+      </c>
+      <c r="K14" s="2">
+        <f>H14/($W$6+J14)</f>
+        <v>19.640508548882071</v>
+      </c>
+      <c r="L14" s="1">
+        <f>K14/$W$10</f>
+        <v>0.32916037475441251</v>
+      </c>
+      <c r="M14" s="1">
+        <f>K14*$U$12</f>
+        <v>1.7185444980271811</v>
+      </c>
+      <c r="N14" s="5">
         <v>0.2586766541822722</v>
       </c>
-      <c r="L14" s="1">
-        <f t="shared" si="6"/>
+      <c r="O14" s="5">
         <v>1.5730337078651686</v>
       </c>
-      <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1588,52 +1749,61 @@
         <v>13</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>141</v>
       </c>
       <c r="D15" s="1">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4">
         <v>20</v>
       </c>
-      <c r="E15" s="1">
-        <f t="shared" si="7"/>
+      <c r="F15" s="1">
+        <f>C15*$Z$12</f>
         <v>14.100000000000001</v>
       </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
+      <c r="G15" s="1">
+        <f>C15*($Z$12+$Z$13)</f>
         <v>21.150000000000002</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>352.5</v>
-      </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
-        <v>61687.5</v>
+        <f>D15*(F15+G15)/2</f>
+        <v>264.375</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="3"/>
-        <v>1.1015625</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="4"/>
-        <v>22.038936571069708</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="5"/>
+        <f>H15*$Z$15</f>
+        <v>46265.625</v>
+      </c>
+      <c r="J15" s="1">
+        <f>C15*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>1.5421874999999998</v>
+      </c>
+      <c r="K15" s="2">
+        <f>H15/($W$6+J15)</f>
+        <v>16.08605304974942</v>
+      </c>
+      <c r="L15" s="1">
+        <f>K15/$W$10</f>
+        <v>0.26959033351894862</v>
+      </c>
+      <c r="M15" s="1">
+        <f>K15*$U$12</f>
+        <v>1.4075296418530743</v>
+      </c>
+      <c r="N15" s="5">
         <v>0.22651129253599425</v>
       </c>
-      <c r="L15" s="1">
-        <f t="shared" si="6"/>
+      <c r="O15" s="5">
         <v>1.3774335356918568</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1">
         <v>175</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1641,47 +1811,56 @@
         <v>14</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="D16" s="1">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4">
         <v>25</v>
       </c>
-      <c r="E16" s="1">
-        <f t="shared" si="7"/>
+      <c r="F16" s="1">
+        <f>C16*$Z$12</f>
         <v>15.5</v>
       </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
+      <c r="G16" s="1">
+        <f>C16*($Z$12+$Z$13)</f>
         <v>23.250000000000004</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>484.375</v>
-      </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
-        <v>84765.625</v>
+        <f>D16*(F16+G16)/2</f>
+        <v>387.5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="3"/>
-        <v>1.2109375</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="4"/>
-        <v>30.078314505509738</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="5"/>
+        <f>H16*$Z$15</f>
+        <v>67812.5</v>
+      </c>
+      <c r="J16" s="1">
+        <f>C16*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>1.6953125</v>
+      </c>
+      <c r="K16" s="2">
+        <f>H16/($W$6+J16)</f>
+        <v>23.360021529973761</v>
+      </c>
+      <c r="L16" s="1">
+        <f>K16/$W$10</f>
+        <v>0.39149665712270842</v>
+      </c>
+      <c r="M16" s="1">
+        <f>K16*$U$12</f>
+        <v>2.0440018838727041</v>
+      </c>
+      <c r="N16" s="5">
         <v>0.30913823241773897</v>
       </c>
-      <c r="L16" s="1">
-        <f t="shared" si="6"/>
+      <c r="O16" s="5">
         <v>1.8798946565943586</v>
       </c>
-      <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1689,46 +1868,55 @@
         <v>15</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="D17" s="1">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4">
         <v>30</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" si="7"/>
+      <c r="F17" s="1">
+        <f>C17*$Z$12</f>
         <v>17</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
+      <c r="G17" s="1">
+        <f>C17*($Z$12+$Z$13)</f>
         <v>25.500000000000004</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>637.5</v>
-      </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
-        <v>111562.5</v>
+        <f>D17*(F17+G17)/2</f>
+        <v>531.25</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="3"/>
-        <v>1.328125</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="4"/>
-        <v>39.300949497729462</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="5"/>
+        <f>H17*$Z$15</f>
+        <v>92968.75</v>
+      </c>
+      <c r="J17" s="1">
+        <f>C17*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>1.8593749999999998</v>
+      </c>
+      <c r="K17" s="2">
+        <f>H17/($W$6+J17)</f>
+        <v>31.712191872085278</v>
+      </c>
+      <c r="L17" s="1">
+        <f>K17/$W$10</f>
+        <v>0.53147284526365146</v>
+      </c>
+      <c r="M17" s="1">
+        <f>K17*$U$12</f>
+        <v>2.7748167888074615</v>
+      </c>
+      <c r="N17" s="5">
         <v>0.40392642539333062</v>
       </c>
-      <c r="L17" s="1">
-        <f t="shared" si="6"/>
+      <c r="O17" s="5">
         <v>2.4563093436080914</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1736,75 +1924,84 @@
         <v>16</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>186</v>
       </c>
       <c r="D18" s="1">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4">
         <v>30</v>
       </c>
-      <c r="E18" s="1">
-        <f t="shared" si="7"/>
+      <c r="F18" s="1">
+        <f>C18*$Z$12</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
+      <c r="G18" s="1">
+        <f>C18*($Z$12+$Z$13)</f>
         <v>27.900000000000006</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>697.50000000000011</v>
-      </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
-        <v>122062.50000000001</v>
+        <f>D18*(F18+G18)/2</f>
+        <v>465.00000000000006</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="3"/>
-        <v>1.453125</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="4"/>
-        <v>42.671036460467029</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="5"/>
+        <f>H18*$Z$15</f>
+        <v>81375.000000000015</v>
+      </c>
+      <c r="J18" s="1">
+        <f>C18*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>2.0343749999999998</v>
+      </c>
+      <c r="K18" s="2">
+        <f>H18/($W$6+J18)</f>
+        <v>27.47052773162434</v>
+      </c>
+      <c r="L18" s="1">
+        <f>K18/$W$10</f>
+        <v>0.46038569624296349</v>
+      </c>
+      <c r="M18" s="1">
+        <f>K18*$U$12</f>
+        <v>2.4036711765171295</v>
+      </c>
+      <c r="N18" s="5">
         <v>0.43856343028813338</v>
       </c>
-      <c r="L18" s="1">
-        <f t="shared" si="6"/>
+      <c r="O18" s="5">
         <v>2.6669397787791893</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>14</v>
       </c>
-      <c r="P18" s="1">
-        <f>P10*$V3</f>
-        <v>1.7045454545454546</v>
-      </c>
       <c r="Q18" s="1">
-        <f>Q10*$V3</f>
-        <v>3.4090909090909092</v>
+        <f>Q10*$W3</f>
+        <v>1.6423357664233578</v>
       </c>
       <c r="R18" s="1">
-        <f>R10*$V3</f>
-        <v>5.1136363636363633</v>
+        <f>R10*$W3</f>
+        <v>3.2846715328467155</v>
       </c>
       <c r="S18" s="1">
-        <f>S10*$V3</f>
-        <v>8.5227272727272734</v>
+        <f>S10*$W3</f>
+        <v>4.9270072992700733</v>
       </c>
       <c r="T18" s="1">
-        <f>SUM(P18:S18)</f>
-        <v>18.75</v>
-      </c>
-      <c r="Y18" s="1">
+        <f>T10*$W3</f>
+        <v>8.2116788321167888</v>
+      </c>
+      <c r="U18" s="1">
+        <f>SUM(Q18:T18)</f>
+        <v>18.065693430656935</v>
+      </c>
+      <c r="Z18" s="1">
         <v>900</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1812,69 +2009,78 @@
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>203</v>
       </c>
       <c r="D19" s="1">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4">
         <v>40</v>
       </c>
-      <c r="E19" s="1">
-        <f t="shared" si="7"/>
+      <c r="F19" s="1">
+        <f>C19*$Z$12</f>
         <v>20.3</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
+      <c r="G19" s="1">
+        <f>C19*($Z$12+$Z$13)</f>
         <v>30.450000000000003</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>1015</v>
-      </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
-        <v>177625</v>
+        <f>D19*(F19+G19)/2</f>
+        <v>761.25</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="3"/>
-        <v>1.5859375</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="4"/>
-        <v>61.594310870301392</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="5"/>
+        <f>H19*$Z$15</f>
+        <v>133218.75</v>
+      </c>
+      <c r="J19" s="1">
+        <f>C19*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>2.2203124999999999</v>
+      </c>
+      <c r="K19" s="2">
+        <f>H19/($W$6+J19)</f>
+        <v>44.483284855283244</v>
+      </c>
+      <c r="L19" s="1">
+        <f>K19/$W$10</f>
+        <v>0.74550690359317295</v>
+      </c>
+      <c r="M19" s="1">
+        <f>K19*$U$12</f>
+        <v>3.8922874248372836</v>
+      </c>
+      <c r="N19" s="5">
         <v>0.63305263950031987</v>
       </c>
-      <c r="L19" s="1">
-        <f t="shared" si="6"/>
+      <c r="O19" s="5">
         <v>3.849644429393837</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>15</v>
       </c>
-      <c r="P19" s="1">
-        <f>P11*$V3</f>
-        <v>1704.5454545454545</v>
-      </c>
       <c r="Q19" s="1">
-        <f>Q11*$V3</f>
-        <v>2556.818181818182</v>
+        <f>Q11*$W3</f>
+        <v>1642.3357664233577</v>
       </c>
       <c r="R19" s="1">
-        <f>R11*$V3</f>
-        <v>3409.090909090909</v>
+        <f>R11*$W3</f>
+        <v>2463.5036496350367</v>
       </c>
       <c r="S19" s="1">
-        <f>S11*$V3</f>
-        <v>6818.181818181818</v>
+        <f>S11*$W3</f>
+        <v>3284.6715328467153</v>
       </c>
       <c r="T19" s="1">
-        <f>SUM(P19:S19)</f>
-        <v>14488.636363636364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+        <f>T11*$W3</f>
+        <v>6569.3430656934306</v>
+      </c>
+      <c r="U19" s="1">
+        <f>SUM(Q19:T19)</f>
+        <v>13959.854014598539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -1882,69 +2088,78 @@
         <v>18</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>221</v>
       </c>
       <c r="D20" s="1">
+        <v>25</v>
+      </c>
+      <c r="E20" s="4">
         <v>30</v>
       </c>
-      <c r="E20" s="1">
-        <f t="shared" si="7"/>
+      <c r="F20" s="1">
+        <f>C20*$Z$12</f>
         <v>22.1</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
+      <c r="G20" s="1">
+        <f>C20*($Z$12+$Z$13)</f>
         <v>33.150000000000006</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>828.75000000000011</v>
-      </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
-        <v>145031.25000000003</v>
+        <f>D20*(F20+G20)/2</f>
+        <v>690.62500000000011</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="3"/>
-        <v>1.7265625</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="4"/>
-        <v>49.866362232220816</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="5"/>
+        <f>H20*$Z$15</f>
+        <v>120859.37500000001</v>
+      </c>
+      <c r="J20" s="1">
+        <f>C20*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>2.4171874999999998</v>
+      </c>
+      <c r="K20" s="2">
+        <f>H20/($W$6+J20)</f>
+        <v>39.897355220570226</v>
+      </c>
+      <c r="L20" s="1">
+        <f>K20/$W$10</f>
+        <v>0.66865011990029732</v>
+      </c>
+      <c r="M20" s="1">
+        <f>K20*$U$12</f>
+        <v>3.4910185817998944</v>
+      </c>
+      <c r="N20" s="5">
         <v>0.51251538960893617</v>
       </c>
-      <c r="L20" s="1">
-        <f t="shared" si="6"/>
+      <c r="O20" s="5">
         <v>3.116647639513801</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>80</v>
       </c>
-      <c r="P20" s="1">
-        <f>P5*P7*$V3</f>
+      <c r="Q20" s="1">
+        <f>Q5*Q7*$W3</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="1">
-        <f>Q5*Q7*$V3</f>
+      <c r="R20" s="1">
+        <f>R5*R7*$W3</f>
         <v>0</v>
       </c>
-      <c r="R20" s="1">
-        <f>R5*R7*$V3</f>
+      <c r="S20" s="1">
+        <f>S5*S7*$W3</f>
         <v>0</v>
       </c>
-      <c r="S20" s="1">
-        <f>S12*$V3</f>
-        <v>0.42613636363636365</v>
-      </c>
       <c r="T20" s="1">
-        <f>SUM(P20:S20)</f>
-        <v>0.42613636363636365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+        <f>T12*$W3</f>
+        <v>0.57481751824817517</v>
+      </c>
+      <c r="U20" s="1">
+        <f>SUM(Q20:T20)</f>
+        <v>0.57481751824817517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1952,46 +2167,55 @@
         <v>19</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="D21" s="1">
+        <v>30</v>
+      </c>
+      <c r="E21" s="4">
         <v>35</v>
       </c>
-      <c r="E21" s="1">
-        <f t="shared" si="7"/>
+      <c r="F21" s="1">
+        <f>C21*$Z$12</f>
         <v>24</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
+      <c r="G21" s="1">
+        <f>C21*($Z$12+$Z$13)</f>
         <v>36.000000000000007</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>1050.0000000000002</v>
-      </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
-        <v>183750.00000000003</v>
+        <f>D21*(F21+G21)/2</f>
+        <v>900.00000000000011</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="3"/>
-        <v>1.875</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="4"/>
-        <v>62.619808306709281</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="5"/>
+        <f>H21*$Z$15</f>
+        <v>157500.00000000003</v>
+      </c>
+      <c r="J21" s="1">
+        <f>C21*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>2.625</v>
+      </c>
+      <c r="K21" s="2">
+        <f>H21/($W$6+J21)</f>
+        <v>51.37614678899083</v>
+      </c>
+      <c r="L21" s="1">
+        <f>K21/$W$10</f>
+        <v>0.86102616377845742</v>
+      </c>
+      <c r="M21" s="1">
+        <f>K21*$U$12</f>
+        <v>4.4954128440366974</v>
+      </c>
+      <c r="N21" s="5">
         <v>0.64359247426340094</v>
       </c>
-      <c r="L21" s="1">
-        <f t="shared" si="6"/>
+      <c r="O21" s="5">
         <v>3.9137380191693301</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1999,46 +2223,55 @@
         <v>20</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
       <c r="D22" s="1">
+        <v>35</v>
+      </c>
+      <c r="E22" s="4">
         <v>40</v>
       </c>
-      <c r="E22" s="1">
-        <f t="shared" si="7"/>
+      <c r="F22" s="1">
+        <f>C22*$Z$12</f>
         <v>26</v>
       </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
+      <c r="G22" s="1">
+        <f>C22*($Z$12+$Z$13)</f>
         <v>39.000000000000007</v>
       </c>
-      <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>1300</v>
-      </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
-        <v>227500</v>
+        <f>D22*(F22+G22)/2</f>
+        <v>1137.5</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="3"/>
-        <v>2.03125</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="4"/>
-        <v>76.813505671326823</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="5"/>
+        <f>H22*$Z$15</f>
+        <v>199062.5</v>
+      </c>
+      <c r="J22" s="1">
+        <f>C22*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>2.84375</v>
+      </c>
+      <c r="K22" s="2">
+        <f>H22/($W$6+J22)</f>
+        <v>64.132897055122072</v>
+      </c>
+      <c r="L22" s="1">
+        <f>K22/$W$10</f>
+        <v>1.0748198487941756</v>
+      </c>
+      <c r="M22" s="1">
+        <f>K22*$U$12</f>
+        <v>5.611628492323181</v>
+      </c>
+      <c r="N22" s="5">
         <v>0.78947214162197021</v>
       </c>
-      <c r="L22" s="1">
-        <f t="shared" si="6"/>
+      <c r="O22" s="5">
         <v>4.8008441044579264</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -2046,46 +2279,55 @@
         <v>21</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>281</v>
       </c>
       <c r="D23" s="1">
+        <v>30</v>
+      </c>
+      <c r="E23" s="4">
         <v>35</v>
       </c>
-      <c r="E23" s="1">
-        <f t="shared" si="7"/>
+      <c r="F23" s="1">
+        <f>C23*$Z$12</f>
         <v>28.1</v>
       </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
+      <c r="G23" s="1">
+        <f>C23*($Z$12+$Z$13)</f>
         <v>42.150000000000006</v>
       </c>
-      <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>1229.375</v>
-      </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
-        <v>215140.625</v>
+        <f>D23*(F23+G23)/2</f>
+        <v>1053.75</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="3"/>
-        <v>2.1953125</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="4"/>
-        <v>71.943047482202346</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="5"/>
+        <f>H23*$Z$15</f>
+        <v>184406.25</v>
+      </c>
+      <c r="J23" s="1">
+        <f>C23*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>3.0734374999999998</v>
+      </c>
+      <c r="K23" s="2">
+        <f>H23/($W$6+J23)</f>
+        <v>58.651492750562191</v>
+      </c>
+      <c r="L23" s="1">
+        <f>K23/$W$10</f>
+        <v>0.98295557294923674</v>
+      </c>
+      <c r="M23" s="1">
+        <f>K23*$U$12</f>
+        <v>5.1320056156741911</v>
+      </c>
+      <c r="N23" s="5">
         <v>0.73941465467819079</v>
       </c>
-      <c r="L23" s="1">
-        <f t="shared" si="6"/>
+      <c r="O23" s="5">
         <v>4.4964404676376466</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -2093,49 +2335,58 @@
         <v>22</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>303</v>
       </c>
       <c r="D24" s="1">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4">
         <v>30</v>
       </c>
-      <c r="E24" s="1">
-        <f t="shared" si="7"/>
+      <c r="F24" s="1">
+        <f>C24*$Z$12</f>
         <v>30.3</v>
       </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
+      <c r="G24" s="1">
+        <f>C24*($Z$12+$Z$13)</f>
         <v>45.45000000000001</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>1136.2500000000002</v>
-      </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
-        <v>198843.75000000003</v>
+        <f>D24*(F24+G24)/2</f>
+        <v>946.87500000000023</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="3"/>
-        <v>2.3671875</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="4"/>
-        <v>65.831231813773044</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="5"/>
+        <f>H24*$Z$15</f>
+        <v>165703.12500000003</v>
+      </c>
+      <c r="J24" s="1">
+        <f>C24*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>3.3140624999999999</v>
+      </c>
+      <c r="K24" s="2">
+        <f>H24/($W$6+J24)</f>
+        <v>52.006326087756094</v>
+      </c>
+      <c r="L24" s="1">
+        <f>K24/$W$10</f>
+        <v>0.87158750202628266</v>
+      </c>
+      <c r="M24" s="1">
+        <f>K24*$U$12</f>
+        <v>4.5505535326786575</v>
+      </c>
+      <c r="N24" s="5">
         <v>0.67659877141933411</v>
       </c>
-      <c r="L24" s="1">
-        <f t="shared" si="6"/>
+      <c r="O24" s="5">
         <v>4.1144519883608153</v>
       </c>
-      <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -2143,46 +2394,55 @@
         <v>23</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>326</v>
       </c>
       <c r="D25" s="1">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4">
         <v>30</v>
       </c>
-      <c r="E25" s="1">
-        <f t="shared" si="7"/>
+      <c r="F25" s="1">
+        <f>C25*$Z$12</f>
         <v>32.6</v>
       </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
+      <c r="G25" s="1">
+        <f>C25*($Z$12+$Z$13)</f>
         <v>48.900000000000006</v>
       </c>
-      <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>1222.5</v>
-      </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
-        <v>213937.5</v>
+        <f>D25*(F25+G25)/2</f>
+        <v>1018.75</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="3"/>
-        <v>2.546875</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="4"/>
-        <v>70.098553692563684</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="5"/>
+        <f>H25*$Z$15</f>
+        <v>178281.25</v>
+      </c>
+      <c r="J25" s="1">
+        <f>C25*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>3.5656249999999998</v>
+      </c>
+      <c r="K25" s="2">
+        <f>H25/($W$6+J25)</f>
+        <v>55.191428640530148</v>
+      </c>
+      <c r="L25" s="1">
+        <f>K25/$W$10</f>
+        <v>0.92496746147555153</v>
+      </c>
+      <c r="M25" s="1">
+        <f>K25*$U$12</f>
+        <v>4.8292500060463874</v>
+      </c>
+      <c r="N25" s="5">
         <v>0.72045735739579342</v>
       </c>
-      <c r="L25" s="1">
-        <f t="shared" si="6"/>
+      <c r="O25" s="5">
         <v>4.3811596057852302</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -2190,46 +2450,55 @@
         <v>24</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
       <c r="D26" s="1">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4">
         <v>30</v>
       </c>
-      <c r="E26" s="1">
-        <f t="shared" si="7"/>
+      <c r="F26" s="1">
+        <f>C26*$Z$12</f>
         <v>35</v>
       </c>
-      <c r="F26" s="1">
-        <f t="shared" si="0"/>
+      <c r="G26" s="1">
+        <f>C26*($Z$12+$Z$13)</f>
         <v>52.500000000000007</v>
       </c>
-      <c r="G26" s="1">
-        <f t="shared" si="1"/>
-        <v>1312.5</v>
-      </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
-        <v>229687.5</v>
+        <f>D26*(F26+G26)/2</f>
+        <v>1093.75</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="3"/>
-        <v>2.734375</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="4"/>
-        <v>74.458655185513493</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="5"/>
+        <f>H26*$Z$15</f>
+        <v>191406.25</v>
+      </c>
+      <c r="J26" s="1">
+        <f>C26*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>3.8281249999999996</v>
+      </c>
+      <c r="K26" s="2">
+        <f>H26/($W$6+J26)</f>
+        <v>58.423751043281271</v>
+      </c>
+      <c r="L26" s="1">
+        <f>K26/$W$10</f>
+        <v>0.97913879063276943</v>
+      </c>
+      <c r="M26" s="1">
+        <f>K26*$U$12</f>
+        <v>5.1120782162871112</v>
+      </c>
+      <c r="N26" s="5">
         <v>0.76526951162888868</v>
       </c>
-      <c r="L26" s="1">
-        <f t="shared" si="6"/>
+      <c r="O26" s="5">
         <v>4.6536659490945933</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -2237,46 +2506,55 @@
         <v>25</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>375</v>
       </c>
       <c r="D27" s="1">
+        <v>30</v>
+      </c>
+      <c r="E27" s="4">
         <v>35</v>
       </c>
-      <c r="E27" s="1">
-        <f t="shared" si="7"/>
+      <c r="F27" s="1">
+        <f>C27*$Z$12</f>
         <v>37.5</v>
       </c>
-      <c r="F27" s="1">
-        <f t="shared" si="0"/>
+      <c r="G27" s="1">
+        <f>C27*($Z$12+$Z$13)</f>
         <v>56.250000000000007</v>
       </c>
-      <c r="G27" s="1">
-        <f t="shared" si="1"/>
-        <v>1640.625</v>
-      </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
-        <v>287109.375</v>
+        <f>D27*(F27+G27)/2</f>
+        <v>1406.25</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9296875</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="4"/>
-        <v>92.053353372158554</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="5"/>
+        <f>H27*$Z$15</f>
+        <v>246093.75</v>
+      </c>
+      <c r="J27" s="1">
+        <f>C27*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>4.1015625</v>
+      </c>
+      <c r="K27" s="2">
+        <f>H27/($W$6+J27)</f>
+        <v>74.03490216816499</v>
+      </c>
+      <c r="L27" s="1">
+        <f>K27/$W$10</f>
+        <v>1.2407701196701726</v>
+      </c>
+      <c r="M27" s="1">
+        <f>K27*$U$12</f>
+        <v>6.4780539397144361</v>
+      </c>
+      <c r="N27" s="5">
         <v>0.94610390965829627</v>
       </c>
-      <c r="L27" s="1">
-        <f t="shared" si="6"/>
+      <c r="O27" s="5">
         <v>5.7533345857599096</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -2284,46 +2562,55 @@
         <v>26</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>401</v>
       </c>
       <c r="D28" s="1">
+        <v>35</v>
+      </c>
+      <c r="E28" s="4">
         <v>40</v>
       </c>
-      <c r="E28" s="1">
-        <f t="shared" si="7"/>
+      <c r="F28" s="1">
+        <f>C28*$Z$12</f>
         <v>40.1</v>
       </c>
-      <c r="F28" s="1">
-        <f t="shared" si="0"/>
+      <c r="G28" s="1">
+        <f>C28*($Z$12+$Z$13)</f>
         <v>60.150000000000006</v>
       </c>
-      <c r="G28" s="1">
-        <f t="shared" si="1"/>
-        <v>2005</v>
-      </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
-        <v>350875</v>
+        <f>D28*(F28+G28)/2</f>
+        <v>1754.375</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1328125</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="4"/>
-        <v>111.23026437991456</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="5"/>
+        <f>H28*$Z$15</f>
+        <v>307015.625</v>
+      </c>
+      <c r="J28" s="1">
+        <f>C28*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>4.3859374999999998</v>
+      </c>
+      <c r="K28" s="2">
+        <f>H28/($W$6+J28)</f>
+        <v>91.000243142794289</v>
+      </c>
+      <c r="L28" s="1">
+        <f>K28/$W$10</f>
+        <v>1.5250966674857191</v>
+      </c>
+      <c r="M28" s="1">
+        <f>K28*$U$12</f>
+        <v>7.9625212749944998</v>
+      </c>
+      <c r="N28" s="5">
         <v>1.143199939460233</v>
       </c>
-      <c r="L28" s="1">
-        <f t="shared" si="6"/>
+      <c r="O28" s="5">
         <v>6.9518915237446599</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -2331,46 +2618,55 @@
         <v>27</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
       <c r="D29" s="1">
+        <v>40</v>
+      </c>
+      <c r="E29" s="4">
         <v>45</v>
       </c>
-      <c r="E29" s="1">
-        <f t="shared" si="7"/>
+      <c r="F29" s="1">
+        <f>C29*$Z$12</f>
         <v>42.800000000000004</v>
       </c>
-      <c r="F29" s="1">
-        <f t="shared" si="0"/>
+      <c r="G29" s="1">
+        <f>C29*($Z$12+$Z$13)</f>
         <v>64.2</v>
       </c>
-      <c r="G29" s="1">
-        <f t="shared" si="1"/>
-        <v>2407.5</v>
-      </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
-        <v>421312.5</v>
+        <f>D29*(F29+G29)/2</f>
+        <v>2140</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="3"/>
-        <v>3.34375</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="4"/>
-        <v>132.01468788249696</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="5"/>
+        <f>H29*$Z$15</f>
+        <v>374500</v>
+      </c>
+      <c r="J29" s="1">
+        <f>C29*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>4.6812499999999995</v>
+      </c>
+      <c r="K29" s="2">
+        <f>H29/($W$6+J29)</f>
+        <v>109.32810290562423</v>
+      </c>
+      <c r="L29" s="1">
+        <f>K29/$W$10</f>
+        <v>1.8322580209183321</v>
+      </c>
+      <c r="M29" s="1">
+        <f>K29*$U$12</f>
+        <v>9.5662090042421202</v>
+      </c>
+      <c r="N29" s="5">
         <v>1.3568176254589965</v>
       </c>
-      <c r="L29" s="1">
-        <f t="shared" si="6"/>
+      <c r="O29" s="5">
         <v>8.2509179926560599</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -2378,46 +2674,55 @@
         <v>28</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>456</v>
       </c>
       <c r="D30" s="1">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4">
         <v>35</v>
       </c>
-      <c r="E30" s="1">
-        <f t="shared" si="7"/>
+      <c r="F30" s="1">
+        <f>C30*$Z$12</f>
         <v>45.6</v>
       </c>
-      <c r="F30" s="1">
-        <f t="shared" si="0"/>
+      <c r="G30" s="1">
+        <f>C30*($Z$12+$Z$13)</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="G30" s="1">
-        <f t="shared" si="1"/>
-        <v>1995</v>
-      </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
-        <v>349125</v>
+        <f>D30*(F30+G30)/2</f>
+        <v>1710</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="3"/>
-        <v>3.5625</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="4"/>
-        <v>108.09869375907112</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="5"/>
+        <f>H30*$Z$15</f>
+        <v>299250</v>
+      </c>
+      <c r="J30" s="1">
+        <f>C30*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>4.9874999999999998</v>
+      </c>
+      <c r="K30" s="2">
+        <f>H30/($W$6+J30)</f>
+        <v>86.014551333872276</v>
+      </c>
+      <c r="L30" s="1">
+        <f>K30/$W$10</f>
+        <v>1.4415401658732299</v>
+      </c>
+      <c r="M30" s="1">
+        <f>K30*$U$12</f>
+        <v>7.5262732417138238</v>
+      </c>
+      <c r="N30" s="5">
         <v>1.1110143525237866</v>
       </c>
-      <c r="L30" s="1">
-        <f t="shared" si="6"/>
+      <c r="O30" s="5">
         <v>6.7561683599419453</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -2425,46 +2730,55 @@
         <v>29</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>485</v>
       </c>
       <c r="D31" s="1">
+        <v>40</v>
+      </c>
+      <c r="E31" s="4">
         <v>45</v>
       </c>
-      <c r="E31" s="1">
-        <f t="shared" si="7"/>
+      <c r="F31" s="1">
+        <f>C31*$Z$12</f>
         <v>48.5</v>
       </c>
-      <c r="F31" s="1">
-        <f t="shared" si="0"/>
+      <c r="G31" s="1">
+        <f>C31*($Z$12+$Z$13)</f>
         <v>72.750000000000014</v>
       </c>
-      <c r="G31" s="1">
-        <f t="shared" si="1"/>
-        <v>2728.1250000000005</v>
-      </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
-        <v>477421.87500000006</v>
+        <f>D31*(F31+G31)/2</f>
+        <v>2425.0000000000005</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="3"/>
-        <v>3.7890625</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="4"/>
-        <v>146.03022880697773</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="5"/>
+        <f>H31*$Z$15</f>
+        <v>424375.00000000006</v>
+      </c>
+      <c r="J31" s="1">
+        <f>C31*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>5.3046875</v>
+      </c>
+      <c r="K31" s="2">
+        <f>H31/($W$6+J31)</f>
+        <v>120.06409902193737</v>
+      </c>
+      <c r="L31" s="1">
+        <f>K31/$W$10</f>
+        <v>2.0121853632380242</v>
+      </c>
+      <c r="M31" s="1">
+        <f>K31*$U$12</f>
+        <v>10.505608664419519</v>
+      </c>
+      <c r="N31" s="5">
         <v>1.5008662405161601</v>
       </c>
-      <c r="L31" s="1">
-        <f t="shared" si="6"/>
+      <c r="O31" s="5">
         <v>9.1268893004361082</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
@@ -2472,46 +2786,55 @@
         <v>30</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>515</v>
       </c>
       <c r="D32" s="1">
+        <v>35</v>
+      </c>
+      <c r="E32" s="4">
         <v>40</v>
       </c>
-      <c r="E32" s="1">
-        <f t="shared" si="7"/>
+      <c r="F32" s="1">
+        <f>C32*$Z$12</f>
         <v>51.5</v>
       </c>
-      <c r="F32" s="1">
-        <f t="shared" si="0"/>
+      <c r="G32" s="1">
+        <f>C32*($Z$12+$Z$13)</f>
         <v>77.250000000000014</v>
       </c>
-      <c r="G32" s="1">
-        <f t="shared" si="1"/>
-        <v>2575</v>
-      </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
-        <v>450625</v>
+        <f>D32*(F32+G32)/2</f>
+        <v>2253.125</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="3"/>
-        <v>4.0234375</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="4"/>
-        <v>136.12602513422621</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="5"/>
+        <f>H32*$Z$15</f>
+        <v>394296.875</v>
+      </c>
+      <c r="J32" s="1">
+        <f>C32*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>5.6328125</v>
+      </c>
+      <c r="K32" s="2">
+        <f>H32/($W$6+J32)</f>
+        <v>109.77108368223588</v>
+      </c>
+      <c r="L32" s="1">
+        <f>K32/$W$10</f>
+        <v>1.8396820506004348</v>
+      </c>
+      <c r="M32" s="1">
+        <f>K32*$U$12</f>
+        <v>9.6049698221956383</v>
+      </c>
+      <c r="N32" s="5">
         <v>1.3990730361017696</v>
       </c>
-      <c r="L32" s="1">
-        <f t="shared" si="6"/>
+      <c r="O32" s="5">
         <v>8.5078765708891382</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,46 +2842,55 @@
         <v>31</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>546</v>
       </c>
       <c r="D33" s="1">
+        <v>30</v>
+      </c>
+      <c r="E33" s="4">
         <v>35</v>
       </c>
-      <c r="E33" s="1">
-        <f t="shared" si="7"/>
+      <c r="F33" s="1">
+        <f>C33*$Z$12</f>
         <v>54.6</v>
       </c>
-      <c r="F33" s="1">
-        <f t="shared" si="0"/>
+      <c r="G33" s="1">
+        <f>C33*($Z$12+$Z$13)</f>
         <v>81.900000000000006</v>
       </c>
-      <c r="G33" s="1">
-        <f t="shared" si="1"/>
-        <v>2388.75</v>
-      </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
-        <v>418031.25</v>
+        <f>D33*(F33+G33)/2</f>
+        <v>2047.5</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="3"/>
-        <v>4.265625</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="4"/>
-        <v>124.6836770360014</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="5"/>
+        <f>H33*$Z$15</f>
+        <v>358312.5</v>
+      </c>
+      <c r="J33" s="1">
+        <f>C33*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>5.9718749999999998</v>
+      </c>
+      <c r="K33" s="2">
+        <f>H33/($W$6+J33)</f>
+        <v>98.132100905064505</v>
+      </c>
+      <c r="L33" s="1">
+        <f>K33/$W$10</f>
+        <v>1.6446213207237663</v>
+      </c>
+      <c r="M33" s="1">
+        <f>K33*$U$12</f>
+        <v>8.5865588291931427</v>
+      </c>
+      <c r="N33" s="5">
         <v>1.2814711250922366</v>
       </c>
-      <c r="L33" s="1">
-        <f t="shared" si="6"/>
+      <c r="O33" s="5">
         <v>7.7927298147500874</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -2566,46 +2898,55 @@
         <v>32</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>578</v>
       </c>
       <c r="D34" s="1">
+        <v>40</v>
+      </c>
+      <c r="E34" s="4">
         <v>45</v>
       </c>
-      <c r="E34" s="1">
-        <f t="shared" si="7"/>
+      <c r="F34" s="1">
+        <f>C34*$Z$12</f>
         <v>57.800000000000004</v>
       </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
+      <c r="G34" s="1">
+        <f>C34*($Z$12+$Z$13)</f>
         <v>86.700000000000017</v>
       </c>
-      <c r="G34" s="1">
-        <f t="shared" si="1"/>
-        <v>3251.2500000000005</v>
-      </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
-        <v>568968.75000000012</v>
+        <f>D34*(F34+G34)/2</f>
+        <v>2890.0000000000005</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="3"/>
-        <v>4.515625</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" si="4"/>
-        <v>167.51696377228293</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="5"/>
+        <f>H34*$Z$15</f>
+        <v>505750.00000000006</v>
+      </c>
+      <c r="J34" s="1">
+        <f>C34*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>6.3218749999999995</v>
+      </c>
+      <c r="K34" s="2">
+        <f>H34/($W$6+J34)</f>
+        <v>136.22608951831825</v>
+      </c>
+      <c r="L34" s="1">
+        <f>K34/$W$10</f>
+        <v>2.283048352112556</v>
+      </c>
+      <c r="M34" s="1">
+        <f>K34*$U$12</f>
+        <v>11.919782832852846</v>
+      </c>
+      <c r="N34" s="5">
         <v>1.7217021276595748</v>
       </c>
-      <c r="L34" s="1">
-        <f t="shared" si="6"/>
+      <c r="O34" s="5">
         <v>10.469810235767683</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -2613,46 +2954,55 @@
         <v>33</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>611</v>
       </c>
       <c r="D35" s="1">
+        <v>45</v>
+      </c>
+      <c r="E35" s="4">
         <v>50</v>
       </c>
-      <c r="E35" s="1">
-        <f t="shared" si="7"/>
+      <c r="F35" s="1">
+        <f>C35*$Z$12</f>
         <v>61.1</v>
       </c>
-      <c r="F35" s="1">
-        <f t="shared" si="0"/>
+      <c r="G35" s="1">
+        <f>C35*($Z$12+$Z$13)</f>
         <v>91.65000000000002</v>
       </c>
-      <c r="G35" s="1">
-        <f t="shared" si="1"/>
-        <v>3818.7500000000009</v>
-      </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
-        <v>668281.25000000012</v>
+        <f>D35*(F35+G35)/2</f>
+        <v>3436.8750000000005</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="3"/>
-        <v>4.7734375</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="4"/>
-        <v>194.17740196356624</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="5"/>
+        <f>H35*$Z$15</f>
+        <v>601453.12500000012</v>
+      </c>
+      <c r="J35" s="1">
+        <f>C35*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>6.6828124999999998</v>
+      </c>
+      <c r="K35" s="2">
+        <f>H35/($W$6+J35)</f>
+        <v>159.29401297344273</v>
+      </c>
+      <c r="L35" s="1">
+        <f>K35/$W$10</f>
+        <v>2.6696496618697347</v>
+      </c>
+      <c r="M35" s="1">
+        <f>K35*$U$12</f>
+        <v>13.938226135176238</v>
+      </c>
+      <c r="N35" s="5">
         <v>1.9957121868477643</v>
       </c>
-      <c r="L35" s="1">
-        <f t="shared" si="6"/>
+      <c r="O35" s="5">
         <v>12.13608762272289</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -2660,46 +3010,55 @@
         <v>34</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>645</v>
       </c>
       <c r="D36" s="1">
+        <v>45</v>
+      </c>
+      <c r="E36" s="4">
         <v>50</v>
       </c>
-      <c r="E36" s="1">
-        <f t="shared" si="7"/>
+      <c r="F36" s="1">
+        <f>C36*$Z$12</f>
         <v>64.5</v>
       </c>
-      <c r="F36" s="1">
-        <f t="shared" si="0"/>
+      <c r="G36" s="1">
+        <f>C36*($Z$12+$Z$13)</f>
         <v>96.750000000000014</v>
       </c>
-      <c r="G36" s="1">
-        <f t="shared" si="1"/>
-        <v>4031.25</v>
-      </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
-        <v>705468.75</v>
+        <f>D36*(F36+G36)/2</f>
+        <v>3628.125</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="3"/>
-        <v>5.0390625</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" si="4"/>
-        <v>202.25096589954646</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="5"/>
+        <f>H36*$Z$15</f>
+        <v>634921.875</v>
+      </c>
+      <c r="J36" s="1">
+        <f>C36*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>7.0546874999999991</v>
+      </c>
+      <c r="K36" s="2">
+        <f>H36/($W$6+J36)</f>
+        <v>165.30892448512586</v>
+      </c>
+      <c r="L36" s="1">
+        <f>K36/$W$10</f>
+        <v>2.7704551233155352</v>
+      </c>
+      <c r="M36" s="1">
+        <f>K36*$U$12</f>
+        <v>14.464530892448511</v>
+      </c>
+      <c r="N36" s="5">
         <v>2.0786904828564499</v>
       </c>
-      <c r="L36" s="1">
-        <f t="shared" si="6"/>
+      <c r="O36" s="5">
         <v>12.640685368721654</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -2707,46 +3066,55 @@
         <v>35</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>680</v>
       </c>
       <c r="D37" s="1">
+        <v>50</v>
+      </c>
+      <c r="E37" s="4">
         <v>60</v>
       </c>
-      <c r="E37" s="1">
-        <f t="shared" si="7"/>
+      <c r="F37" s="1">
+        <f>C37*$Z$12</f>
         <v>68</v>
       </c>
-      <c r="F37" s="1">
-        <f t="shared" si="0"/>
+      <c r="G37" s="1">
+        <f>C37*($Z$12+$Z$13)</f>
         <v>102.00000000000001</v>
       </c>
-      <c r="G37" s="1">
-        <f t="shared" si="1"/>
-        <v>5100</v>
-      </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
-        <v>892500</v>
+        <f>D37*(F37+G37)/2</f>
+        <v>4250</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="3"/>
-        <v>5.3125</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="4"/>
-        <v>252.40830755634116</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="5"/>
+        <f>H37*$Z$15</f>
+        <v>743750</v>
+      </c>
+      <c r="J37" s="1">
+        <f>C37*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>7.4374999999999991</v>
+      </c>
+      <c r="K37" s="2">
+        <f>H37/($W$6+J37)</f>
+        <v>190.32387045181929</v>
+      </c>
+      <c r="L37" s="1">
+        <f>K37/$W$10</f>
+        <v>3.1896870881277124</v>
+      </c>
+      <c r="M37" s="1">
+        <f>K37*$U$12</f>
+        <v>16.653338664534186</v>
+      </c>
+      <c r="N37" s="5">
         <v>2.5941964943290619</v>
       </c>
-      <c r="L37" s="1">
-        <f t="shared" si="6"/>
+      <c r="O37" s="5">
         <v>15.775519222271322</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
@@ -2754,46 +3122,55 @@
         <v>36</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>716</v>
       </c>
       <c r="D38" s="1">
+        <v>45</v>
+      </c>
+      <c r="E38" s="4">
         <v>55</v>
       </c>
-      <c r="E38" s="1">
-        <f t="shared" si="7"/>
+      <c r="F38" s="1">
+        <f>C38*$Z$12</f>
         <v>71.600000000000009</v>
       </c>
-      <c r="F38" s="1">
-        <f t="shared" si="0"/>
+      <c r="G38" s="1">
+        <f>C38*($Z$12+$Z$13)</f>
         <v>107.40000000000002</v>
       </c>
-      <c r="G38" s="1">
-        <f t="shared" si="1"/>
-        <v>4922.5000000000009</v>
-      </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
-        <v>861437.50000000012</v>
+        <f>D38*(F38+G38)/2</f>
+        <v>4027.5000000000005</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="3"/>
-        <v>5.59375</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="4"/>
-        <v>240.27892787099591</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="5"/>
+        <f>H38*$Z$15</f>
+        <v>704812.50000000012</v>
+      </c>
+      <c r="J38" s="1">
+        <f>C38*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>7.8312499999999998</v>
+      </c>
+      <c r="K38" s="2">
+        <f>H38/($W$6+J38)</f>
+        <v>177.23468625987192</v>
+      </c>
+      <c r="L38" s="1">
+        <f>K38/$W$10</f>
+        <v>2.9703220567626683</v>
+      </c>
+      <c r="M38" s="1">
+        <f>K38*$U$12</f>
+        <v>15.508035047738792</v>
+      </c>
+      <c r="N38" s="5">
         <v>2.4695334253407917</v>
       </c>
-      <c r="L38" s="1">
-        <f t="shared" si="6"/>
+      <c r="O38" s="5">
         <v>15.017432991937245</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>62</v>
       </c>
@@ -2801,46 +3178,55 @@
         <v>37</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>753</v>
       </c>
       <c r="D39" s="1">
+        <v>45</v>
+      </c>
+      <c r="E39" s="4">
         <v>55</v>
       </c>
-      <c r="E39" s="1">
-        <f t="shared" si="7"/>
+      <c r="F39" s="1">
+        <f>C39*$Z$12</f>
         <v>75.3</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" si="0"/>
+      <c r="G39" s="1">
+        <f>C39*($Z$12+$Z$13)</f>
         <v>112.95000000000002</v>
       </c>
-      <c r="G39" s="1">
-        <f t="shared" si="1"/>
-        <v>5176.875</v>
-      </c>
       <c r="H39" s="1">
-        <f t="shared" si="2"/>
-        <v>905953.125</v>
+        <f>D39*(F39+G39)/2</f>
+        <v>4235.625</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="3"/>
-        <v>5.8828125</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="4"/>
-        <v>249.17969379532636</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="5"/>
+        <f>H39*$Z$15</f>
+        <v>741234.375</v>
+      </c>
+      <c r="J39" s="1">
+        <f>C39*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>8.2359375000000004</v>
+      </c>
+      <c r="K39" s="2">
+        <f>H39/($W$6+J39)</f>
+        <v>183.13211152610091</v>
+      </c>
+      <c r="L39" s="1">
+        <f>K39/$W$10</f>
+        <v>3.0691585357615061</v>
+      </c>
+      <c r="M39" s="1">
+        <f>K39*$U$12</f>
+        <v>16.024059758533831</v>
+      </c>
+      <c r="N39" s="5">
         <v>2.5610135195630765</v>
       </c>
-      <c r="L39" s="1">
-        <f t="shared" si="6"/>
+      <c r="O39" s="5">
         <v>15.573730862207897</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
@@ -2848,46 +3234,55 @@
         <v>38</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>791</v>
       </c>
       <c r="D40" s="1">
+        <v>40</v>
+      </c>
+      <c r="E40" s="4">
         <v>50</v>
       </c>
-      <c r="E40" s="1">
-        <f t="shared" si="7"/>
+      <c r="F40" s="1">
+        <f>C40*$Z$12</f>
         <v>79.100000000000009</v>
       </c>
-      <c r="F40" s="1">
-        <f t="shared" si="0"/>
+      <c r="G40" s="1">
+        <f>C40*($Z$12+$Z$13)</f>
         <v>118.65000000000002</v>
       </c>
-      <c r="G40" s="1">
-        <f t="shared" si="1"/>
-        <v>4943.7500000000009</v>
-      </c>
       <c r="H40" s="1">
-        <f t="shared" si="2"/>
-        <v>865156.25000000012</v>
+        <f>D40*(F40+G40)/2</f>
+        <v>3955.0000000000005</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="3"/>
-        <v>6.1796875</v>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" si="4"/>
-        <v>234.60621789100159</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="5"/>
+        <f>H40*$Z$15</f>
+        <v>692125.00000000012</v>
+      </c>
+      <c r="J40" s="1">
+        <f>C40*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>8.6515624999999989</v>
+      </c>
+      <c r="K40" s="2">
+        <f>H40/($W$6+J40)</f>
+        <v>167.98035627944901</v>
+      </c>
+      <c r="L40" s="1">
+        <f>K40/$W$10</f>
+        <v>2.8152263413500251</v>
+      </c>
+      <c r="M40" s="1">
+        <f>K40*$U$12</f>
+        <v>14.698281174451788</v>
+      </c>
+      <c r="N40" s="5">
         <v>2.4112305727686274</v>
       </c>
-      <c r="L40" s="1">
-        <f t="shared" si="6"/>
+      <c r="O40" s="5">
         <v>14.662888618187599</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>64</v>
       </c>
@@ -2895,46 +3290,55 @@
         <v>39</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>830</v>
       </c>
       <c r="D41" s="1">
+        <v>45</v>
+      </c>
+      <c r="E41" s="4">
         <v>55</v>
       </c>
-      <c r="E41" s="1">
-        <f t="shared" si="7"/>
+      <c r="F41" s="1">
+        <f>C41*$Z$12</f>
         <v>83</v>
       </c>
-      <c r="F41" s="1">
-        <f t="shared" si="0"/>
+      <c r="G41" s="1">
+        <f>C41*($Z$12+$Z$13)</f>
         <v>124.50000000000001</v>
       </c>
-      <c r="G41" s="1">
-        <f t="shared" si="1"/>
-        <v>5706.25</v>
-      </c>
       <c r="H41" s="1">
-        <f t="shared" si="2"/>
-        <v>998593.75</v>
+        <f>D41*(F41+G41)/2</f>
+        <v>4668.75</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="3"/>
-        <v>6.484375</v>
-      </c>
-      <c r="J41" s="2">
-        <f t="shared" si="4"/>
-        <v>266.93118930771641</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="5"/>
+        <f>H41*$Z$15</f>
+        <v>817031.25</v>
+      </c>
+      <c r="J41" s="1">
+        <f>C41*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>9.078125</v>
+      </c>
+      <c r="K41" s="2">
+        <f>H41/($W$6+J41)</f>
+        <v>194.76673805754726</v>
+      </c>
+      <c r="L41" s="1">
+        <f>K41/$W$10</f>
+        <v>3.2641462581866718</v>
+      </c>
+      <c r="M41" s="1">
+        <f>K41*$U$12</f>
+        <v>17.042089580035384</v>
+      </c>
+      <c r="N41" s="5">
         <v>2.7434594456626411</v>
       </c>
-      <c r="L41" s="1">
-        <f t="shared" si="6"/>
+      <c r="O41" s="5">
         <v>16.683199331732276</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -2942,46 +3346,55 @@
         <v>40</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>870</v>
       </c>
       <c r="D42" s="1">
+        <v>50</v>
+      </c>
+      <c r="E42" s="4">
         <v>65</v>
       </c>
-      <c r="E42" s="1">
-        <f t="shared" si="7"/>
+      <c r="F42" s="1">
+        <f>C42*$Z$12</f>
         <v>87</v>
       </c>
-      <c r="F42" s="1">
-        <f t="shared" si="0"/>
+      <c r="G42" s="1">
+        <f>C42*($Z$12+$Z$13)</f>
         <v>130.50000000000003</v>
       </c>
-      <c r="G42" s="1">
-        <f t="shared" si="1"/>
-        <v>7068.7500000000009</v>
-      </c>
       <c r="H42" s="1">
-        <f t="shared" si="2"/>
-        <v>1237031.2500000002</v>
+        <f>D42*(F42+G42)/2</f>
+        <v>5437.5000000000009</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="3"/>
-        <v>6.796875</v>
-      </c>
-      <c r="J42" s="2">
-        <f t="shared" si="4"/>
-        <v>325.90305649891945</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="5"/>
+        <f>H42*$Z$15</f>
+        <v>951562.50000000012</v>
+      </c>
+      <c r="J42" s="1">
+        <f>C42*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>9.515625</v>
+      </c>
+      <c r="K42" s="2">
+        <f>H42/($W$6+J42)</f>
+        <v>222.7709190672154</v>
+      </c>
+      <c r="L42" s="1">
+        <f>K42/$W$10</f>
+        <v>3.7334755880709247</v>
+      </c>
+      <c r="M42" s="1">
+        <f>K42*$U$12</f>
+        <v>19.492455418381347</v>
+      </c>
+      <c r="N42" s="5">
         <v>3.3495591917944503</v>
       </c>
-      <c r="L42" s="1">
-        <f t="shared" si="6"/>
+      <c r="O42" s="5">
         <v>20.368941031182466</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
@@ -2989,46 +3402,55 @@
         <v>41</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>911</v>
       </c>
       <c r="D43" s="1">
+        <v>45</v>
+      </c>
+      <c r="E43" s="4">
         <v>60</v>
       </c>
-      <c r="E43" s="1">
-        <f t="shared" si="7"/>
+      <c r="F43" s="1">
+        <f>C43*$Z$12</f>
         <v>91.100000000000009</v>
       </c>
-      <c r="F43" s="1">
-        <f t="shared" si="0"/>
+      <c r="G43" s="1">
+        <f>C43*($Z$12+$Z$13)</f>
         <v>136.65000000000003</v>
       </c>
-      <c r="G43" s="1">
-        <f t="shared" si="1"/>
-        <v>6832.5000000000018</v>
-      </c>
       <c r="H43" s="1">
-        <f t="shared" si="2"/>
-        <v>1195687.5000000002</v>
+        <f>D43*(F43+G43)/2</f>
+        <v>5124.3750000000009</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="3"/>
-        <v>7.1171875</v>
-      </c>
-      <c r="J43" s="2">
-        <f t="shared" si="4"/>
-        <v>310.42644896303443</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="5"/>
+        <f>H43*$Z$15</f>
+        <v>896765.62500000012</v>
+      </c>
+      <c r="J43" s="1">
+        <f>C43*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>9.9640624999999989</v>
+      </c>
+      <c r="K43" s="2">
+        <f>H43/($W$6+J43)</f>
+        <v>206.1548684884024</v>
+      </c>
+      <c r="L43" s="1">
+        <f>K43/$W$10</f>
+        <v>3.455002888555633</v>
+      </c>
+      <c r="M43" s="1">
+        <f>K43*$U$12</f>
+        <v>18.03855099273521</v>
+      </c>
+      <c r="N43" s="5">
         <v>3.1904940587867427</v>
       </c>
-      <c r="L43" s="1">
-        <f t="shared" si="6"/>
+      <c r="O43" s="5">
         <v>19.401653060189652</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>67</v>
       </c>
@@ -3036,48 +3458,60 @@
         <v>42</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>953</v>
       </c>
       <c r="D44" s="1">
+        <v>50</v>
+      </c>
+      <c r="E44" s="4">
         <v>70</v>
       </c>
-      <c r="E44" s="1">
-        <f t="shared" si="7"/>
+      <c r="F44" s="1">
+        <f>C44*$Z$12</f>
         <v>95.300000000000011</v>
       </c>
-      <c r="F44" s="1">
-        <f t="shared" si="0"/>
+      <c r="G44" s="1">
+        <f>C44*($Z$12+$Z$13)</f>
         <v>142.95000000000002</v>
       </c>
-      <c r="G44" s="1">
-        <f>D44*(E44+F44)/2</f>
-        <v>8338.7500000000018</v>
-      </c>
       <c r="H44" s="1">
-        <f t="shared" si="2"/>
-        <v>1459281.2500000002</v>
+        <f>D44*(F44+G44)/2</f>
+        <v>5956.2500000000009</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="3"/>
-        <v>7.4453125</v>
-      </c>
-      <c r="J44" s="2">
-        <f t="shared" si="4"/>
-        <v>373.29602797901583</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="5"/>
+        <f>H44*$Z$15</f>
+        <v>1042343.7500000001</v>
+      </c>
+      <c r="J44" s="1">
+        <f>C44*$U$12*(2*$Z$12+$Z$13)/2</f>
+        <v>10.423437499999999</v>
+      </c>
+      <c r="K44" s="2">
+        <f>H44/($W$6+J44)</f>
+        <v>235.27337171676209</v>
+      </c>
+      <c r="L44" s="1">
+        <f>K44/$W$10</f>
+        <v>3.9430074334012906</v>
+      </c>
+      <c r="M44" s="1">
+        <f>K44*$U$12</f>
+        <v>20.586420025216682</v>
+      </c>
+      <c r="N44" s="5">
         <v>3.8366536208954409</v>
       </c>
-      <c r="L44" s="1">
-        <f t="shared" si="6"/>
+      <c r="O44" s="5">
         <v>23.33100174868849</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K46" s="1">
-        <f>SUM(K2:K45)</f>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L46" s="1">
+        <f>SUM(L2:L45)</f>
+        <v>55.966911920355571</v>
+      </c>
+      <c r="N46" s="5">
         <v>45.807555838637825</v>
       </c>
     </row>

--- a/Documents/progress.xlsx
+++ b/Documents/progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>زمان هر مسابقه</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>تعداد کارت nfs</t>
   </si>
 </sst>
 </file>
@@ -461,11 +464,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$AD$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>تعداد کارت</c:v>
+                  <c:v>تعداد کارت nfs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -484,7 +487,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$101</c:f>
+              <c:f>Sheet1!$AD$2:$AD$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -495,7 +498,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -513,7 +516,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
@@ -522,7 +525,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
@@ -531,31 +534,31 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>15</c:v>
@@ -570,10 +573,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>15</c:v>
@@ -582,94 +585,94 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>15</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>20</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>25</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>25</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>25</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>25</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>25</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>25</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>35</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>35</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>25</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>35</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>35</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>35</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>35</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>60</c:v>
@@ -678,19 +681,19 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>35</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>35</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>35</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>60</c:v>
@@ -702,66 +705,12 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>35</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="91">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -778,11 +727,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2053062288"/>
-        <c:axId val="2053063376"/>
+        <c:axId val="-1916831856"/>
+        <c:axId val="-1916827504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2053062288"/>
+        <c:axId val="-1916831856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,7 +774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2053063376"/>
+        <c:crossAx val="-1916827504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -833,7 +782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2053063376"/>
+        <c:axId val="-1916827504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2053062288"/>
+        <c:crossAx val="-1916831856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -989,11 +938,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AC$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>تعداد کارت</c:v>
+                  <c:v>تعداد کارت nfs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1012,7 +961,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$2:$AC$101</c:f>
+              <c:f>Sheet1!$E$2:$E$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1023,7 +972,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -1041,7 +990,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
@@ -1050,7 +999,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
@@ -1059,31 +1008,31 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>15</c:v>
@@ -1098,10 +1047,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>15</c:v>
@@ -1110,94 +1059,94 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>25</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>25</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>25</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>25</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>35</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>35</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>35</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>35</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>35</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>60</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>60</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>60</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>60</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>60</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>60</c:v>
@@ -1206,19 +1155,19 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>60</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>60</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>60</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>60</c:v>
@@ -1230,12 +1179,66 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>60</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -1252,11 +1255,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="149868416"/>
-        <c:axId val="149873312"/>
+        <c:axId val="-2056479248"/>
+        <c:axId val="-2056478704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149868416"/>
+        <c:axId val="-2056479248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149873312"/>
+        <c:crossAx val="-2056478704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1307,7 +1310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149873312"/>
+        <c:axId val="-2056478704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,7 +1361,395 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149868416"/>
+        <c:crossAx val="-2056479248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8406458880139982"/>
+          <c:y val="0.90740740740740744"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>تعداد کارت</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2056490672"/>
+        <c:axId val="-2056484144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2056490672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2056484144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2056484144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2056490672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1487,6 +1878,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2519,24 +2950,540 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1285875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2554,19 +3501,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2576,6 +3523,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2847,10 +3824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC101"/>
+  <dimension ref="A1:AD101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+      <selection activeCell="AB41" sqref="AB41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,31 +3836,32 @@
     <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -2897,67 +3875,70 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2970,81 +3951,84 @@
       <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
-        <f t="shared" ref="G2:G44" si="0">D2*$AA$12</f>
+      <c r="H2" s="1">
+        <f>D2*$AB$12</f>
         <v>5</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H44" si="1">D2*($AA$12+$AA$13)</f>
+      <c r="I2" s="1">
+        <f>D2*($AB$12+$AB$13)</f>
         <v>7.5000000000000009</v>
       </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I44" si="2">E2*(G2+H2)/2</f>
+      <c r="J2" s="1">
+        <f>E2*(H2+I2)/2</f>
         <v>18.75</v>
       </c>
-      <c r="J2" s="1">
-        <f t="shared" ref="J2:J44" si="3">I2*$AA$15</f>
+      <c r="K2" s="1">
+        <f>J2*$AB$15</f>
         <v>3281.25</v>
       </c>
-      <c r="K2" s="1">
-        <f t="shared" ref="K2:K44" si="4">D2*$V$12*(2*$AA$12+$AA$13)/2</f>
+      <c r="L2" s="1">
+        <f>D2*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>0.546875</v>
       </c>
-      <c r="L2" s="2">
-        <f t="shared" ref="L2:L44" si="5">I2/($X$6+K2)</f>
+      <c r="M2" s="2">
+        <f>J2/($Y$6+L2)</f>
         <v>1.2143993060575395</v>
       </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:M44" si="6">L2/$X$10</f>
+      <c r="N2" s="1">
+        <f>M2/$Y$10</f>
         <v>2.0352432814482839E-2</v>
       </c>
-      <c r="N2" s="1">
-        <f t="shared" ref="N2:N44" si="7">L2*$V$12</f>
+      <c r="O2" s="1">
+        <f>M2*$W$12</f>
         <v>0.1062599392800347</v>
       </c>
-      <c r="O2" s="5">
+      <c r="P2" s="5">
         <v>2.1014880807490713E-2</v>
       </c>
-      <c r="P2" s="5">
+      <c r="Q2" s="5">
         <v>0.12779319409960568</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>1</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>2</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>3</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>5</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="X2" s="1">
-        <f>SUM(AA2:AA4)</f>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="1">
+        <f>SUM(AB2:AB4)</f>
         <v>137</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>75</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3061,81 +4045,84 @@
       <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
         <v>5</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" si="0"/>
+      <c r="H3" s="1">
+        <f>D3*$AB$12</f>
         <v>5.1000000000000005</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" si="1"/>
+      <c r="I3" s="1">
+        <f>D3*($AB$12+$AB$13)</f>
         <v>7.6500000000000012</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" si="2"/>
+      <c r="J3" s="1">
+        <f>E3*(H3+I3)/2</f>
         <v>19.125000000000004</v>
       </c>
-      <c r="J3" s="1">
-        <f t="shared" si="3"/>
+      <c r="K3" s="1">
+        <f>J3*$AB$15</f>
         <v>3346.8750000000005</v>
       </c>
-      <c r="K3" s="1">
-        <f t="shared" si="4"/>
+      <c r="L3" s="1">
+        <f>D3*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>0.55781249999999993</v>
       </c>
-      <c r="L3" s="2">
-        <f t="shared" si="5"/>
+      <c r="M3" s="2">
+        <f>J3/($Y$6+L3)</f>
         <v>1.2378104277727215</v>
       </c>
-      <c r="M3" s="1">
-        <f t="shared" si="6"/>
+      <c r="N3" s="1">
+        <f>M3/$Y$10</f>
         <v>2.0744785872857649E-2</v>
       </c>
-      <c r="N3" s="1">
-        <f t="shared" si="7"/>
+      <c r="O3" s="1">
+        <f>M3*$W$12</f>
         <v>0.10830841243011313</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>2.1424226942072359E-2</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>0.13028246113422379</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>1000</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>1500</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>2000</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>4000</v>
       </c>
-      <c r="V3" s="1"/>
-      <c r="X3" s="1">
-        <f>AA18/X2</f>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="1">
+        <f>AB18/Y2</f>
         <v>6.5693430656934311</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <v>45</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AD3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3146,58 +4133,58 @@
         <v>2</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D44" si="8">D3+C4</f>
+        <f t="shared" ref="D4:D44" si="0">D3+C4</f>
         <v>53</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
+      <c r="H4" s="1">
+        <f>D4*$AB$12</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" si="1"/>
+      <c r="I4" s="1">
+        <f>D4*($AB$12+$AB$13)</f>
         <v>7.9500000000000011</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" si="2"/>
+      <c r="J4" s="1">
+        <f>E4*(H4+I4)/2</f>
         <v>132.50000000000003</v>
       </c>
-      <c r="J4" s="1">
-        <f t="shared" si="3"/>
+      <c r="K4" s="1">
+        <f>J4*$AB$15</f>
         <v>23187.500000000004</v>
       </c>
-      <c r="K4" s="1">
-        <f t="shared" si="4"/>
+      <c r="L4" s="1">
+        <f>D4*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>0.57968749999999991</v>
       </c>
-      <c r="L4" s="2">
-        <f t="shared" si="5"/>
+      <c r="M4" s="2">
+        <f>J4/($Y$6+L4)</f>
         <v>8.5635558376733005</v>
       </c>
-      <c r="M4" s="1">
-        <f t="shared" si="6"/>
+      <c r="N4" s="1">
+        <f>M4/$Y$10</f>
         <v>0.14351885246470994</v>
       </c>
-      <c r="N4" s="1">
-        <f t="shared" si="7"/>
+      <c r="O4" s="1">
+        <f>M4*$W$12</f>
         <v>0.74931113579641373</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>4.4483331307975875E-2</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>0.2705067444403938</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>11</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
       </c>
       <c r="S4" s="1">
         <v>1</v>
@@ -3208,18 +4195,21 @@
       <c r="U4" s="1">
         <v>1</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="AA4" s="1">
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="AB4" s="1">
         <v>17</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3230,58 +4220,58 @@
         <v>3</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
         <v>10</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
+      <c r="H5" s="1">
+        <f>D5*$AB$12</f>
         <v>5.6000000000000005</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
+      <c r="I5" s="1">
+        <f>D5*($AB$12+$AB$13)</f>
         <v>8.4000000000000021</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" si="2"/>
+      <c r="J5" s="1">
+        <f>E5*(H5+I5)/2</f>
         <v>21.000000000000007</v>
       </c>
-      <c r="J5" s="1">
-        <f t="shared" si="3"/>
+      <c r="K5" s="1">
+        <f>J5*$AB$15</f>
         <v>3675.0000000000014</v>
       </c>
-      <c r="K5" s="1">
-        <f t="shared" si="4"/>
+      <c r="L5" s="1">
+        <f>D5*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>0.61249999999999993</v>
       </c>
-      <c r="L5" s="2">
-        <f t="shared" si="5"/>
+      <c r="M5" s="2">
+        <f>J5/($Y$6+L5)</f>
         <v>1.3543706092364394</v>
       </c>
-      <c r="M5" s="1">
-        <f t="shared" si="6"/>
+      <c r="N5" s="1">
+        <f>M5/$Y$10</f>
         <v>2.2698248173314402E-2</v>
       </c>
-      <c r="N5" s="1">
-        <f t="shared" si="7"/>
+      <c r="O5" s="1">
+        <f>M5*$W$12</f>
         <v>0.11850742830818843</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>4.692939882223518E-2</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>0.28538147932440311</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>12</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -3290,22 +4280,25 @@
         <v>0</v>
       </c>
       <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
         <v>0.35</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="X5" s="1">
-        <f>V11/AA15</f>
+      <c r="W5" s="1"/>
+      <c r="Y5" s="1">
+        <f>W11/AB15</f>
         <v>12.142857142857142</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="1"/>
-      <c r="AC5" s="1">
+      <c r="AB5" s="1"/>
+      <c r="AD5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3316,74 +4309,77 @@
         <v>4</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
         <v>10</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
+      <c r="H6" s="1">
+        <f>D6*$AB$12</f>
         <v>6</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" si="1"/>
+      <c r="I6" s="1">
+        <f>D6*($AB$12+$AB$13)</f>
         <v>9.0000000000000018</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
+      <c r="J6" s="1">
+        <f>E6*(H6+I6)/2</f>
         <v>22.500000000000004</v>
       </c>
-      <c r="J6" s="1">
-        <f t="shared" si="3"/>
+      <c r="K6" s="1">
+        <f>J6*$AB$15</f>
         <v>3937.5000000000005</v>
       </c>
-      <c r="K6" s="1">
-        <f t="shared" si="4"/>
+      <c r="L6" s="1">
+        <f>D6*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>0.65625</v>
       </c>
-      <c r="L6" s="2">
-        <f t="shared" si="5"/>
+      <c r="M6" s="2">
+        <f>J6/($Y$6+L6)</f>
         <v>1.4470284237726101</v>
       </c>
-      <c r="M6" s="1">
-        <f t="shared" si="6"/>
+      <c r="N6" s="1">
+        <f>M6/$Y$10</f>
         <v>2.4251124509522447E-2</v>
       </c>
-      <c r="N6" s="1">
-        <f t="shared" si="7"/>
+      <c r="O6" s="1">
+        <f>M6*$W$12</f>
         <v>0.12661498708010338</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>5.0179211469534066E-2</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>0.30514385353095036</v>
       </c>
-      <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="X6" s="1">
-        <f>V10+X5</f>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="1">
+        <f>W10+Y5</f>
         <v>14.892857142857142</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AB6" s="1">
         <v>1800</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AD6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3394,58 +4390,58 @@
         <v>5</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
         <v>10</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
+      <c r="H7" s="1">
+        <f>D7*$AB$12</f>
         <v>6.5</v>
       </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
+      <c r="I7" s="1">
+        <f>D7*($AB$12+$AB$13)</f>
         <v>9.7500000000000018</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="2"/>
+      <c r="J7" s="1">
+        <f>E7*(H7+I7)/2</f>
         <v>24.375</v>
       </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
+      <c r="K7" s="1">
+        <f>J7*$AB$15</f>
         <v>4265.625</v>
       </c>
-      <c r="K7" s="1">
-        <f t="shared" si="4"/>
+      <c r="L7" s="1">
+        <f>D7*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>0.7109375</v>
       </c>
-      <c r="L7" s="2">
-        <f t="shared" si="5"/>
+      <c r="M7" s="2">
+        <f>J7/($Y$6+L7)</f>
         <v>1.5621200200271799</v>
       </c>
-      <c r="M7" s="1">
-        <f t="shared" si="6"/>
+      <c r="N7" s="1">
+        <f>M7/$Y$10</f>
         <v>2.6179974409714774E-2</v>
       </c>
-      <c r="N7" s="1">
-        <f t="shared" si="7"/>
+      <c r="O7" s="1">
+        <f>M7*$W$12</f>
         <v>0.13668550175237823</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>5.4222930808190614E-2</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>0.32973403869845641</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>13</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0.25</v>
       </c>
       <c r="S7" s="1">
         <v>0.25</v>
@@ -3456,18 +4452,21 @@
       <c r="U7" s="1">
         <v>0.25</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="AA7" s="1">
+      <c r="V7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="AB7" s="1">
         <v>8</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AD7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3478,62 +4477,65 @@
         <v>6</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
         <v>15</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
+      <c r="H8" s="1">
+        <f>D8*$AB$12</f>
         <v>7.1000000000000005</v>
       </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
+      <c r="I8" s="1">
+        <f>D8*($AB$12+$AB$13)</f>
         <v>10.650000000000002</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="2"/>
+      <c r="J8" s="1">
+        <f>E8*(H8+I8)/2</f>
         <v>26.625000000000007</v>
       </c>
-      <c r="J8" s="1">
-        <f t="shared" si="3"/>
+      <c r="K8" s="1">
+        <f>J8*$AB$15</f>
         <v>4659.3750000000009</v>
       </c>
-      <c r="K8" s="1">
-        <f t="shared" si="4"/>
+      <c r="L8" s="1">
+        <f>D8*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>0.77656249999999993</v>
       </c>
-      <c r="L8" s="2">
-        <f t="shared" si="5"/>
+      <c r="M8" s="2">
+        <f>J8/($Y$6+L8)</f>
         <v>1.6991695038390864</v>
       </c>
-      <c r="M8" s="1">
-        <f t="shared" si="6"/>
+      <c r="N8" s="1">
+        <f>M8/$Y$10</f>
         <v>2.847682224026617E-2</v>
       </c>
-      <c r="N8" s="1">
-        <f t="shared" si="7"/>
+      <c r="O8" s="1">
+        <f>M8*$W$12</f>
         <v>0.14867733158592006</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>8.8572598319003965E-2</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>0.53861715193988891</v>
       </c>
-      <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AC8" s="1">
+      <c r="W8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AD8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3544,71 +4546,74 @@
         <v>7</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4">
         <v>15</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
+      <c r="H9" s="1">
+        <f>D9*$AB$12</f>
         <v>7.8000000000000007</v>
       </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
+      <c r="I9" s="1">
+        <f>D9*($AB$12+$AB$13)</f>
         <v>11.700000000000001</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="2"/>
+      <c r="J9" s="1">
+        <f>E9*(H9+I9)/2</f>
         <v>29.25</v>
       </c>
-      <c r="J9" s="1">
-        <f t="shared" si="3"/>
+      <c r="K9" s="1">
+        <f>J9*$AB$15</f>
         <v>5118.75</v>
       </c>
-      <c r="K9" s="1">
-        <f t="shared" si="4"/>
+      <c r="L9" s="1">
+        <f>D9*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>0.85312499999999991</v>
       </c>
-      <c r="L9" s="2">
-        <f t="shared" si="5"/>
+      <c r="M9" s="2">
+        <f>J9/($Y$6+L9)</f>
         <v>1.8576167389640215</v>
       </c>
-      <c r="M9" s="1">
-        <f t="shared" si="6"/>
+      <c r="N9" s="1">
+        <f>M9/$Y$10</f>
         <v>3.1132280532637769E-2</v>
       </c>
-      <c r="N9" s="1">
-        <f t="shared" si="7"/>
+      <c r="O9" s="1">
+        <f>M9*$W$12</f>
         <v>0.16254146465935188</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>9.6961843052555813E-2</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>0.58963282937365014</v>
       </c>
-      <c r="X9" s="1">
-        <f>AA9*3600</f>
+      <c r="Y9" s="1">
+        <f>AB9*3600</f>
         <v>21600</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>6</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AD9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3619,88 +4624,91 @@
         <v>8</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
         <v>15</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
+      <c r="H10" s="1">
+        <f>D10*$AB$12</f>
         <v>8.6</v>
       </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
+      <c r="I10" s="1">
+        <f>D10*($AB$12+$AB$13)</f>
         <v>12.900000000000002</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="2"/>
+      <c r="J10" s="1">
+        <f>E10*(H10+I10)/2</f>
         <v>32.25</v>
       </c>
-      <c r="J10" s="1">
-        <f t="shared" si="3"/>
+      <c r="K10" s="1">
+        <f>J10*$AB$15</f>
         <v>5643.75</v>
       </c>
-      <c r="K10" s="1">
-        <f t="shared" si="4"/>
+      <c r="L10" s="1">
+        <f>D10*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>0.94062499999999993</v>
       </c>
-      <c r="L10" s="2">
-        <f t="shared" si="5"/>
+      <c r="M10" s="2">
+        <f>J10/($Y$6+L10)</f>
         <v>2.0368229621902048</v>
       </c>
-      <c r="M10" s="1">
-        <f t="shared" si="6"/>
+      <c r="N10" s="1">
+        <f>M10/$Y$10</f>
         <v>3.4135644088558063E-2</v>
       </c>
-      <c r="N10" s="1">
-        <f t="shared" si="7"/>
+      <c r="O10" s="1">
+        <f>M10*$W$12</f>
         <v>0.17822200919164291</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>0.10647736507481238</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <v>0.64749749031980497</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>81</v>
-      </c>
-      <c r="R10" s="1">
-        <f>R2*R7</f>
-        <v>0.25</v>
       </c>
       <c r="S10" s="1">
         <f>S2*S7</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="T10" s="1">
         <f>T2*T7</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="U10" s="1">
         <f>U2*U7</f>
+        <v>0.75</v>
+      </c>
+      <c r="V10" s="1">
+        <f>V2*V7</f>
         <v>1.25</v>
       </c>
-      <c r="V10" s="1">
-        <f>SUM(R10:U10)</f>
+      <c r="W10" s="1">
+        <f>SUM(S10:V10)</f>
         <v>2.75</v>
       </c>
-      <c r="X10" s="2">
-        <f>X9/(X2+AA6/AA7)</f>
+      <c r="Y10" s="2">
+        <f>Y9/(Y2+AB6/AB7)</f>
         <v>59.668508287292816</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AD10" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3711,81 +4719,84 @@
         <v>9</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
         <v>20</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
+      <c r="H11" s="1">
+        <f>D11*$AB$12</f>
         <v>9.5</v>
       </c>
-      <c r="H11" s="1">
-        <f t="shared" si="1"/>
+      <c r="I11" s="1">
+        <f>D11*($AB$12+$AB$13)</f>
         <v>14.250000000000002</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="2"/>
+      <c r="J11" s="1">
+        <f>E11*(H11+I11)/2</f>
         <v>47.5</v>
       </c>
-      <c r="J11" s="1">
-        <f t="shared" si="3"/>
+      <c r="K11" s="1">
+        <f>J11*$AB$15</f>
         <v>8312.5</v>
       </c>
-      <c r="K11" s="1">
-        <f t="shared" si="4"/>
+      <c r="L11" s="1">
+        <f>D11*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>1.0390625</v>
       </c>
-      <c r="L11" s="2">
-        <f t="shared" si="5"/>
+      <c r="M11" s="2">
+        <f>J11/($Y$6+L11)</f>
         <v>2.9814360770577935</v>
       </c>
-      <c r="M11" s="1">
-        <f t="shared" si="6"/>
+      <c r="N11" s="1">
+        <f>M11/$Y$10</f>
         <v>4.9966660180320428E-2</v>
       </c>
-      <c r="N11" s="1">
-        <f t="shared" si="7"/>
+      <c r="O11" s="1">
+        <f>M11*$W$12</f>
         <v>0.26087565674255692</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>0.15612185817054117</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>0.94938967806410168</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>83</v>
-      </c>
-      <c r="R11" s="1">
-        <f>R3*R7</f>
-        <v>250</v>
       </c>
       <c r="S11" s="1">
         <f>S3*S7</f>
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="T11" s="1">
         <f>T3*T7</f>
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="U11" s="1">
         <f>U3*U7</f>
+        <v>500</v>
+      </c>
+      <c r="V11" s="1">
+        <f>V3*V7</f>
         <v>1000</v>
       </c>
-      <c r="V11" s="1">
-        <f>SUM(R11:U11)</f>
+      <c r="W11" s="1">
+        <f>SUM(S11:V11)</f>
         <v>2125</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AD11" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3796,87 +4807,90 @@
         <v>10</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4">
         <v>20</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
+      <c r="H12" s="1">
+        <f>D12*$AB$12</f>
         <v>10.5</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
+        <f>D12*($AB$12+$AB$13)</f>
+        <v>15.750000000000002</v>
+      </c>
+      <c r="J12" s="1">
+        <f>E12*(H12+I12)/2</f>
+        <v>52.5</v>
+      </c>
+      <c r="K12" s="1">
+        <f>J12*$AB$15</f>
+        <v>9187.5</v>
+      </c>
+      <c r="L12" s="1">
+        <f>D12*$W$12*(2*$AB$12+$AB$13)/2</f>
+        <v>1.1484375</v>
+      </c>
+      <c r="M12" s="2">
+        <f>J12/($Y$6+L12)</f>
+        <v>3.2728031726153204</v>
+      </c>
+      <c r="N12" s="1">
+        <f>M12/$Y$10</f>
+        <v>5.4849756874386389E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <f>M12*$W$12</f>
+        <v>0.28637027760384054</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.17169780050666478</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1.0441082463243128</v>
+      </c>
+      <c r="R12" t="s">
+        <v>82</v>
+      </c>
+      <c r="S12" s="1">
+        <f>S5*S7</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" ref="T12:V12" si="1">T5*T7</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
         <f t="shared" si="1"/>
-        <v>15.750000000000002</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="2"/>
-        <v>52.5</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="3"/>
-        <v>9187.5</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="4"/>
-        <v>1.1484375</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="5"/>
-        <v>3.2728031726153204</v>
-      </c>
-      <c r="M12" s="1">
-        <f t="shared" si="6"/>
-        <v>5.4849756874386389E-2</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" si="7"/>
-        <v>0.28637027760384054</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0.17169780050666478</v>
-      </c>
-      <c r="P12" s="5">
-        <v>1.0441082463243128</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>82</v>
-      </c>
-      <c r="R12" s="1">
-        <f>R5*R7</f>
         <v>0</v>
       </c>
-      <c r="S12" s="1">
-        <f t="shared" ref="S12:U12" si="9">S5*S7</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <f t="shared" si="9"/>
+      <c r="V12" s="1">
+        <f t="shared" si="1"/>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="V12" s="1">
-        <f>SUM(R12:U12)</f>
+      <c r="W12" s="1">
+        <f>SUM(S12:V12)</f>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AB12" s="1">
         <v>0.1</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AC12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AD12" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3887,67 +4901,70 @@
         <v>11</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4">
         <v>15</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
+      <c r="H13" s="1">
+        <f>D13*$AB$12</f>
         <v>11.600000000000001</v>
       </c>
-      <c r="H13" s="1">
-        <f t="shared" si="1"/>
+      <c r="I13" s="1">
+        <f>D13*($AB$12+$AB$13)</f>
         <v>17.400000000000002</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="2"/>
+      <c r="J13" s="1">
+        <f>E13*(H13+I13)/2</f>
         <v>58.000000000000007</v>
       </c>
-      <c r="J13" s="1">
-        <f t="shared" si="3"/>
+      <c r="K13" s="1">
+        <f>J13*$AB$15</f>
         <v>10150.000000000002</v>
       </c>
-      <c r="K13" s="1">
-        <f t="shared" si="4"/>
+      <c r="L13" s="1">
+        <f>D13*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>1.2687499999999998</v>
       </c>
-      <c r="L13" s="2">
-        <f t="shared" si="5"/>
+      <c r="M13" s="2">
+        <f>J13/($Y$6+L13)</f>
         <v>3.5887520026517876</v>
       </c>
-      <c r="M13" s="1">
-        <f t="shared" si="6"/>
+      <c r="N13" s="1">
+        <f>M13/$Y$10</f>
         <v>6.0144825229627184E-2</v>
       </c>
-      <c r="N13" s="1">
-        <f t="shared" si="7"/>
+      <c r="O13" s="1">
+        <f>M13*$W$12</f>
         <v>0.31401580023203141</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>0.14149006310633894</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <v>0.86041254591692584</v>
       </c>
-      <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="AA13" s="1">
+      <c r="W13" s="1"/>
+      <c r="AB13" s="1">
         <v>0.05</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AC13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AD13" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3958,59 +4975,62 @@
         <v>12</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4">
         <v>25</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
+      <c r="H14" s="1">
+        <f>D14*$AB$12</f>
         <v>12.8</v>
       </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
+      <c r="I14" s="1">
+        <f>D14*($AB$12+$AB$13)</f>
         <v>19.200000000000003</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="2"/>
+      <c r="J14" s="1">
+        <f>E14*(H14+I14)/2</f>
         <v>80</v>
       </c>
-      <c r="J14" s="1">
-        <f t="shared" si="3"/>
+      <c r="K14" s="1">
+        <f>J14*$AB$15</f>
         <v>14000</v>
       </c>
-      <c r="K14" s="1">
-        <f t="shared" si="4"/>
+      <c r="L14" s="1">
+        <f>D14*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>1.4</v>
       </c>
-      <c r="L14" s="2">
-        <f t="shared" si="5"/>
+      <c r="M14" s="2">
+        <f>J14/($Y$6+L14)</f>
         <v>4.9101271372205177</v>
       </c>
-      <c r="M14" s="1">
-        <f t="shared" si="6"/>
+      <c r="N14" s="1">
+        <f>M14/$Y$10</f>
         <v>8.2290093688603128E-2</v>
       </c>
-      <c r="N14" s="1">
-        <f t="shared" si="7"/>
+      <c r="O14" s="1">
+        <f>M14*$W$12</f>
         <v>0.42963612450679528</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>0.2586766541822722</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <v>1.5730337078651686</v>
       </c>
-      <c r="AA14" s="1"/>
-      <c r="AC14" s="1">
+      <c r="AB14" s="1"/>
+      <c r="AD14" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4021,64 +5041,67 @@
         <v>13</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>141</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4">
         <v>20</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
+      <c r="H15" s="1">
+        <f>D15*$AB$12</f>
         <v>14.100000000000001</v>
       </c>
-      <c r="H15" s="1">
-        <f t="shared" si="1"/>
+      <c r="I15" s="1">
+        <f>D15*($AB$12+$AB$13)</f>
         <v>21.150000000000002</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="2"/>
+      <c r="J15" s="1">
+        <f>E15*(H15+I15)/2</f>
         <v>88.125</v>
       </c>
-      <c r="J15" s="1">
-        <f t="shared" si="3"/>
+      <c r="K15" s="1">
+        <f>J15*$AB$15</f>
         <v>15421.875</v>
       </c>
-      <c r="K15" s="1">
-        <f t="shared" si="4"/>
+      <c r="L15" s="1">
+        <f>D15*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>1.5421874999999998</v>
       </c>
-      <c r="L15" s="2">
-        <f t="shared" si="5"/>
+      <c r="M15" s="2">
+        <f>J15/($Y$6+L15)</f>
         <v>5.3620176832498068</v>
       </c>
-      <c r="M15" s="1">
-        <f t="shared" si="6"/>
+      <c r="N15" s="1">
+        <f>M15/$Y$10</f>
         <v>8.9863444506316212E-2</v>
       </c>
-      <c r="N15" s="1">
-        <f t="shared" si="7"/>
+      <c r="O15" s="1">
+        <f>M15*$W$12</f>
         <v>0.46917654728435804</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>0.22651129253599425</v>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="5">
         <v>1.3774335356918568</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AB15" s="1">
         <v>175</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AD15" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4089,59 +5112,62 @@
         <v>14</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4">
         <v>25</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
+      <c r="H16" s="1">
+        <f>D16*$AB$12</f>
         <v>15.5</v>
       </c>
-      <c r="H16" s="1">
-        <f t="shared" si="1"/>
+      <c r="I16" s="1">
+        <f>D16*($AB$12+$AB$13)</f>
         <v>23.250000000000004</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="2"/>
+      <c r="J16" s="1">
+        <f>E16*(H16+I16)/2</f>
         <v>96.875</v>
       </c>
-      <c r="J16" s="1">
-        <f t="shared" si="3"/>
+      <c r="K16" s="1">
+        <f>J16*$AB$15</f>
         <v>16953.125</v>
       </c>
-      <c r="K16" s="1">
-        <f t="shared" si="4"/>
+      <c r="L16" s="1">
+        <f>D16*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>1.6953125</v>
       </c>
-      <c r="L16" s="2">
-        <f t="shared" si="5"/>
+      <c r="M16" s="2">
+        <f>J16/($Y$6+L16)</f>
         <v>5.8400053824934401</v>
       </c>
-      <c r="M16" s="1">
-        <f t="shared" si="6"/>
+      <c r="N16" s="1">
+        <f>M16/$Y$10</f>
         <v>9.7874164280677106E-2</v>
       </c>
-      <c r="N16" s="1">
-        <f t="shared" si="7"/>
+      <c r="O16" s="1">
+        <f>M16*$W$12</f>
         <v>0.51100047096817602</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>0.30913823241773897</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <v>1.8798946565943586</v>
       </c>
-      <c r="AA16" s="1"/>
-      <c r="AC16" s="1">
+      <c r="AB16" s="1"/>
+      <c r="AD16" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4152,58 +5178,61 @@
         <v>15</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="E17" s="1">
         <v>6</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4">
         <v>30</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
+      <c r="H17" s="1">
+        <f>D17*$AB$12</f>
         <v>17</v>
       </c>
-      <c r="H17" s="1">
-        <f t="shared" si="1"/>
+      <c r="I17" s="1">
+        <f>D17*($AB$12+$AB$13)</f>
         <v>25.500000000000004</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="2"/>
+      <c r="J17" s="1">
+        <f>E17*(H17+I17)/2</f>
         <v>127.5</v>
       </c>
-      <c r="J17" s="1">
-        <f t="shared" si="3"/>
+      <c r="K17" s="1">
+        <f>J17*$AB$15</f>
         <v>22312.5</v>
       </c>
-      <c r="K17" s="1">
-        <f t="shared" si="4"/>
+      <c r="L17" s="1">
+        <f>D17*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>1.8593749999999998</v>
       </c>
-      <c r="L17" s="2">
-        <f t="shared" si="5"/>
+      <c r="M17" s="2">
+        <f>J17/($Y$6+L17)</f>
         <v>7.6109260493004669</v>
       </c>
-      <c r="M17" s="1">
-        <f t="shared" si="6"/>
+      <c r="N17" s="1">
+        <f>M17/$Y$10</f>
         <v>0.12755348286327634</v>
       </c>
-      <c r="N17" s="1">
-        <f t="shared" si="7"/>
+      <c r="O17" s="1">
+        <f>M17*$W$12</f>
         <v>0.66595602931379083</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>0.40392642539333062</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>2.4563093436080914</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AD17" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4214,87 +5243,90 @@
         <v>16</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>186</v>
       </c>
       <c r="E18" s="1">
         <v>40</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4">
         <v>30</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
+      <c r="H18" s="1">
+        <f>D18*$AB$12</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="H18" s="1">
-        <f t="shared" si="1"/>
+      <c r="I18" s="1">
+        <f>D18*($AB$12+$AB$13)</f>
         <v>27.900000000000006</v>
       </c>
-      <c r="I18" s="1">
-        <f t="shared" si="2"/>
+      <c r="J18" s="1">
+        <f>E18*(H18+I18)/2</f>
         <v>930.00000000000011</v>
       </c>
-      <c r="J18" s="1">
-        <f t="shared" si="3"/>
+      <c r="K18" s="1">
+        <f>J18*$AB$15</f>
         <v>162750.00000000003</v>
       </c>
-      <c r="K18" s="1">
-        <f t="shared" si="4"/>
+      <c r="L18" s="1">
+        <f>D18*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>2.0343749999999998</v>
       </c>
-      <c r="L18" s="2">
-        <f t="shared" si="5"/>
+      <c r="M18" s="2">
+        <f>J18/($Y$6+L18)</f>
         <v>54.941055463248681</v>
       </c>
-      <c r="M18" s="1">
-        <f t="shared" si="6"/>
+      <c r="N18" s="1">
+        <f>M18/$Y$10</f>
         <v>0.92077139248592699</v>
       </c>
-      <c r="N18" s="1">
-        <f t="shared" si="7"/>
+      <c r="O18" s="1">
+        <f>M18*$W$12</f>
         <v>4.8073423530342589</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="5">
         <v>0.43856343028813338</v>
       </c>
-      <c r="P18" s="5">
+      <c r="Q18" s="5">
         <v>2.6669397787791893</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>14</v>
       </c>
-      <c r="R18" s="1">
-        <f>R10*$X3</f>
+      <c r="S18" s="1">
+        <f>S10*$Y3</f>
         <v>1.6423357664233578</v>
       </c>
-      <c r="S18" s="1">
-        <f>S10*$X3</f>
+      <c r="T18" s="1">
+        <f>T10*$Y3</f>
         <v>3.2846715328467155</v>
       </c>
-      <c r="T18" s="1">
-        <f>T10*$X3</f>
+      <c r="U18" s="1">
+        <f>U10*$Y3</f>
         <v>4.9270072992700733</v>
       </c>
-      <c r="U18" s="1">
-        <f>U10*$X3</f>
+      <c r="V18" s="1">
+        <f>V10*$Y3</f>
         <v>8.2116788321167888</v>
       </c>
-      <c r="V18" s="1">
-        <f>SUM(R18:U18)</f>
+      <c r="W18" s="1">
+        <f>SUM(S18:V18)</f>
         <v>18.065693430656935</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AB18" s="1">
         <v>900</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AC18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AD18" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4305,81 +5337,84 @@
         <v>17</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>203</v>
       </c>
       <c r="E19" s="1">
         <v>8</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
+        <v>15</v>
+      </c>
+      <c r="G19" s="4">
         <v>40</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" si="0"/>
+      <c r="H19" s="1">
+        <f>D19*$AB$12</f>
         <v>20.3</v>
       </c>
-      <c r="H19" s="1">
-        <f t="shared" si="1"/>
+      <c r="I19" s="1">
+        <f>D19*($AB$12+$AB$13)</f>
         <v>30.450000000000003</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="2"/>
+      <c r="J19" s="1">
+        <f>E19*(H19+I19)/2</f>
         <v>203</v>
       </c>
-      <c r="J19" s="1">
-        <f t="shared" si="3"/>
+      <c r="K19" s="1">
+        <f>J19*$AB$15</f>
         <v>35525</v>
       </c>
-      <c r="K19" s="1">
-        <f t="shared" si="4"/>
+      <c r="L19" s="1">
+        <f>D19*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>2.2203124999999999</v>
       </c>
-      <c r="L19" s="2">
-        <f t="shared" si="5"/>
+      <c r="M19" s="2">
+        <f>J19/($Y$6+L19)</f>
         <v>11.862209294742199</v>
       </c>
-      <c r="M19" s="1">
-        <f t="shared" si="6"/>
+      <c r="N19" s="1">
+        <f>M19/$Y$10</f>
         <v>0.19880184095817943</v>
       </c>
-      <c r="N19" s="1">
-        <f t="shared" si="7"/>
+      <c r="O19" s="1">
+        <f>M19*$W$12</f>
         <v>1.0379433132899423</v>
       </c>
-      <c r="O19" s="5">
+      <c r="P19" s="5">
         <v>0.63305263950031987</v>
       </c>
-      <c r="P19" s="5">
+      <c r="Q19" s="5">
         <v>3.849644429393837</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>15</v>
       </c>
-      <c r="R19" s="1">
-        <f>R11*$X3</f>
+      <c r="S19" s="1">
+        <f>S11*$Y3</f>
         <v>1642.3357664233577</v>
       </c>
-      <c r="S19" s="1">
-        <f>S11*$X3</f>
+      <c r="T19" s="1">
+        <f>T11*$Y3</f>
         <v>2463.5036496350367</v>
       </c>
-      <c r="T19" s="1">
-        <f>T11*$X3</f>
+      <c r="U19" s="1">
+        <f>U11*$Y3</f>
         <v>3284.6715328467153</v>
       </c>
-      <c r="U19" s="1">
-        <f>U11*$X3</f>
+      <c r="V19" s="1">
+        <f>V11*$Y3</f>
         <v>6569.3430656934306</v>
       </c>
-      <c r="V19" s="1">
-        <f>SUM(R19:U19)</f>
+      <c r="W19" s="1">
+        <f>SUM(S19:V19)</f>
         <v>13959.854014598539</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AD19" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4390,81 +5425,84 @@
         <v>18</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>221</v>
       </c>
       <c r="E20" s="1">
         <v>15</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4">
         <v>30</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
+      <c r="H20" s="1">
+        <f>D20*$AB$12</f>
         <v>22.1</v>
       </c>
-      <c r="H20" s="1">
-        <f t="shared" si="1"/>
+      <c r="I20" s="1">
+        <f>D20*($AB$12+$AB$13)</f>
         <v>33.150000000000006</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="2"/>
+      <c r="J20" s="1">
+        <f>E20*(H20+I20)/2</f>
         <v>414.37500000000006</v>
       </c>
-      <c r="J20" s="1">
-        <f t="shared" si="3"/>
+      <c r="K20" s="1">
+        <f>J20*$AB$15</f>
         <v>72515.625000000015</v>
       </c>
-      <c r="K20" s="1">
-        <f t="shared" si="4"/>
+      <c r="L20" s="1">
+        <f>D20*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>2.4171874999999998</v>
       </c>
-      <c r="L20" s="2">
-        <f t="shared" si="5"/>
+      <c r="M20" s="2">
+        <f>J20/($Y$6+L20)</f>
         <v>23.938413132342134</v>
       </c>
-      <c r="M20" s="1">
-        <f t="shared" si="6"/>
+      <c r="N20" s="1">
+        <f>M20/$Y$10</f>
         <v>0.40119007194017836</v>
       </c>
-      <c r="N20" s="1">
-        <f t="shared" si="7"/>
+      <c r="O20" s="1">
+        <f>M20*$W$12</f>
         <v>2.0946111490799368</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="5">
         <v>0.51251538960893617</v>
       </c>
-      <c r="P20" s="5">
+      <c r="Q20" s="5">
         <v>3.116647639513801</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>80</v>
       </c>
-      <c r="R20" s="1">
-        <f>R5*R7*$X3</f>
+      <c r="S20" s="1">
+        <f>S5*S7*$Y3</f>
         <v>0</v>
       </c>
-      <c r="S20" s="1">
-        <f>S5*S7*$X3</f>
+      <c r="T20" s="1">
+        <f>T5*T7*$Y3</f>
         <v>0</v>
       </c>
-      <c r="T20" s="1">
-        <f>T5*T7*$X3</f>
+      <c r="U20" s="1">
+        <f>U5*U7*$Y3</f>
         <v>0</v>
       </c>
-      <c r="U20" s="1">
-        <f>U12*$X3</f>
+      <c r="V20" s="1">
+        <f>V12*$Y3</f>
         <v>0.57481751824817517</v>
       </c>
-      <c r="V20" s="1">
-        <f>SUM(R20:U20)</f>
+      <c r="W20" s="1">
+        <f>SUM(S20:V20)</f>
         <v>0.57481751824817517</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AD20" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4475,58 +5513,61 @@
         <v>19</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
+        <v>12</v>
+      </c>
+      <c r="G21" s="4">
         <v>35</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="0"/>
+      <c r="H21" s="1">
+        <f>D21*$AB$12</f>
         <v>24</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="1"/>
+      <c r="I21" s="1">
+        <f>D21*($AB$12+$AB$13)</f>
         <v>36.000000000000007</v>
       </c>
-      <c r="I21" s="1">
-        <f t="shared" si="2"/>
+      <c r="J21" s="1">
+        <f>E21*(H21+I21)/2</f>
         <v>300.00000000000006</v>
       </c>
-      <c r="J21" s="1">
-        <f t="shared" si="3"/>
+      <c r="K21" s="1">
+        <f>J21*$AB$15</f>
         <v>52500.000000000007</v>
       </c>
-      <c r="K21" s="1">
-        <f t="shared" si="4"/>
+      <c r="L21" s="1">
+        <f>D21*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>2.625</v>
       </c>
-      <c r="L21" s="2">
-        <f t="shared" si="5"/>
+      <c r="M21" s="2">
+        <f>J21/($Y$6+L21)</f>
         <v>17.125382262996947</v>
       </c>
-      <c r="M21" s="1">
-        <f t="shared" si="6"/>
+      <c r="N21" s="1">
+        <f>M21/$Y$10</f>
         <v>0.2870087212594859</v>
       </c>
-      <c r="N21" s="1">
-        <f t="shared" si="7"/>
+      <c r="O21" s="1">
+        <f>M21*$W$12</f>
         <v>1.4984709480122327</v>
       </c>
-      <c r="O21" s="5">
+      <c r="P21" s="5">
         <v>0.64359247426340094</v>
       </c>
-      <c r="P21" s="5">
+      <c r="Q21" s="5">
         <v>3.9137380191693301</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AD21" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4537,58 +5578,61 @@
         <v>20</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="1">
+        <v>15</v>
+      </c>
+      <c r="G22" s="4">
         <v>40</v>
       </c>
-      <c r="G22" s="1">
-        <f t="shared" si="0"/>
+      <c r="H22" s="1">
+        <f>D22*$AB$12</f>
         <v>26</v>
       </c>
-      <c r="H22" s="1">
-        <f t="shared" si="1"/>
+      <c r="I22" s="1">
+        <f>D22*($AB$12+$AB$13)</f>
         <v>39.000000000000007</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" si="2"/>
+      <c r="J22" s="1">
+        <f>E22*(H22+I22)/2</f>
         <v>325</v>
       </c>
-      <c r="J22" s="1">
-        <f t="shared" si="3"/>
+      <c r="K22" s="1">
+        <f>J22*$AB$15</f>
         <v>56875</v>
       </c>
-      <c r="K22" s="1">
-        <f t="shared" si="4"/>
+      <c r="L22" s="1">
+        <f>D22*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>2.84375</v>
       </c>
-      <c r="L22" s="2">
-        <f t="shared" si="5"/>
+      <c r="M22" s="2">
+        <f>J22/($Y$6+L22)</f>
         <v>18.32368487289202</v>
       </c>
-      <c r="M22" s="1">
-        <f t="shared" si="6"/>
+      <c r="N22" s="1">
+        <f>M22/$Y$10</f>
         <v>0.30709138536976444</v>
       </c>
-      <c r="N22" s="1">
-        <f t="shared" si="7"/>
+      <c r="O22" s="1">
+        <f>M22*$W$12</f>
         <v>1.6033224263780517</v>
       </c>
-      <c r="O22" s="5">
+      <c r="P22" s="5">
         <v>0.78947214162197021</v>
       </c>
-      <c r="P22" s="5">
+      <c r="Q22" s="5">
         <v>4.8008441044579264</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4599,58 +5643,61 @@
         <v>21</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>281</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="1">
+        <v>18</v>
+      </c>
+      <c r="G23" s="4">
         <v>35</v>
       </c>
-      <c r="G23" s="1">
-        <f t="shared" si="0"/>
+      <c r="H23" s="1">
+        <f>D23*$AB$12</f>
         <v>28.1</v>
       </c>
-      <c r="H23" s="1">
-        <f t="shared" si="1"/>
+      <c r="I23" s="1">
+        <f>D23*($AB$12+$AB$13)</f>
         <v>42.150000000000006</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" si="2"/>
+      <c r="J23" s="1">
+        <f>E23*(H23+I23)/2</f>
         <v>351.25</v>
       </c>
-      <c r="J23" s="1">
-        <f t="shared" si="3"/>
+      <c r="K23" s="1">
+        <f>J23*$AB$15</f>
         <v>61468.75</v>
       </c>
-      <c r="K23" s="1">
-        <f t="shared" si="4"/>
+      <c r="L23" s="1">
+        <f>D23*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>3.0734374999999998</v>
       </c>
-      <c r="L23" s="2">
-        <f t="shared" si="5"/>
+      <c r="M23" s="2">
+        <f>J23/($Y$6+L23)</f>
         <v>19.55049758352073</v>
       </c>
-      <c r="M23" s="1">
-        <f t="shared" si="6"/>
+      <c r="N23" s="1">
+        <f>M23/$Y$10</f>
         <v>0.32765185764974558</v>
       </c>
-      <c r="N23" s="1">
-        <f t="shared" si="7"/>
+      <c r="O23" s="1">
+        <f>M23*$W$12</f>
         <v>1.7106685385580638</v>
       </c>
-      <c r="O23" s="5">
+      <c r="P23" s="5">
         <v>0.73941465467819079</v>
       </c>
-      <c r="P23" s="5">
+      <c r="Q23" s="5">
         <v>4.4964404676376466</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AD23" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4661,61 +5708,64 @@
         <v>22</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>303</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="1">
+        <v>20</v>
+      </c>
+      <c r="G24" s="4">
         <v>30</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" si="0"/>
+      <c r="H24" s="1">
+        <f>D24*$AB$12</f>
         <v>30.3</v>
       </c>
-      <c r="H24" s="1">
-        <f t="shared" si="1"/>
+      <c r="I24" s="1">
+        <f>D24*($AB$12+$AB$13)</f>
         <v>45.45000000000001</v>
       </c>
-      <c r="I24" s="1">
-        <f t="shared" si="2"/>
+      <c r="J24" s="1">
+        <f>E24*(H24+I24)/2</f>
         <v>378.75000000000006</v>
       </c>
-      <c r="J24" s="1">
-        <f t="shared" si="3"/>
+      <c r="K24" s="1">
+        <f>J24*$AB$15</f>
         <v>66281.250000000015</v>
       </c>
-      <c r="K24" s="1">
-        <f t="shared" si="4"/>
+      <c r="L24" s="1">
+        <f>D24*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>3.3140624999999999</v>
       </c>
-      <c r="L24" s="2">
-        <f t="shared" si="5"/>
+      <c r="M24" s="2">
+        <f>J24/($Y$6+L24)</f>
         <v>20.802530435102437</v>
       </c>
-      <c r="M24" s="1">
-        <f t="shared" si="6"/>
+      <c r="N24" s="1">
+        <f>M24/$Y$10</f>
         <v>0.34863500081051307</v>
       </c>
-      <c r="N24" s="1">
-        <f t="shared" si="7"/>
+      <c r="O24" s="1">
+        <f>M24*$W$12</f>
         <v>1.8202214130714631</v>
       </c>
-      <c r="O24" s="5">
+      <c r="P24" s="5">
         <v>0.67659877141933411</v>
       </c>
-      <c r="P24" s="5">
+      <c r="Q24" s="5">
         <v>4.1144519883608153</v>
       </c>
-      <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="AC24" s="1">
+      <c r="W24" s="1"/>
+      <c r="AD24" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4726,58 +5776,61 @@
         <v>23</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>326</v>
       </c>
       <c r="E25" s="1">
         <v>15</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="1">
+        <v>20</v>
+      </c>
+      <c r="G25" s="4">
         <v>30</v>
       </c>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
+      <c r="H25" s="1">
+        <f>D25*$AB$12</f>
         <v>32.6</v>
       </c>
-      <c r="H25" s="1">
-        <f t="shared" si="1"/>
+      <c r="I25" s="1">
+        <f>D25*($AB$12+$AB$13)</f>
         <v>48.900000000000006</v>
       </c>
-      <c r="I25" s="1">
-        <f t="shared" si="2"/>
+      <c r="J25" s="1">
+        <f>E25*(H25+I25)/2</f>
         <v>611.25</v>
       </c>
-      <c r="J25" s="1">
-        <f t="shared" si="3"/>
+      <c r="K25" s="1">
+        <f>J25*$AB$15</f>
         <v>106968.75</v>
       </c>
-      <c r="K25" s="1">
-        <f t="shared" si="4"/>
+      <c r="L25" s="1">
+        <f>D25*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>3.5656249999999998</v>
       </c>
-      <c r="L25" s="2">
-        <f t="shared" si="5"/>
+      <c r="M25" s="2">
+        <f>J25/($Y$6+L25)</f>
         <v>33.11485718431809</v>
       </c>
-      <c r="M25" s="1">
-        <f t="shared" si="6"/>
+      <c r="N25" s="1">
+        <f>M25/$Y$10</f>
         <v>0.55498047688533092</v>
       </c>
-      <c r="N25" s="1">
-        <f t="shared" si="7"/>
+      <c r="O25" s="1">
+        <f>M25*$W$12</f>
         <v>2.8975500036278325</v>
       </c>
-      <c r="O25" s="5">
+      <c r="P25" s="5">
         <v>0.72045735739579342</v>
       </c>
-      <c r="P25" s="5">
+      <c r="Q25" s="5">
         <v>4.3811596057852302</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AD25" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4788,58 +5841,61 @@
         <v>24</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
       <c r="E26" s="1">
         <v>15</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="1">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4">
         <v>30</v>
       </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
+      <c r="H26" s="1">
+        <f>D26*$AB$12</f>
         <v>35</v>
       </c>
-      <c r="H26" s="1">
-        <f t="shared" si="1"/>
+      <c r="I26" s="1">
+        <f>D26*($AB$12+$AB$13)</f>
         <v>52.500000000000007</v>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" si="2"/>
+      <c r="J26" s="1">
+        <f>E26*(H26+I26)/2</f>
         <v>656.25</v>
       </c>
-      <c r="J26" s="1">
-        <f t="shared" si="3"/>
+      <c r="K26" s="1">
+        <f>J26*$AB$15</f>
         <v>114843.75</v>
       </c>
-      <c r="K26" s="1">
-        <f t="shared" si="4"/>
+      <c r="L26" s="1">
+        <f>D26*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>3.8281249999999996</v>
       </c>
-      <c r="L26" s="2">
-        <f t="shared" si="5"/>
+      <c r="M26" s="2">
+        <f>J26/($Y$6+L26)</f>
         <v>35.054250625968763</v>
       </c>
-      <c r="M26" s="1">
-        <f t="shared" si="6"/>
+      <c r="N26" s="1">
+        <f>M26/$Y$10</f>
         <v>0.58748327437966164</v>
       </c>
-      <c r="N26" s="1">
-        <f t="shared" si="7"/>
+      <c r="O26" s="1">
+        <f>M26*$W$12</f>
         <v>3.0672469297722667</v>
       </c>
-      <c r="O26" s="5">
+      <c r="P26" s="5">
         <v>0.76526951162888868</v>
       </c>
-      <c r="P26" s="5">
+      <c r="Q26" s="5">
         <v>4.6536659490945933</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AD26" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4850,58 +5906,61 @@
         <v>25</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>375</v>
       </c>
       <c r="E27" s="1">
         <v>15</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="1">
+        <v>22</v>
+      </c>
+      <c r="G27" s="4">
         <v>35</v>
       </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
+      <c r="H27" s="1">
+        <f>D27*$AB$12</f>
         <v>37.5</v>
       </c>
-      <c r="H27" s="1">
-        <f t="shared" si="1"/>
+      <c r="I27" s="1">
+        <f>D27*($AB$12+$AB$13)</f>
         <v>56.250000000000007</v>
       </c>
-      <c r="I27" s="1">
-        <f t="shared" si="2"/>
+      <c r="J27" s="1">
+        <f>E27*(H27+I27)/2</f>
         <v>703.125</v>
       </c>
-      <c r="J27" s="1">
-        <f t="shared" si="3"/>
+      <c r="K27" s="1">
+        <f>J27*$AB$15</f>
         <v>123046.875</v>
       </c>
-      <c r="K27" s="1">
-        <f t="shared" si="4"/>
+      <c r="L27" s="1">
+        <f>D27*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>4.1015625</v>
       </c>
-      <c r="L27" s="2">
-        <f t="shared" si="5"/>
+      <c r="M27" s="2">
+        <f>J27/($Y$6+L27)</f>
         <v>37.017451084082495</v>
       </c>
-      <c r="M27" s="1">
-        <f t="shared" si="6"/>
+      <c r="N27" s="1">
+        <f>M27/$Y$10</f>
         <v>0.62038505983508629</v>
       </c>
-      <c r="N27" s="1">
-        <f t="shared" si="7"/>
+      <c r="O27" s="1">
+        <f>M27*$W$12</f>
         <v>3.2390269698572181</v>
       </c>
-      <c r="O27" s="5">
+      <c r="P27" s="5">
         <v>0.94610390965829627</v>
       </c>
-      <c r="P27" s="5">
+      <c r="Q27" s="5">
         <v>5.7533345857599096</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AD27" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4912,58 +5971,61 @@
         <v>26</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>401</v>
       </c>
       <c r="E28" s="1">
         <v>15</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="1">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4">
         <v>40</v>
       </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
+      <c r="H28" s="1">
+        <f>D28*$AB$12</f>
         <v>40.1</v>
       </c>
-      <c r="H28" s="1">
-        <f t="shared" si="1"/>
+      <c r="I28" s="1">
+        <f>D28*($AB$12+$AB$13)</f>
         <v>60.150000000000006</v>
       </c>
-      <c r="I28" s="1">
-        <f t="shared" si="2"/>
+      <c r="J28" s="1">
+        <f>E28*(H28+I28)/2</f>
         <v>751.875</v>
       </c>
-      <c r="J28" s="1">
-        <f t="shared" si="3"/>
+      <c r="K28" s="1">
+        <f>J28*$AB$15</f>
         <v>131578.125</v>
       </c>
-      <c r="K28" s="1">
-        <f t="shared" si="4"/>
+      <c r="L28" s="1">
+        <f>D28*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>4.3859374999999998</v>
       </c>
-      <c r="L28" s="2">
-        <f t="shared" si="5"/>
+      <c r="M28" s="2">
+        <f>J28/($Y$6+L28)</f>
         <v>39.000104204054693</v>
       </c>
-      <c r="M28" s="1">
-        <f t="shared" si="6"/>
+      <c r="N28" s="1">
+        <f>M28/$Y$10</f>
         <v>0.65361285749387965</v>
       </c>
-      <c r="N28" s="1">
-        <f t="shared" si="7"/>
+      <c r="O28" s="1">
+        <f>M28*$W$12</f>
         <v>3.4125091178547855</v>
       </c>
-      <c r="O28" s="5">
+      <c r="P28" s="5">
         <v>1.143199939460233</v>
       </c>
-      <c r="P28" s="5">
+      <c r="Q28" s="5">
         <v>6.9518915237446599</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AD28" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4974,58 +6036,61 @@
         <v>27</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
       <c r="E29" s="1">
         <v>40</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="1">
+        <v>25</v>
+      </c>
+      <c r="G29" s="4">
         <v>45</v>
       </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
+      <c r="H29" s="1">
+        <f>D29*$AB$12</f>
         <v>42.800000000000004</v>
       </c>
-      <c r="H29" s="1">
-        <f t="shared" si="1"/>
+      <c r="I29" s="1">
+        <f>D29*($AB$12+$AB$13)</f>
         <v>64.2</v>
       </c>
-      <c r="I29" s="1">
-        <f t="shared" si="2"/>
+      <c r="J29" s="1">
+        <f>E29*(H29+I29)/2</f>
         <v>2140</v>
       </c>
-      <c r="J29" s="1">
-        <f t="shared" si="3"/>
+      <c r="K29" s="1">
+        <f>J29*$AB$15</f>
         <v>374500</v>
       </c>
-      <c r="K29" s="1">
-        <f t="shared" si="4"/>
+      <c r="L29" s="1">
+        <f>D29*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>4.6812499999999995</v>
       </c>
-      <c r="L29" s="2">
-        <f t="shared" si="5"/>
+      <c r="M29" s="2">
+        <f>J29/($Y$6+L29)</f>
         <v>109.32810290562423</v>
       </c>
-      <c r="M29" s="1">
-        <f t="shared" si="6"/>
+      <c r="N29" s="1">
+        <f>M29/$Y$10</f>
         <v>1.8322580209183321</v>
       </c>
-      <c r="N29" s="1">
-        <f t="shared" si="7"/>
+      <c r="O29" s="1">
+        <f>M29*$W$12</f>
         <v>9.5662090042421202</v>
       </c>
-      <c r="O29" s="5">
+      <c r="P29" s="5">
         <v>1.3568176254589965</v>
       </c>
-      <c r="P29" s="5">
+      <c r="Q29" s="5">
         <v>8.2509179926560599</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AD29" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5036,58 +6101,61 @@
         <v>28</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>456</v>
       </c>
       <c r="E30" s="1">
         <v>40</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="1">
+        <v>25</v>
+      </c>
+      <c r="G30" s="4">
         <v>35</v>
       </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
+      <c r="H30" s="1">
+        <f>D30*$AB$12</f>
         <v>45.6</v>
       </c>
-      <c r="H30" s="1">
-        <f t="shared" si="1"/>
+      <c r="I30" s="1">
+        <f>D30*($AB$12+$AB$13)</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="I30" s="1">
-        <f t="shared" si="2"/>
+      <c r="J30" s="1">
+        <f>E30*(H30+I30)/2</f>
         <v>2280</v>
       </c>
-      <c r="J30" s="1">
-        <f t="shared" si="3"/>
+      <c r="K30" s="1">
+        <f>J30*$AB$15</f>
         <v>399000</v>
       </c>
-      <c r="K30" s="1">
-        <f t="shared" si="4"/>
+      <c r="L30" s="1">
+        <f>D30*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>4.9874999999999998</v>
       </c>
-      <c r="L30" s="2">
-        <f t="shared" si="5"/>
+      <c r="M30" s="2">
+        <f>J30/($Y$6+L30)</f>
         <v>114.68606844516303</v>
       </c>
-      <c r="M30" s="1">
-        <f t="shared" si="6"/>
+      <c r="N30" s="1">
+        <f>M30/$Y$10</f>
         <v>1.9220535544976398</v>
       </c>
-      <c r="N30" s="1">
-        <f t="shared" si="7"/>
+      <c r="O30" s="1">
+        <f>M30*$W$12</f>
         <v>10.035030988951764</v>
       </c>
-      <c r="O30" s="5">
+      <c r="P30" s="5">
         <v>1.1110143525237866</v>
       </c>
-      <c r="P30" s="5">
+      <c r="Q30" s="5">
         <v>6.7561683599419453</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AD30" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5098,58 +6166,61 @@
         <v>29</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>485</v>
       </c>
       <c r="E31" s="1">
         <v>15</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="1">
+        <v>30</v>
+      </c>
+      <c r="G31" s="4">
         <v>45</v>
       </c>
-      <c r="G31" s="1">
-        <f t="shared" si="0"/>
+      <c r="H31" s="1">
+        <f>D31*$AB$12</f>
         <v>48.5</v>
       </c>
-      <c r="H31" s="1">
-        <f t="shared" si="1"/>
+      <c r="I31" s="1">
+        <f>D31*($AB$12+$AB$13)</f>
         <v>72.750000000000014</v>
       </c>
-      <c r="I31" s="1">
-        <f t="shared" si="2"/>
+      <c r="J31" s="1">
+        <f>E31*(H31+I31)/2</f>
         <v>909.37500000000011</v>
       </c>
-      <c r="J31" s="1">
-        <f t="shared" si="3"/>
+      <c r="K31" s="1">
+        <f>J31*$AB$15</f>
         <v>159140.62500000003</v>
       </c>
-      <c r="K31" s="1">
-        <f t="shared" si="4"/>
+      <c r="L31" s="1">
+        <f>D31*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>5.3046875</v>
       </c>
-      <c r="L31" s="2">
-        <f t="shared" si="5"/>
+      <c r="M31" s="2">
+        <f>J31/($Y$6+L31)</f>
         <v>45.024037133226507</v>
       </c>
-      <c r="M31" s="1">
-        <f t="shared" si="6"/>
+      <c r="N31" s="1">
+        <f>M31/$Y$10</f>
         <v>0.75456951121425908</v>
       </c>
-      <c r="N31" s="1">
-        <f t="shared" si="7"/>
+      <c r="O31" s="1">
+        <f>M31*$W$12</f>
         <v>3.9396032491573192</v>
       </c>
-      <c r="O31" s="5">
+      <c r="P31" s="5">
         <v>1.5008662405161601</v>
       </c>
-      <c r="P31" s="5">
+      <c r="Q31" s="5">
         <v>9.1268893004361082</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AD31" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5160,58 +6231,61 @@
         <v>30</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>515</v>
       </c>
       <c r="E32" s="1">
         <v>15</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="1">
+        <v>32</v>
+      </c>
+      <c r="G32" s="4">
         <v>40</v>
       </c>
-      <c r="G32" s="1">
-        <f t="shared" si="0"/>
+      <c r="H32" s="1">
+        <f>D32*$AB$12</f>
         <v>51.5</v>
       </c>
-      <c r="H32" s="1">
-        <f t="shared" si="1"/>
+      <c r="I32" s="1">
+        <f>D32*($AB$12+$AB$13)</f>
         <v>77.250000000000014</v>
       </c>
-      <c r="I32" s="1">
-        <f t="shared" si="2"/>
+      <c r="J32" s="1">
+        <f>E32*(H32+I32)/2</f>
         <v>965.625</v>
       </c>
-      <c r="J32" s="1">
-        <f t="shared" si="3"/>
+      <c r="K32" s="1">
+        <f>J32*$AB$15</f>
         <v>168984.375</v>
       </c>
-      <c r="K32" s="1">
-        <f t="shared" si="4"/>
+      <c r="L32" s="1">
+        <f>D32*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>5.6328125</v>
       </c>
-      <c r="L32" s="2">
-        <f t="shared" si="5"/>
+      <c r="M32" s="2">
+        <f>J32/($Y$6+L32)</f>
         <v>47.044750149529662</v>
       </c>
-      <c r="M32" s="1">
-        <f t="shared" si="6"/>
+      <c r="N32" s="1">
+        <f>M32/$Y$10</f>
         <v>0.78843516454304341</v>
       </c>
-      <c r="N32" s="1">
-        <f t="shared" si="7"/>
+      <c r="O32" s="1">
+        <f>M32*$W$12</f>
         <v>4.1164156380838453</v>
       </c>
-      <c r="O32" s="5">
+      <c r="P32" s="5">
         <v>1.3990730361017696</v>
       </c>
-      <c r="P32" s="5">
+      <c r="Q32" s="5">
         <v>8.5078765708891382</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AD32" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5222,58 +6296,61 @@
         <v>31</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>546</v>
       </c>
       <c r="E33" s="1">
         <v>15</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="1">
+        <v>30</v>
+      </c>
+      <c r="G33" s="4">
         <v>35</v>
       </c>
-      <c r="G33" s="1">
-        <f t="shared" si="0"/>
+      <c r="H33" s="1">
+        <f>D33*$AB$12</f>
         <v>54.6</v>
       </c>
-      <c r="H33" s="1">
-        <f t="shared" si="1"/>
+      <c r="I33" s="1">
+        <f>D33*($AB$12+$AB$13)</f>
         <v>81.900000000000006</v>
       </c>
-      <c r="I33" s="1">
-        <f t="shared" si="2"/>
+      <c r="J33" s="1">
+        <f>E33*(H33+I33)/2</f>
         <v>1023.75</v>
       </c>
-      <c r="J33" s="1">
-        <f t="shared" si="3"/>
+      <c r="K33" s="1">
+        <f>J33*$AB$15</f>
         <v>179156.25</v>
       </c>
-      <c r="K33" s="1">
-        <f t="shared" si="4"/>
+      <c r="L33" s="1">
+        <f>D33*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>5.9718749999999998</v>
       </c>
-      <c r="L33" s="2">
-        <f t="shared" si="5"/>
+      <c r="M33" s="2">
+        <f>J33/($Y$6+L33)</f>
         <v>49.066050452532252</v>
       </c>
-      <c r="M33" s="1">
-        <f t="shared" si="6"/>
+      <c r="N33" s="1">
+        <f>M33/$Y$10</f>
         <v>0.82231066036188316</v>
       </c>
-      <c r="N33" s="1">
-        <f t="shared" si="7"/>
+      <c r="O33" s="1">
+        <f>M33*$W$12</f>
         <v>4.2932794145965714</v>
       </c>
-      <c r="O33" s="5">
+      <c r="P33" s="5">
         <v>1.2814711250922366</v>
       </c>
-      <c r="P33" s="5">
+      <c r="Q33" s="5">
         <v>7.7927298147500874</v>
       </c>
-      <c r="AC33" s="1">
+      <c r="AD33" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5284,58 +6361,61 @@
         <v>32</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>578</v>
       </c>
       <c r="E34" s="1">
         <v>40</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="1">
+        <v>35</v>
+      </c>
+      <c r="G34" s="4">
         <v>45</v>
       </c>
-      <c r="G34" s="1">
-        <f t="shared" si="0"/>
+      <c r="H34" s="1">
+        <f>D34*$AB$12</f>
         <v>57.800000000000004</v>
       </c>
-      <c r="H34" s="1">
-        <f t="shared" si="1"/>
+      <c r="I34" s="1">
+        <f>D34*($AB$12+$AB$13)</f>
         <v>86.700000000000017</v>
       </c>
-      <c r="I34" s="1">
-        <f t="shared" si="2"/>
+      <c r="J34" s="1">
+        <f>E34*(H34+I34)/2</f>
         <v>2890.0000000000005</v>
       </c>
-      <c r="J34" s="1">
-        <f t="shared" si="3"/>
+      <c r="K34" s="1">
+        <f>J34*$AB$15</f>
         <v>505750.00000000006</v>
       </c>
-      <c r="K34" s="1">
-        <f t="shared" si="4"/>
+      <c r="L34" s="1">
+        <f>D34*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>6.3218749999999995</v>
       </c>
-      <c r="L34" s="2">
-        <f t="shared" si="5"/>
+      <c r="M34" s="2">
+        <f>J34/($Y$6+L34)</f>
         <v>136.22608951831825</v>
       </c>
-      <c r="M34" s="1">
-        <f t="shared" si="6"/>
+      <c r="N34" s="1">
+        <f>M34/$Y$10</f>
         <v>2.283048352112556</v>
       </c>
-      <c r="N34" s="1">
-        <f t="shared" si="7"/>
+      <c r="O34" s="1">
+        <f>M34*$W$12</f>
         <v>11.919782832852846</v>
       </c>
-      <c r="O34" s="5">
+      <c r="P34" s="5">
         <v>1.7217021276595748</v>
       </c>
-      <c r="P34" s="5">
+      <c r="Q34" s="5">
         <v>10.469810235767683</v>
       </c>
-      <c r="AC34" s="1">
+      <c r="AD34" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5346,58 +6426,61 @@
         <v>33</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>611</v>
       </c>
       <c r="E35" s="1">
         <v>15</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="1">
+        <v>38</v>
+      </c>
+      <c r="G35" s="4">
         <v>50</v>
       </c>
-      <c r="G35" s="1">
-        <f t="shared" si="0"/>
+      <c r="H35" s="1">
+        <f>D35*$AB$12</f>
         <v>61.1</v>
       </c>
-      <c r="H35" s="1">
-        <f t="shared" si="1"/>
+      <c r="I35" s="1">
+        <f>D35*($AB$12+$AB$13)</f>
         <v>91.65000000000002</v>
       </c>
-      <c r="I35" s="1">
-        <f t="shared" si="2"/>
+      <c r="J35" s="1">
+        <f>E35*(H35+I35)/2</f>
         <v>1145.6250000000002</v>
       </c>
-      <c r="J35" s="1">
-        <f t="shared" si="3"/>
+      <c r="K35" s="1">
+        <f>J35*$AB$15</f>
         <v>200484.37500000003</v>
       </c>
-      <c r="K35" s="1">
-        <f t="shared" si="4"/>
+      <c r="L35" s="1">
+        <f>D35*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>6.6828124999999998</v>
       </c>
-      <c r="L35" s="2">
-        <f t="shared" si="5"/>
+      <c r="M35" s="2">
+        <f>J35/($Y$6+L35)</f>
         <v>53.098004324480918</v>
       </c>
-      <c r="M35" s="1">
-        <f t="shared" si="6"/>
+      <c r="N35" s="1">
+        <f>M35/$Y$10</f>
         <v>0.88988322062324499</v>
       </c>
-      <c r="N35" s="1">
-        <f t="shared" si="7"/>
+      <c r="O35" s="1">
+        <f>M35*$W$12</f>
         <v>4.6460753783920801</v>
       </c>
-      <c r="O35" s="5">
+      <c r="P35" s="5">
         <v>1.9957121868477643</v>
       </c>
-      <c r="P35" s="5">
+      <c r="Q35" s="5">
         <v>12.13608762272289</v>
       </c>
-      <c r="AC35" s="1">
+      <c r="AD35" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5408,58 +6491,61 @@
         <v>34</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>645</v>
       </c>
       <c r="E36" s="1">
         <v>15</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="1">
+        <v>38</v>
+      </c>
+      <c r="G36" s="4">
         <v>50</v>
       </c>
-      <c r="G36" s="1">
-        <f t="shared" si="0"/>
+      <c r="H36" s="1">
+        <f>D36*$AB$12</f>
         <v>64.5</v>
       </c>
-      <c r="H36" s="1">
-        <f t="shared" si="1"/>
+      <c r="I36" s="1">
+        <f>D36*($AB$12+$AB$13)</f>
         <v>96.750000000000014</v>
       </c>
-      <c r="I36" s="1">
-        <f t="shared" si="2"/>
+      <c r="J36" s="1">
+        <f>E36*(H36+I36)/2</f>
         <v>1209.375</v>
       </c>
-      <c r="J36" s="1">
-        <f t="shared" si="3"/>
+      <c r="K36" s="1">
+        <f>J36*$AB$15</f>
         <v>211640.625</v>
       </c>
-      <c r="K36" s="1">
-        <f t="shared" si="4"/>
+      <c r="L36" s="1">
+        <f>D36*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>7.0546874999999991</v>
       </c>
-      <c r="L36" s="2">
-        <f t="shared" si="5"/>
+      <c r="M36" s="2">
+        <f>J36/($Y$6+L36)</f>
         <v>55.102974828375288</v>
       </c>
-      <c r="M36" s="1">
-        <f t="shared" si="6"/>
+      <c r="N36" s="1">
+        <f>M36/$Y$10</f>
         <v>0.92348504110517848</v>
       </c>
-      <c r="N36" s="1">
-        <f t="shared" si="7"/>
+      <c r="O36" s="1">
+        <f>M36*$W$12</f>
         <v>4.8215102974828374</v>
       </c>
-      <c r="O36" s="5">
+      <c r="P36" s="5">
         <v>2.0786904828564499</v>
       </c>
-      <c r="P36" s="5">
+      <c r="Q36" s="5">
         <v>12.640685368721654</v>
       </c>
-      <c r="AC36" s="1">
+      <c r="AD36" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5470,58 +6556,61 @@
         <v>35</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>680</v>
       </c>
       <c r="E37" s="1">
         <v>15</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="1">
+        <v>40</v>
+      </c>
+      <c r="G37" s="4">
         <v>60</v>
       </c>
-      <c r="G37" s="1">
-        <f t="shared" si="0"/>
+      <c r="H37" s="1">
+        <f>D37*$AB$12</f>
         <v>68</v>
       </c>
-      <c r="H37" s="1">
-        <f t="shared" si="1"/>
+      <c r="I37" s="1">
+        <f>D37*($AB$12+$AB$13)</f>
         <v>102.00000000000001</v>
       </c>
-      <c r="I37" s="1">
-        <f t="shared" si="2"/>
+      <c r="J37" s="1">
+        <f>E37*(H37+I37)/2</f>
         <v>1275</v>
       </c>
-      <c r="J37" s="1">
-        <f t="shared" si="3"/>
+      <c r="K37" s="1">
+        <f>J37*$AB$15</f>
         <v>223125</v>
       </c>
-      <c r="K37" s="1">
-        <f t="shared" si="4"/>
+      <c r="L37" s="1">
+        <f>D37*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>7.4374999999999991</v>
       </c>
-      <c r="L37" s="2">
-        <f t="shared" si="5"/>
+      <c r="M37" s="2">
+        <f>J37/($Y$6+L37)</f>
         <v>57.097161135545782</v>
       </c>
-      <c r="M37" s="1">
-        <f t="shared" si="6"/>
+      <c r="N37" s="1">
+        <f>M37/$Y$10</f>
         <v>0.95690612643831363</v>
       </c>
-      <c r="N37" s="1">
-        <f t="shared" si="7"/>
+      <c r="O37" s="1">
+        <f>M37*$W$12</f>
         <v>4.9960015993602553</v>
       </c>
-      <c r="O37" s="5">
+      <c r="P37" s="5">
         <v>2.5941964943290619</v>
       </c>
-      <c r="P37" s="5">
+      <c r="Q37" s="5">
         <v>15.775519222271322</v>
       </c>
-      <c r="AC37" s="1">
+      <c r="AD37" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5532,58 +6621,61 @@
         <v>36</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>716</v>
       </c>
       <c r="E38" s="1">
         <v>25</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="1">
+        <v>42</v>
+      </c>
+      <c r="G38" s="4">
         <v>55</v>
       </c>
-      <c r="G38" s="1">
-        <f t="shared" si="0"/>
+      <c r="H38" s="1">
+        <f>D38*$AB$12</f>
         <v>71.600000000000009</v>
       </c>
-      <c r="H38" s="1">
-        <f t="shared" si="1"/>
+      <c r="I38" s="1">
+        <f>D38*($AB$12+$AB$13)</f>
         <v>107.40000000000002</v>
       </c>
-      <c r="I38" s="1">
-        <f t="shared" si="2"/>
+      <c r="J38" s="1">
+        <f>E38*(H38+I38)/2</f>
         <v>2237.5000000000005</v>
       </c>
-      <c r="J38" s="1">
-        <f t="shared" si="3"/>
+      <c r="K38" s="1">
+        <f>J38*$AB$15</f>
         <v>391562.50000000006</v>
       </c>
-      <c r="K38" s="1">
-        <f t="shared" si="4"/>
+      <c r="L38" s="1">
+        <f>D38*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>7.8312499999999998</v>
       </c>
-      <c r="L38" s="2">
-        <f t="shared" si="5"/>
+      <c r="M38" s="2">
+        <f>J38/($Y$6+L38)</f>
         <v>98.463714588817751</v>
       </c>
-      <c r="M38" s="1">
-        <f t="shared" si="6"/>
+      <c r="N38" s="1">
+        <f>M38/$Y$10</f>
         <v>1.650178920423705</v>
       </c>
-      <c r="N38" s="1">
-        <f t="shared" si="7"/>
+      <c r="O38" s="1">
+        <f>M38*$W$12</f>
         <v>8.6155750265215527</v>
       </c>
-      <c r="O38" s="5">
+      <c r="P38" s="5">
         <v>2.4695334253407917</v>
       </c>
-      <c r="P38" s="5">
+      <c r="Q38" s="5">
         <v>15.017432991937245</v>
       </c>
-      <c r="AC38" s="1">
+      <c r="AD38" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5594,58 +6686,61 @@
         <v>37</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>753</v>
       </c>
       <c r="E39" s="1">
         <v>15</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="1">
+        <v>42</v>
+      </c>
+      <c r="G39" s="4">
         <v>55</v>
       </c>
-      <c r="G39" s="1">
-        <f t="shared" si="0"/>
+      <c r="H39" s="1">
+        <f>D39*$AB$12</f>
         <v>75.3</v>
       </c>
-      <c r="H39" s="1">
-        <f t="shared" si="1"/>
+      <c r="I39" s="1">
+        <f>D39*($AB$12+$AB$13)</f>
         <v>112.95000000000002</v>
       </c>
-      <c r="I39" s="1">
-        <f t="shared" si="2"/>
+      <c r="J39" s="1">
+        <f>E39*(H39+I39)/2</f>
         <v>1411.875</v>
       </c>
-      <c r="J39" s="1">
-        <f t="shared" si="3"/>
+      <c r="K39" s="1">
+        <f>J39*$AB$15</f>
         <v>247078.125</v>
       </c>
-      <c r="K39" s="1">
-        <f t="shared" si="4"/>
+      <c r="L39" s="1">
+        <f>D39*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>8.2359375000000004</v>
       </c>
-      <c r="L39" s="2">
-        <f t="shared" si="5"/>
+      <c r="M39" s="2">
+        <f>J39/($Y$6+L39)</f>
         <v>61.044037175366974</v>
       </c>
-      <c r="M39" s="1">
-        <f t="shared" si="6"/>
+      <c r="N39" s="1">
+        <f>M39/$Y$10</f>
         <v>1.0230528452538354</v>
       </c>
-      <c r="N39" s="1">
-        <f t="shared" si="7"/>
+      <c r="O39" s="1">
+        <f>M39*$W$12</f>
         <v>5.3413532528446099</v>
       </c>
-      <c r="O39" s="5">
+      <c r="P39" s="5">
         <v>2.5610135195630765</v>
       </c>
-      <c r="P39" s="5">
+      <c r="Q39" s="5">
         <v>15.573730862207897</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AD39" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5656,58 +6751,61 @@
         <v>38</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>791</v>
       </c>
       <c r="E40" s="1">
         <v>25</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="1">
+        <v>40</v>
+      </c>
+      <c r="G40" s="4">
         <v>50</v>
       </c>
-      <c r="G40" s="1">
-        <f t="shared" si="0"/>
+      <c r="H40" s="1">
+        <f>D40*$AB$12</f>
         <v>79.100000000000009</v>
       </c>
-      <c r="H40" s="1">
-        <f t="shared" si="1"/>
+      <c r="I40" s="1">
+        <f>D40*($AB$12+$AB$13)</f>
         <v>118.65000000000002</v>
       </c>
-      <c r="I40" s="1">
-        <f t="shared" si="2"/>
+      <c r="J40" s="1">
+        <f>E40*(H40+I40)/2</f>
         <v>2471.8750000000005</v>
       </c>
-      <c r="J40" s="1">
-        <f t="shared" si="3"/>
+      <c r="K40" s="1">
+        <f>J40*$AB$15</f>
         <v>432578.12500000006</v>
       </c>
-      <c r="K40" s="1">
-        <f t="shared" si="4"/>
+      <c r="L40" s="1">
+        <f>D40*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>8.6515624999999989</v>
       </c>
-      <c r="L40" s="2">
-        <f t="shared" si="5"/>
+      <c r="M40" s="2">
+        <f>J40/($Y$6+L40)</f>
         <v>104.98772267465564</v>
       </c>
-      <c r="M40" s="1">
-        <f t="shared" si="6"/>
+      <c r="N40" s="1">
+        <f>M40/$Y$10</f>
         <v>1.7595164633437659</v>
       </c>
-      <c r="N40" s="1">
-        <f t="shared" si="7"/>
+      <c r="O40" s="1">
+        <f>M40*$W$12</f>
         <v>9.186425734032369</v>
       </c>
-      <c r="O40" s="5">
+      <c r="P40" s="5">
         <v>2.4112305727686274</v>
       </c>
-      <c r="P40" s="5">
+      <c r="Q40" s="5">
         <v>14.662888618187599</v>
       </c>
-      <c r="AC40" s="1">
+      <c r="AD40" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5718,58 +6816,61 @@
         <v>39</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>830</v>
       </c>
       <c r="E41" s="1">
         <v>20</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="1">
+        <v>40</v>
+      </c>
+      <c r="G41" s="4">
         <v>55</v>
       </c>
-      <c r="G41" s="1">
-        <f t="shared" si="0"/>
+      <c r="H41" s="1">
+        <f>D41*$AB$12</f>
         <v>83</v>
       </c>
-      <c r="H41" s="1">
-        <f t="shared" si="1"/>
+      <c r="I41" s="1">
+        <f>D41*($AB$12+$AB$13)</f>
         <v>124.50000000000001</v>
       </c>
-      <c r="I41" s="1">
-        <f t="shared" si="2"/>
+      <c r="J41" s="1">
+        <f>E41*(H41+I41)/2</f>
         <v>2075</v>
       </c>
-      <c r="J41" s="1">
-        <f t="shared" si="3"/>
+      <c r="K41" s="1">
+        <f>J41*$AB$15</f>
         <v>363125</v>
       </c>
-      <c r="K41" s="1">
-        <f t="shared" si="4"/>
+      <c r="L41" s="1">
+        <f>D41*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>9.078125</v>
       </c>
-      <c r="L41" s="2">
-        <f t="shared" si="5"/>
+      <c r="M41" s="2">
+        <f>J41/($Y$6+L41)</f>
         <v>86.562994692243223</v>
       </c>
-      <c r="M41" s="1">
-        <f t="shared" si="6"/>
+      <c r="N41" s="1">
+        <f>M41/$Y$10</f>
         <v>1.4507316703051873</v>
       </c>
-      <c r="N41" s="1">
-        <f t="shared" si="7"/>
+      <c r="O41" s="1">
+        <f>M41*$W$12</f>
         <v>7.5742620355712811</v>
       </c>
-      <c r="O41" s="5">
+      <c r="P41" s="5">
         <v>2.7434594456626411</v>
       </c>
-      <c r="P41" s="5">
+      <c r="Q41" s="5">
         <v>16.683199331732276</v>
       </c>
-      <c r="AC41" s="1">
+      <c r="AD41" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5780,58 +6881,61 @@
         <v>40</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>870</v>
       </c>
       <c r="E42" s="1">
         <v>20</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="1">
+        <v>42</v>
+      </c>
+      <c r="G42" s="4">
         <v>65</v>
       </c>
-      <c r="G42" s="1">
-        <f t="shared" si="0"/>
+      <c r="H42" s="1">
+        <f>D42*$AB$12</f>
         <v>87</v>
       </c>
-      <c r="H42" s="1">
-        <f t="shared" si="1"/>
+      <c r="I42" s="1">
+        <f>D42*($AB$12+$AB$13)</f>
         <v>130.50000000000003</v>
       </c>
-      <c r="I42" s="1">
-        <f t="shared" si="2"/>
+      <c r="J42" s="1">
+        <f>E42*(H42+I42)/2</f>
         <v>2175.0000000000005</v>
       </c>
-      <c r="J42" s="1">
-        <f t="shared" si="3"/>
+      <c r="K42" s="1">
+        <f>J42*$AB$15</f>
         <v>380625.00000000006</v>
       </c>
-      <c r="K42" s="1">
-        <f t="shared" si="4"/>
+      <c r="L42" s="1">
+        <f>D42*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>9.515625</v>
       </c>
-      <c r="L42" s="2">
-        <f t="shared" si="5"/>
+      <c r="M42" s="2">
+        <f>J42/($Y$6+L42)</f>
         <v>89.108367626886164</v>
       </c>
-      <c r="M42" s="1">
-        <f t="shared" si="6"/>
+      <c r="N42" s="1">
+        <f>M42/$Y$10</f>
         <v>1.4933902352283701</v>
       </c>
-      <c r="N42" s="1">
-        <f t="shared" si="7"/>
+      <c r="O42" s="1">
+        <f>M42*$W$12</f>
         <v>7.7969821673525388</v>
       </c>
-      <c r="O42" s="5">
+      <c r="P42" s="5">
         <v>3.3495591917944503</v>
       </c>
-      <c r="P42" s="5">
+      <c r="Q42" s="5">
         <v>20.368941031182466</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AD42" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5842,58 +6946,61 @@
         <v>41</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>911</v>
       </c>
       <c r="E43" s="1">
         <v>20</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="1">
+        <v>42</v>
+      </c>
+      <c r="G43" s="4">
         <v>60</v>
       </c>
-      <c r="G43" s="1">
-        <f t="shared" si="0"/>
+      <c r="H43" s="1">
+        <f>D43*$AB$12</f>
         <v>91.100000000000009</v>
       </c>
-      <c r="H43" s="1">
-        <f t="shared" si="1"/>
+      <c r="I43" s="1">
+        <f>D43*($AB$12+$AB$13)</f>
         <v>136.65000000000003</v>
       </c>
-      <c r="I43" s="1">
-        <f t="shared" si="2"/>
+      <c r="J43" s="1">
+        <f>E43*(H43+I43)/2</f>
         <v>2277.5000000000005</v>
       </c>
-      <c r="J43" s="1">
-        <f t="shared" si="3"/>
+      <c r="K43" s="1">
+        <f>J43*$AB$15</f>
         <v>398562.50000000006</v>
       </c>
-      <c r="K43" s="1">
-        <f t="shared" si="4"/>
+      <c r="L43" s="1">
+        <f>D43*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>9.9640624999999989</v>
       </c>
-      <c r="L43" s="2">
-        <f t="shared" si="5"/>
+      <c r="M43" s="2">
+        <f>J43/($Y$6+L43)</f>
         <v>91.624385994845511</v>
       </c>
-      <c r="M43" s="1">
-        <f t="shared" si="6"/>
+      <c r="N43" s="1">
+        <f>M43/$Y$10</f>
         <v>1.535556839358059</v>
       </c>
-      <c r="N43" s="1">
-        <f t="shared" si="7"/>
+      <c r="O43" s="1">
+        <f>M43*$W$12</f>
         <v>8.0171337745489826</v>
       </c>
-      <c r="O43" s="5">
+      <c r="P43" s="5">
         <v>3.1904940587867427</v>
       </c>
-      <c r="P43" s="5">
+      <c r="Q43" s="5">
         <v>19.401653060189652</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AD43" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5904,406 +7011,409 @@
         <v>42</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>953</v>
       </c>
       <c r="E44" s="1">
         <v>20</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="1">
+        <v>44</v>
+      </c>
+      <c r="G44" s="4">
         <v>70</v>
       </c>
-      <c r="G44" s="1">
-        <f t="shared" si="0"/>
+      <c r="H44" s="1">
+        <f>D44*$AB$12</f>
         <v>95.300000000000011</v>
       </c>
-      <c r="H44" s="1">
-        <f t="shared" si="1"/>
+      <c r="I44" s="1">
+        <f>D44*($AB$12+$AB$13)</f>
         <v>142.95000000000002</v>
       </c>
-      <c r="I44" s="1">
-        <f t="shared" si="2"/>
+      <c r="J44" s="1">
+        <f>E44*(H44+I44)/2</f>
         <v>2382.5000000000005</v>
       </c>
-      <c r="J44" s="1">
-        <f t="shared" si="3"/>
+      <c r="K44" s="1">
+        <f>J44*$AB$15</f>
         <v>416937.50000000006</v>
       </c>
-      <c r="K44" s="1">
-        <f t="shared" si="4"/>
+      <c r="L44" s="1">
+        <f>D44*$W$12*(2*$AB$12+$AB$13)/2</f>
         <v>10.423437499999999</v>
       </c>
-      <c r="L44" s="2">
-        <f t="shared" si="5"/>
+      <c r="M44" s="2">
+        <f>J44/($Y$6+L44)</f>
         <v>94.109348686704834</v>
       </c>
-      <c r="M44" s="1">
-        <f t="shared" si="6"/>
+      <c r="N44" s="1">
+        <f>M44/$Y$10</f>
         <v>1.5772029733605162</v>
       </c>
-      <c r="N44" s="1">
-        <f t="shared" si="7"/>
+      <c r="O44" s="1">
+        <f>M44*$W$12</f>
         <v>8.2345680100866723</v>
       </c>
-      <c r="O44" s="5">
+      <c r="P44" s="5">
         <v>3.8366536208954409</v>
       </c>
-      <c r="P44" s="5">
+      <c r="Q44" s="5">
         <v>23.33100174868849</v>
       </c>
-      <c r="AC44" s="1">
+      <c r="AD44" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="E45" s="1">
         <v>20</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AD45" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="E46" s="1">
         <v>35</v>
       </c>
-      <c r="M46" s="1">
-        <f>SUM(M2:M45)</f>
+      <c r="N46" s="1">
+        <f>SUM(N2:N45)</f>
         <v>27.784224130884915</v>
       </c>
-      <c r="O46" s="5">
+      <c r="P46" s="5">
         <v>45.807555838637825</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AD46" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="E47" s="1">
         <v>25</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AD47" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="E48" s="1">
         <v>25</v>
       </c>
-      <c r="AC48" s="1">
+      <c r="AD48" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="E49" s="1">
         <v>25</v>
       </c>
-      <c r="AC49" s="1">
+      <c r="AD49" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="E50" s="1">
         <v>25</v>
       </c>
-      <c r="AC50" s="1">
+      <c r="AD50" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="E51" s="1">
         <v>25</v>
       </c>
-      <c r="AC51" s="1">
+      <c r="AD51" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="E52" s="1">
         <v>25</v>
       </c>
-      <c r="AC52" s="1">
+      <c r="AD52" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="E53" s="1">
         <v>25</v>
       </c>
-      <c r="AC53" s="1">
+      <c r="AD53" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="E54" s="1">
         <v>35</v>
       </c>
-      <c r="AC54" s="1">
+      <c r="AD54" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="E55" s="1">
         <v>35</v>
       </c>
-      <c r="AC55" s="1">
+      <c r="AD55" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="E56" s="1">
         <v>60</v>
       </c>
-      <c r="AC56" s="1">
+      <c r="AD56" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="E57" s="1">
         <v>35</v>
       </c>
-      <c r="AC57" s="1">
+      <c r="AD57" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="E58" s="1">
         <v>25</v>
       </c>
-      <c r="AC58" s="1">
+      <c r="AD58" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="E59" s="1">
         <v>35</v>
       </c>
-      <c r="AC59" s="1">
+      <c r="AD59" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="E60" s="1">
         <v>35</v>
       </c>
-      <c r="AC60" s="1">
+      <c r="AD60" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="E61" s="1">
         <v>35</v>
       </c>
-      <c r="AC61" s="1">
+      <c r="AD61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="E62" s="1">
         <v>35</v>
       </c>
-      <c r="AC62" s="1">
+      <c r="AD62" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="E63" s="1">
         <v>60</v>
       </c>
-      <c r="AC63" s="1">
+      <c r="AD63" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="E64" s="1">
         <v>60</v>
       </c>
-      <c r="AC64" s="1">
+      <c r="AD64" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="E65" s="1">
         <v>35</v>
       </c>
-      <c r="AC65" s="1">
+      <c r="AD65" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="E66" s="1">
         <v>60</v>
       </c>
-      <c r="AC66" s="1">
+      <c r="AD66" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="E67" s="1">
         <v>35</v>
       </c>
-      <c r="AC67" s="1">
+      <c r="AD67" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="E68" s="1">
         <v>60</v>
       </c>
-      <c r="AC68" s="1">
+      <c r="AD68" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="E69" s="1">
         <v>35</v>
       </c>
-      <c r="AC69" s="1">
+      <c r="AD69" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="E70" s="1">
         <v>60</v>
       </c>
-      <c r="AC70" s="1">
+      <c r="AD70" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="E71" s="1">
         <v>60</v>
       </c>
-      <c r="AC71" s="1">
+      <c r="AD71" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="E72" s="1">
         <v>60</v>
       </c>
-      <c r="AC72" s="1">
+      <c r="AD72" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="E73" s="1">
         <v>35</v>
       </c>
-      <c r="AC73" s="1">
+      <c r="AD73" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="E74" s="1">
         <v>60</v>
       </c>
-      <c r="AC74" s="1">
+      <c r="AD74" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="E75" s="1">
         <v>35</v>
       </c>
-      <c r="AC75" s="1">
+      <c r="AD75" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6311,7 +7421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6319,7 +7429,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6327,7 +7437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6335,7 +7445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>

--- a/Documents/progress.xlsx
+++ b/Documents/progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>زمان هر مسابقه</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>تعداد کارت nfs</t>
+  </si>
+  <si>
+    <t>مدت زمان لیگ (روز)</t>
   </si>
 </sst>
 </file>
@@ -673,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,35 +805,35 @@
         <v>5</v>
       </c>
       <c r="G2" s="1">
-        <f>D2*$AA$12</f>
+        <f t="shared" ref="G2:G44" si="0">D2*$AA$12</f>
         <v>10</v>
       </c>
       <c r="H2" s="1">
-        <f>D2*($AA$12+$AA$13)</f>
+        <f t="shared" ref="H2:H44" si="1">D2*($AA$12+$AA$13)</f>
         <v>15.000000000000002</v>
       </c>
       <c r="I2" s="1">
-        <f>E2*(G2+H2)/2</f>
+        <f t="shared" ref="I2:I44" si="2">E2*(G2+H2)/2</f>
         <v>37.5</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J44" si="0">I2*$AA$15</f>
+        <f t="shared" ref="J2:J44" si="3">I2*$AA$15</f>
         <v>6562.5</v>
       </c>
       <c r="K2" s="1">
-        <f>D2*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" ref="K2:K44" si="4">D2*$V$12*(2*$AA$12+$AA$13)/2</f>
         <v>0.78125</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" ref="L2:L44" si="1">I2/($X$6+K2)</f>
+        <f t="shared" ref="L2:L44" si="5">I2/($X$6+K2)</f>
         <v>2.3924807747080603</v>
       </c>
       <c r="M2" s="1">
-        <f t="shared" ref="M2:M44" si="2">L2/$X$10</f>
+        <f t="shared" ref="M2:M44" si="6">L2/$X$10</f>
         <v>3.8947361448735861E-2</v>
       </c>
       <c r="N2" s="1">
-        <f t="shared" ref="N2:N44" si="3">L2*$V$12</f>
+        <f t="shared" ref="N2:N44" si="7">L2*$V$12</f>
         <v>0.14953004841925377</v>
       </c>
       <c r="O2" s="5">
@@ -896,35 +899,35 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
-        <f>D3*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>10.200000000000001</v>
       </c>
       <c r="H3" s="1">
-        <f>D3*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>15.300000000000002</v>
       </c>
       <c r="I3" s="1">
-        <f>E3*(G3+H3)/2</f>
+        <f t="shared" si="2"/>
         <v>38.250000000000007</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6693.7500000000009</v>
       </c>
       <c r="K3" s="1">
-        <f>D3*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>0.796875</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.4379001280409738</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.9686746270434455E-2</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.15236875800256086</v>
       </c>
       <c r="O3" s="5">
@@ -980,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D44" si="4">D3+C4</f>
+        <f t="shared" ref="D4:D44" si="8">D3+C4</f>
         <v>106</v>
       </c>
       <c r="E4" s="1">
@@ -990,35 +993,35 @@
         <v>10</v>
       </c>
       <c r="G4" s="1">
-        <f>D4*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>10.600000000000001</v>
       </c>
       <c r="H4" s="1">
-        <f>D4*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>15.900000000000002</v>
       </c>
       <c r="I4" s="1">
-        <f>E4*(G4+H4)/2</f>
+        <f t="shared" si="2"/>
         <v>39.750000000000007</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6956.2500000000009</v>
       </c>
       <c r="K4" s="1">
-        <f>D4*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>0.828125</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.5284679823938667</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.1161106690132711E-2</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.15802924889961667</v>
       </c>
       <c r="O4" s="5">
@@ -1067,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="E5" s="1">
@@ -1077,35 +1080,35 @@
         <v>10</v>
       </c>
       <c r="G5" s="1">
-        <f>D5*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>11.200000000000001</v>
       </c>
       <c r="H5" s="1">
-        <f>D5*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>16.800000000000004</v>
       </c>
       <c r="I5" s="1">
-        <f>E5*(G5+H5)/2</f>
+        <f t="shared" si="2"/>
         <v>42.000000000000014</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7350.0000000000027</v>
       </c>
       <c r="K5" s="1">
-        <f>D5*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.6636466591166488</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.3361689799573354E-2</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.16647791619479055</v>
       </c>
       <c r="O5" s="5">
@@ -1156,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="E6" s="1">
@@ -1166,35 +1169,35 @@
         <v>10</v>
       </c>
       <c r="G6" s="1">
-        <f>D6*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H6" s="1">
-        <f>D6*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>18.000000000000004</v>
       </c>
       <c r="I6" s="1">
-        <f>E6*(G6+H6)/2</f>
+        <f t="shared" si="2"/>
         <v>45.000000000000007</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7875.0000000000009</v>
       </c>
       <c r="K6" s="1">
-        <f>D6*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>0.9375</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.84263959390863</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.6275528272931181E-2</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.17766497461928937</v>
       </c>
       <c r="O6" s="5">
@@ -1237,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="E7" s="1">
@@ -1247,35 +1250,35 @@
         <v>10</v>
       </c>
       <c r="G7" s="1">
-        <f>D7*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="H7" s="1">
-        <f>D7*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>19.500000000000004</v>
       </c>
       <c r="I7" s="1">
-        <f>E7*(G7+H7)/2</f>
+        <f t="shared" si="2"/>
         <v>48.75</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8531.25</v>
       </c>
       <c r="K7" s="1">
-        <f>D7*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>1.015625</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.0644029746036203</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.9885629819128703E-2</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.19152518591272627</v>
       </c>
       <c r="O7" s="5">
@@ -1324,7 +1327,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>142</v>
       </c>
       <c r="E8" s="1">
@@ -1334,35 +1337,35 @@
         <v>15</v>
       </c>
       <c r="G8" s="1">
-        <f>D8*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>14.200000000000001</v>
       </c>
       <c r="H8" s="1">
-        <f>D8*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>21.300000000000004</v>
       </c>
       <c r="I8" s="1">
-        <f>E8*(G8+H8)/2</f>
+        <f t="shared" si="2"/>
         <v>71.000000000000014</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12425.000000000002</v>
       </c>
       <c r="K8" s="1">
-        <f>D8*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>1.109375</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.4368810154833325</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.222829560089146E-2</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.27730506346770828</v>
       </c>
       <c r="O8" s="5">
@@ -1393,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>156</v>
       </c>
       <c r="E9" s="1">
@@ -1403,35 +1406,35 @@
         <v>15</v>
       </c>
       <c r="G9" s="1">
-        <f>D9*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>15.600000000000001</v>
       </c>
       <c r="H9" s="1">
-        <f>D9*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>23.400000000000002</v>
       </c>
       <c r="I9" s="1">
-        <f>E9*(G9+H9)/2</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13650</v>
       </c>
       <c r="K9" s="1">
-        <f>D9*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>1.21875</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.8412302576891104</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.8810725125171566E-2</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.3025768911055694</v>
       </c>
       <c r="O9" s="5">
@@ -1471,7 +1474,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>172</v>
       </c>
       <c r="E10" s="1">
@@ -1481,35 +1484,35 @@
         <v>15</v>
       </c>
       <c r="G10" s="1">
-        <f>D10*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>17.2</v>
       </c>
       <c r="H10" s="1">
-        <f>D10*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>25.800000000000004</v>
       </c>
       <c r="I10" s="1">
-        <f>E10*(G10+H10)/2</f>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15050</v>
       </c>
       <c r="K10" s="1">
-        <f>D10*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>1.34375</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5.2966730822106136</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.6224910640637892E-2</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.33104206763816335</v>
       </c>
       <c r="O10" s="5">
@@ -1566,7 +1569,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="E11" s="1">
@@ -1576,35 +1579,35 @@
         <v>20</v>
       </c>
       <c r="G11" s="1">
-        <f>D11*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="H11" s="1">
-        <f>D11*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>28.500000000000004</v>
       </c>
       <c r="I11" s="1">
-        <f>E11*(G11+H11)/2</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>33250</v>
       </c>
       <c r="K11" s="1">
-        <f>D11*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>1.484375</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11.601471991277089</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.18886117195102237</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.72509199945481806</v>
       </c>
       <c r="O11" s="5">
@@ -1654,7 +1657,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
       <c r="E12" s="1">
@@ -1664,35 +1667,35 @@
         <v>20</v>
       </c>
       <c r="G12" s="1">
-        <f>D12*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="H12" s="1">
-        <f>D12*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>31.500000000000004</v>
       </c>
       <c r="I12" s="1">
-        <f>E12*(G12+H12)/2</f>
+        <f t="shared" si="2"/>
         <v>131.25</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>22968.75</v>
       </c>
       <c r="K12" s="1">
-        <f>D12*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>1.640625</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.9384366140137708</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.12923036348394509</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.49615228837586067</v>
       </c>
       <c r="O12" s="5">
@@ -1709,15 +1712,15 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" ref="S12:U12" si="5">S5*S7</f>
+        <f t="shared" ref="S12:U12" si="9">S5*S7</f>
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
       <c r="V12" s="1">
@@ -1748,7 +1751,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>232</v>
       </c>
       <c r="E13" s="1">
@@ -1758,35 +1761,35 @@
         <v>15</v>
       </c>
       <c r="G13" s="1">
-        <f>D13*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>23.200000000000003</v>
       </c>
       <c r="H13" s="1">
-        <f>D13*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>34.800000000000004</v>
       </c>
       <c r="I13" s="1">
-        <f>E13*(G13+H13)/2</f>
+        <f t="shared" si="2"/>
         <v>174.00000000000003</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30450.000000000004</v>
       </c>
       <c r="K13" s="1">
-        <f>D13*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>1.8125</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10.415820416889366</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16955986725168734</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.65098877605558536</v>
       </c>
       <c r="O13" s="5">
@@ -1822,7 +1825,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>256</v>
       </c>
       <c r="E14" s="1">
@@ -1832,35 +1835,35 @@
         <v>25</v>
       </c>
       <c r="G14" s="1">
-        <f>D14*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>25.6</v>
       </c>
       <c r="H14" s="1">
-        <f>D14*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>38.400000000000006</v>
       </c>
       <c r="I14" s="1">
-        <f>E14*(G14+H14)/2</f>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44800</v>
       </c>
       <c r="K14" s="1">
-        <f>D14*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>15.154334038054969</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.24669846108461577</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.94714587737843559</v>
       </c>
       <c r="O14" s="5">
@@ -1888,7 +1891,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>282</v>
       </c>
       <c r="E15" s="1">
@@ -1898,35 +1901,35 @@
         <v>20</v>
       </c>
       <c r="G15" s="1">
-        <f>D15*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>28.200000000000003</v>
       </c>
       <c r="H15" s="1">
-        <f>D15*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>42.300000000000004</v>
       </c>
       <c r="I15" s="1">
-        <f>E15*(G15+H15)/2</f>
+        <f t="shared" si="2"/>
         <v>352.5</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>61687.5</v>
       </c>
       <c r="K15" s="1">
-        <f>D15*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>2.203125</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>20.618879749314534</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33565618196558544</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2886799843321584</v>
       </c>
       <c r="O15" s="5">
@@ -1959,7 +1962,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>310</v>
       </c>
       <c r="E16" s="1">
@@ -1969,35 +1972,35 @@
         <v>25</v>
       </c>
       <c r="G16" s="1">
-        <f>D16*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="H16" s="1">
-        <f>D16*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>46.500000000000007</v>
       </c>
       <c r="I16" s="1">
-        <f>E16*(G16+H16)/2</f>
+        <f t="shared" si="2"/>
         <v>387.5</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>67812.5</v>
       </c>
       <c r="K16" s="1">
-        <f>D16*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>2.421875</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>22.379785999742168</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.36432209767022133</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.3987366249838855</v>
       </c>
       <c r="O16" s="5">
@@ -2025,7 +2028,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="E17" s="1">
@@ -2035,35 +2038,35 @@
         <v>30</v>
       </c>
       <c r="G17" s="1">
-        <f>D17*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="H17" s="1">
-        <f>D17*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>51.000000000000007</v>
       </c>
       <c r="I17" s="1">
-        <f>E17*(G17+H17)/2</f>
+        <f t="shared" si="2"/>
         <v>510</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>89250</v>
       </c>
       <c r="K17" s="1">
-        <f>D17*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>2.65625</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>29.061307555329435</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.47309105322629313</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.8163317222080897</v>
       </c>
       <c r="O17" s="5">
@@ -2090,7 +2093,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>372</v>
       </c>
       <c r="E18" s="1">
@@ -2100,35 +2103,35 @@
         <v>30</v>
       </c>
       <c r="G18" s="1">
-        <f>D18*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
       <c r="H18" s="1">
-        <f>D18*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>55.800000000000011</v>
       </c>
       <c r="I18" s="1">
-        <f>E18*(G18+H18)/2</f>
+        <f t="shared" si="2"/>
         <v>465.00000000000006</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>81375.000000000015</v>
       </c>
       <c r="K18" s="1">
-        <f>D18*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>2.90625</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>26.124905944319043</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.42528916653542626</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.6328066215199402</v>
       </c>
       <c r="O18" s="5">
@@ -2184,7 +2187,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>406</v>
       </c>
       <c r="E19" s="1">
@@ -2194,35 +2197,35 @@
         <v>40</v>
       </c>
       <c r="G19" s="1">
-        <f>D19*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>40.6</v>
       </c>
       <c r="H19" s="1">
-        <f>D19*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>60.900000000000006</v>
       </c>
       <c r="I19" s="1">
-        <f>E19*(G19+H19)/2</f>
+        <f t="shared" si="2"/>
         <v>812</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>142100</v>
       </c>
       <c r="K19" s="1">
-        <f>D19*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>3.171875</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>44.949462498455453</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.73173543602136781</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.8093414061534658</v>
       </c>
       <c r="O19" s="5">
@@ -2272,7 +2275,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>442</v>
       </c>
       <c r="E20" s="1">
@@ -2282,35 +2285,35 @@
         <v>30</v>
       </c>
       <c r="G20" s="1">
-        <f>D20*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>44.2</v>
       </c>
       <c r="H20" s="1">
-        <f>D20*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>66.300000000000011</v>
       </c>
       <c r="I20" s="1">
-        <f>E20*(G20+H20)/2</f>
+        <f t="shared" si="2"/>
         <v>828.75000000000011</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>145031.25000000003</v>
       </c>
       <c r="K20" s="1">
-        <f>D20*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>3.453125</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>45.173378756539734</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.73538058440878629</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.8233361722837333</v>
       </c>
       <c r="O20" s="5">
@@ -2360,7 +2363,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>480</v>
       </c>
       <c r="E21" s="1">
@@ -2370,35 +2373,35 @@
         <v>35</v>
       </c>
       <c r="G21" s="1">
-        <f>D21*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="H21" s="1">
-        <f>D21*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>72.000000000000014</v>
       </c>
       <c r="I21" s="1">
-        <f>E21*(G21+H21)/2</f>
+        <f t="shared" si="2"/>
         <v>900.00000000000011</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>157500.00000000003</v>
       </c>
       <c r="K21" s="1">
-        <f>D21*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>3.75</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>48.275862068965523</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.78588612670408986</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.0172413793103452</v>
       </c>
       <c r="O21" s="5">
@@ -2406,6 +2409,12 @@
       </c>
       <c r="P21" s="5">
         <v>3.9137380191693301</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="AF21" s="1">
         <v>10</v>
@@ -2425,7 +2434,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
       <c r="E22" s="1">
@@ -2435,35 +2444,35 @@
         <v>40</v>
       </c>
       <c r="G22" s="1">
-        <f>D22*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="H22" s="1">
-        <f>D22*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>78.000000000000014</v>
       </c>
       <c r="I22" s="1">
-        <f>E22*(G22+H22)/2</f>
+        <f t="shared" si="2"/>
         <v>1300</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>227500</v>
       </c>
       <c r="K22" s="1">
-        <f>D22*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>4.0625</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>68.582195007065479</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.1164543373243216</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.2863871879415925</v>
       </c>
       <c r="O22" s="5">
@@ -2490,7 +2499,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>562</v>
       </c>
       <c r="E23" s="1">
@@ -2500,35 +2509,35 @@
         <v>35</v>
       </c>
       <c r="G23" s="1">
-        <f>D23*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>56.2</v>
       </c>
       <c r="H23" s="1">
-        <f>D23*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>84.300000000000011</v>
       </c>
       <c r="I23" s="1">
-        <f>E23*(G23+H23)/2</f>
+        <f t="shared" si="2"/>
         <v>1264.5</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>221287.5</v>
       </c>
       <c r="K23" s="1">
-        <f>D23*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>4.390625</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>65.574256279661995</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.06748789292473</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.0983910174788747</v>
       </c>
       <c r="O23" s="5">
@@ -2555,7 +2564,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>606</v>
       </c>
       <c r="E24" s="1">
@@ -2565,35 +2574,35 @@
         <v>30</v>
       </c>
       <c r="G24" s="1">
-        <f>D24*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>60.6</v>
       </c>
       <c r="H24" s="1">
-        <f>D24*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>90.90000000000002</v>
       </c>
       <c r="I24" s="1">
-        <f>E24*(G24+H24)/2</f>
+        <f t="shared" si="2"/>
         <v>1515.0000000000002</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>265125.00000000006</v>
       </c>
       <c r="K24" s="1">
-        <f>D24*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>4.734375</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>77.188672807915395</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.256559789896297</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.8242920504947122</v>
       </c>
       <c r="O24" s="5">
@@ -2623,7 +2632,7 @@
         <v>46</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>652</v>
       </c>
       <c r="E25" s="1">
@@ -2633,35 +2642,35 @@
         <v>30</v>
       </c>
       <c r="G25" s="1">
-        <f>D25*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>65.2</v>
       </c>
       <c r="H25" s="1">
-        <f>D25*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>97.800000000000011</v>
       </c>
       <c r="I25" s="1">
-        <f>E25*(G25+H25)/2</f>
+        <f t="shared" si="2"/>
         <v>1630</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>285250</v>
       </c>
       <c r="K25" s="1">
-        <f>D25*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>5.09375</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>81.554612463703378</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.3276332261533108</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.0971632789814612</v>
       </c>
       <c r="O25" s="5">
@@ -2688,7 +2697,7 @@
         <v>48</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>700</v>
       </c>
       <c r="E26" s="1">
@@ -2698,35 +2707,35 @@
         <v>30</v>
       </c>
       <c r="G26" s="1">
-        <f>D26*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H26" s="1">
-        <f>D26*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>105.00000000000001</v>
       </c>
       <c r="I26" s="1">
-        <f>E26*(G26+H26)/2</f>
+        <f t="shared" si="2"/>
         <v>1750</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>306250</v>
       </c>
       <c r="K26" s="1">
-        <f>D26*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>5.46875</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>85.946064459548353</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.3991219795740428</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.3716290287217721</v>
       </c>
       <c r="O26" s="5">
@@ -2753,7 +2762,7 @@
         <v>50</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>750</v>
       </c>
       <c r="E27" s="1">
@@ -2763,35 +2772,35 @@
         <v>35</v>
       </c>
       <c r="G27" s="1">
-        <f>D27*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="H27" s="1">
-        <f>D27*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>112.50000000000001</v>
       </c>
       <c r="I27" s="1">
-        <f>E27*(G27+H27)/2</f>
+        <f t="shared" si="2"/>
         <v>2343.75</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>410156.25</v>
       </c>
       <c r="K27" s="1">
-        <f>D27*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>5.859375</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>112.93965795417877</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.8385525713470963</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.0587286221361731</v>
       </c>
       <c r="O27" s="5">
@@ -2818,7 +2827,7 @@
         <v>52</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>802</v>
       </c>
       <c r="E28" s="1">
@@ -2828,35 +2837,35 @@
         <v>40</v>
       </c>
       <c r="G28" s="1">
-        <f>D28*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>80.2</v>
       </c>
       <c r="H28" s="1">
-        <f>D28*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>120.30000000000001</v>
       </c>
       <c r="I28" s="1">
-        <f>E28*(G28+H28)/2</f>
+        <f t="shared" si="2"/>
         <v>2005</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>350875</v>
       </c>
       <c r="K28" s="1">
-        <f>D28*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>6.265625</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>94.761050743749337</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.5426217562935938</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.9225656714843335</v>
       </c>
       <c r="O28" s="5">
@@ -2883,7 +2892,7 @@
         <v>54</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>856</v>
       </c>
       <c r="E29" s="1">
@@ -2893,35 +2902,35 @@
         <v>45</v>
       </c>
       <c r="G29" s="1">
-        <f>D29*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>85.600000000000009</v>
       </c>
       <c r="H29" s="1">
-        <f>D29*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>128.4</v>
       </c>
       <c r="I29" s="1">
-        <f>E29*(G29+H29)/2</f>
+        <f t="shared" si="2"/>
         <v>3210</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>561750</v>
       </c>
       <c r="K29" s="1">
-        <f>D29*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>6.6875</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>148.74637980968143</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4214526945762094</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.2966487381050893</v>
       </c>
       <c r="O29" s="5">
@@ -2948,7 +2957,7 @@
         <v>56</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>912</v>
       </c>
       <c r="E30" s="1">
@@ -2958,35 +2967,35 @@
         <v>35</v>
       </c>
       <c r="G30" s="1">
-        <f>D30*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>91.2</v>
       </c>
       <c r="H30" s="1">
-        <f>D30*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>136.80000000000001</v>
       </c>
       <c r="I30" s="1">
-        <f>E30*(G30+H30)/2</f>
+        <f t="shared" si="2"/>
         <v>3192</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>558600</v>
       </c>
       <c r="K30" s="1">
-        <f>D30*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>7.125</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>144.97323600973237</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.360029423414248</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.0608272506082734</v>
       </c>
       <c r="O30" s="5">
@@ -3013,7 +3022,7 @@
         <v>58</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>970</v>
       </c>
       <c r="E31" s="1">
@@ -3023,35 +3032,35 @@
         <v>45</v>
       </c>
       <c r="G31" s="1">
-        <f>D31*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="H31" s="1">
-        <f>D31*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>145.50000000000003</v>
       </c>
       <c r="I31" s="1">
-        <f>E31*(G31+H31)/2</f>
+        <f t="shared" si="2"/>
         <v>3880.0000000000005</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>679000.00000000012</v>
       </c>
       <c r="K31" s="1">
-        <f>D31*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>7.578125</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>172.66713022747592</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.81086025951705</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.791695639217245</v>
       </c>
       <c r="O31" s="5">
@@ -3078,7 +3087,7 @@
         <v>60</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1030</v>
       </c>
       <c r="E32" s="1">
@@ -3088,35 +3097,35 @@
         <v>40</v>
       </c>
       <c r="G32" s="1">
-        <f>D32*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="H32" s="1">
-        <f>D32*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>154.50000000000003</v>
       </c>
       <c r="I32" s="1">
-        <f>E32*(G32+H32)/2</f>
+        <f t="shared" si="2"/>
         <v>4506.25</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>788593.75</v>
       </c>
       <c r="K32" s="1">
-        <f>D32*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>8.046875</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>196.43864941130681</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.1978384787887153</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12.277415588206676</v>
       </c>
       <c r="O32" s="5">
@@ -3143,7 +3152,7 @@
         <v>62</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1092</v>
       </c>
       <c r="E33" s="1">
@@ -3153,35 +3162,35 @@
         <v>35</v>
       </c>
       <c r="G33" s="1">
-        <f>D33*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>109.2</v>
       </c>
       <c r="H33" s="1">
-        <f>D33*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>163.80000000000001</v>
       </c>
       <c r="I33" s="1">
-        <f>E33*(G33+H33)/2</f>
+        <f t="shared" si="2"/>
         <v>4095</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>716625</v>
       </c>
       <c r="K33" s="1">
-        <f>D33*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>8.53125</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>174.81989708404802</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.8459053013682234</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.926243567753001</v>
       </c>
       <c r="O33" s="5">
@@ -3208,7 +3217,7 @@
         <v>64</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1156</v>
       </c>
       <c r="E34" s="1">
@@ -3218,35 +3227,35 @@
         <v>45</v>
       </c>
       <c r="G34" s="1">
-        <f>D34*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>115.60000000000001</v>
       </c>
       <c r="H34" s="1">
-        <f>D34*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>173.40000000000003</v>
       </c>
       <c r="I34" s="1">
-        <f>E34*(G34+H34)/2</f>
+        <f t="shared" si="2"/>
         <v>4624.0000000000009</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>809200.00000000012</v>
       </c>
       <c r="K34" s="1">
-        <f>D34*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>9.03125</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>193.27785034521369</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.1463836102709206</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12.079865646575856</v>
       </c>
       <c r="O34" s="5">
@@ -3273,7 +3282,7 @@
         <v>66</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1222</v>
       </c>
       <c r="E35" s="1">
@@ -3283,35 +3292,35 @@
         <v>50</v>
       </c>
       <c r="G35" s="1">
-        <f>D35*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>122.2</v>
       </c>
       <c r="H35" s="1">
-        <f>D35*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>183.30000000000004</v>
       </c>
       <c r="I35" s="1">
-        <f>E35*(G35+H35)/2</f>
+        <f t="shared" si="2"/>
         <v>4582.5000000000009</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>801937.50000000012</v>
       </c>
       <c r="K35" s="1">
-        <f>D35*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>9.546875</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>187.5020549821902</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.0523590345937941</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11.718878436386888</v>
       </c>
       <c r="O35" s="5">
@@ -3338,7 +3347,7 @@
         <v>68</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1290</v>
       </c>
       <c r="E36" s="1">
@@ -3348,35 +3357,35 @@
         <v>50</v>
       </c>
       <c r="G36" s="1">
-        <f>D36*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="H36" s="1">
-        <f>D36*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>193.50000000000003</v>
       </c>
       <c r="I36" s="1">
-        <f>E36*(G36+H36)/2</f>
+        <f t="shared" si="2"/>
         <v>6450</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1128750</v>
       </c>
       <c r="K36" s="1">
-        <f>D36*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>10.078125</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>258.29981228211318</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.2048806650576562</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.143738267632074</v>
       </c>
       <c r="O36" s="5">
@@ -3403,7 +3412,7 @@
         <v>70</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1360</v>
       </c>
       <c r="E37" s="1">
@@ -3413,35 +3422,35 @@
         <v>60</v>
       </c>
       <c r="G37" s="1">
-        <f>D37*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>136</v>
       </c>
       <c r="H37" s="1">
-        <f>D37*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>204.00000000000003</v>
       </c>
       <c r="I37" s="1">
-        <f>E37*(G37+H37)/2</f>
+        <f t="shared" si="2"/>
         <v>6800</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1190000</v>
       </c>
       <c r="K37" s="1">
-        <f>D37*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>10.625</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>266.48005598320503</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.3380474229824078</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.655003498950315</v>
       </c>
       <c r="O37" s="5">
@@ -3468,7 +3477,7 @@
         <v>72</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1432</v>
       </c>
       <c r="E38" s="1">
@@ -3478,35 +3487,35 @@
         <v>55</v>
       </c>
       <c r="G38" s="1">
-        <f>D38*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>143.20000000000002</v>
       </c>
       <c r="H38" s="1">
-        <f>D38*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>214.80000000000004</v>
       </c>
       <c r="I38" s="1">
-        <f>E38*(G38+H38)/2</f>
+        <f t="shared" si="2"/>
         <v>7876.0000000000009</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1378300.0000000002</v>
       </c>
       <c r="K38" s="1">
-        <f>D38*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>11.1875</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>301.98972954467655</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.9161118763086877</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.874358096542284</v>
       </c>
       <c r="O38" s="5">
@@ -3533,7 +3542,7 @@
         <v>74</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1506</v>
       </c>
       <c r="E39" s="1">
@@ -3543,35 +3552,35 @@
         <v>55</v>
       </c>
       <c r="G39" s="1">
-        <f>D39*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>150.6</v>
       </c>
       <c r="H39" s="1">
-        <f>D39*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>225.90000000000003</v>
       </c>
       <c r="I39" s="1">
-        <f>E39*(G39+H39)/2</f>
+        <f t="shared" si="2"/>
         <v>7906.5</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1383637.5</v>
       </c>
       <c r="K39" s="1">
-        <f>D39*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>11.765625</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>296.58477769404675</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.8281242880426216</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.536548605877922</v>
       </c>
       <c r="O39" s="5">
@@ -3598,7 +3607,7 @@
         <v>76</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1582</v>
       </c>
       <c r="E40" s="1">
@@ -3608,35 +3617,35 @@
         <v>50</v>
       </c>
       <c r="G40" s="1">
-        <f>D40*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>158.20000000000002</v>
       </c>
       <c r="H40" s="1">
-        <f>D40*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>237.30000000000004</v>
       </c>
       <c r="I40" s="1">
-        <f>E40*(G40+H40)/2</f>
+        <f t="shared" si="2"/>
         <v>7910.0000000000009</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1384250.0000000002</v>
       </c>
       <c r="K40" s="1">
-        <f>D40*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>12.359375</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>290.25145384552383</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.7250236672527137</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.140715865345239</v>
       </c>
       <c r="O40" s="5">
@@ -3663,7 +3672,7 @@
         <v>78</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1660</v>
       </c>
       <c r="E41" s="1">
@@ -3673,35 +3682,35 @@
         <v>55</v>
       </c>
       <c r="G41" s="1">
-        <f>D41*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>166</v>
       </c>
       <c r="H41" s="1">
-        <f>D41*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>249.00000000000003</v>
       </c>
       <c r="I41" s="1">
-        <f>E41*(G41+H41)/2</f>
+        <f t="shared" si="2"/>
         <v>8300</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1452500</v>
       </c>
       <c r="K41" s="1">
-        <f>D41*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>12.96875</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>297.90097740746677</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.849550795005273</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.618811087966673</v>
       </c>
       <c r="O41" s="5">
@@ -3728,7 +3737,7 @@
         <v>80</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1740</v>
       </c>
       <c r="E42" s="1">
@@ -3738,35 +3747,35 @@
         <v>65</v>
       </c>
       <c r="G42" s="1">
-        <f>D42*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="H42" s="1">
-        <f>D42*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>261.00000000000006</v>
       </c>
       <c r="I42" s="1">
-        <f>E42*(G42+H42)/2</f>
+        <f t="shared" si="2"/>
         <v>9570.0000000000018</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1674750.0000000002</v>
       </c>
       <c r="K42" s="1">
-        <f>D42*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>13.59375</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>335.94734367653979</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.4689102458971588</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.996708979783737</v>
       </c>
       <c r="O42" s="5">
@@ -3793,7 +3802,7 @@
         <v>82</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1822</v>
       </c>
       <c r="E43" s="1">
@@ -3803,35 +3812,35 @@
         <v>60</v>
       </c>
       <c r="G43" s="1">
-        <f>D43*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>182.20000000000002</v>
       </c>
       <c r="H43" s="1">
-        <f>D43*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>273.30000000000007</v>
       </c>
       <c r="I43" s="1">
-        <f>E43*(G43+H43)/2</f>
+        <f t="shared" si="2"/>
         <v>10021.000000000002</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1753675.0000000002</v>
       </c>
       <c r="K43" s="1">
-        <f>D43*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>14.234375</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>344.04230209211443</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.6006886387088395</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21.502643880757152</v>
       </c>
       <c r="O43" s="5">
@@ -3858,7 +3867,7 @@
         <v>84</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1906</v>
       </c>
       <c r="E44" s="1">
@@ -3868,35 +3877,35 @@
         <v>70</v>
       </c>
       <c r="G44" s="1">
-        <f>D44*$AA$12</f>
+        <f t="shared" si="0"/>
         <v>190.60000000000002</v>
       </c>
       <c r="H44" s="1">
-        <f>D44*($AA$12+$AA$13)</f>
+        <f t="shared" si="1"/>
         <v>285.90000000000003</v>
       </c>
       <c r="I44" s="1">
-        <f>E44*(G44+H44)/2</f>
+        <f t="shared" si="2"/>
         <v>11912.500000000002</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2084687.5000000002</v>
       </c>
       <c r="K44" s="1">
-        <f>D44*$V$12*(2*$AA$12+$AA$13)/2</f>
+        <f t="shared" si="4"/>
         <v>14.890625</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>399.97002173424272</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.5111398886969747</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.99812635839017</v>
       </c>
       <c r="O44" s="5">

--- a/Documents/progress.xlsx
+++ b/Documents/progress.xlsx
@@ -677,7 +677,7 @@
   <dimension ref="A1:AG101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21"/>
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
     <col min="10" max="10" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="5" bestFit="1" customWidth="1"/>

--- a/Documents/progress.xlsx
+++ b/Documents/progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>زمان هر مسابقه</t>
   </si>
@@ -32,12 +32,6 @@
     <t>زمان انتظار</t>
   </si>
   <si>
-    <t>زمان طلایی</t>
-  </si>
-  <si>
-    <t>تعداد کل مسابقات در زمان طلایی</t>
-  </si>
-  <si>
     <t>زمان پرت در منوها</t>
   </si>
   <si>
@@ -68,12 +62,6 @@
     <t>احتمال جایگاه در هر مسابقه</t>
   </si>
   <si>
-    <t>الماس دریافتی در زمان طلایی</t>
-  </si>
-  <si>
-    <t>سکه دریافتی در زمان طلایی</t>
-  </si>
-  <si>
     <t>جمع</t>
   </si>
   <si>
@@ -266,9 +254,6 @@
     <t>تعداد روز برای باز کردن</t>
   </si>
   <si>
-    <t>کارت دریافتی در زمان طلایی</t>
-  </si>
-  <si>
     <t>الماس دریافتی میانگین در هر مسابقه</t>
   </si>
   <si>
@@ -299,14 +284,38 @@
     <t>تعداد کارت nfs</t>
   </si>
   <si>
-    <t>مدت زمان لیگ (روز)</t>
+    <t>Toyota Supra 1994</t>
+  </si>
+  <si>
+    <t>هزینه پر کردن سوخت (الماس)</t>
+  </si>
+  <si>
+    <t>تعداد بسته رایگان ویژه در هر روز</t>
+  </si>
+  <si>
+    <t>تعداد بسته رایگان معمولی در هر روز</t>
+  </si>
+  <si>
+    <t>سکه دریافتی اولیه</t>
+  </si>
+  <si>
+    <t>الماس دریافتی اولیه</t>
+  </si>
+  <si>
+    <t>احتمال دریافت سکه</t>
+  </si>
+  <si>
+    <t>احتمال دریافت کارت گروه یک یا دو</t>
+  </si>
+  <si>
+    <t>دریافت کارت گروه سه یا چهار</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,16 +330,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,13 +343,8 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -356,28 +352,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -388,13 +368,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -674,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG101"/>
+  <dimension ref="A1:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,113 +662,99 @@
     <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3">
         <v>100</v>
@@ -801,89 +762,79 @@
       <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
+        <f>D2*$X$12</f>
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G45" si="0">D2*($X$12+$X$13)</f>
+        <v>20</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H45" si="1">E2*(F2+G2)/2</f>
+        <v>52.5</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I45" si="2">H2*$X$15</f>
+        <v>9187.5</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J45" si="3">D2*$S$12*(2*$X$12+$X$13)/2</f>
+        <v>1.09375</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" ref="K2:K45" si="4">H2/($U$6+J2)</f>
+        <v>3.2839988829935773</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L45" si="5">K2/$U$10</f>
+        <v>0.11728567439262776</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:M45" si="6">K2*$S$12</f>
+        <v>0.20524993018709858</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
-        <f t="shared" ref="G2:G44" si="0">D2*$AA$12</f>
-        <v>10</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H44" si="1">D2*($AA$12+$AA$13)</f>
-        <v>15.000000000000002</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I44" si="2">E2*(G2+H2)/2</f>
-        <v>37.5</v>
-      </c>
-      <c r="J2" s="1">
-        <f t="shared" ref="J2:J44" si="3">I2*$AA$15</f>
-        <v>6562.5</v>
-      </c>
-      <c r="K2" s="1">
-        <f t="shared" ref="K2:K44" si="4">D2*$V$12*(2*$AA$12+$AA$13)/2</f>
-        <v>0.78125</v>
-      </c>
-      <c r="L2" s="2">
-        <f t="shared" ref="L2:L44" si="5">I2/($X$6+K2)</f>
-        <v>2.3924807747080603</v>
-      </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:M44" si="6">L2/$X$10</f>
-        <v>3.8947361448735861E-2</v>
-      </c>
-      <c r="N2" s="1">
-        <f t="shared" ref="N2:N44" si="7">L2*$V$12</f>
-        <v>0.14953004841925377</v>
-      </c>
-      <c r="O2" s="5">
-        <v>2.1014880807490713E-2</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0.12779319409960568</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1">
-        <v>2</v>
-      </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
+        <f>SUM(X2:X4)</f>
+        <v>115</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
         <v>3</v>
       </c>
-      <c r="U2" s="1">
-        <v>5</v>
-      </c>
-      <c r="V2" s="1"/>
-      <c r="X2" s="1">
-        <f>SUM(AA2:AA4)</f>
-        <v>137</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>75</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1">
+      <c r="AE2" s="1">
         <v>3</v>
       </c>
-      <c r="AG2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -895,176 +846,150 @@
       <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
-        <v>5</v>
+      <c r="F3" s="1">
+        <f t="shared" ref="F2:F45" si="7">D3*$X$12</f>
+        <v>15.299999999999999</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>10.200000000000001</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="1"/>
-        <v>15.300000000000002</v>
+        <v>53.550000000000004</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="2"/>
-        <v>38.250000000000007</v>
+        <v>9371.25</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="3"/>
-        <v>6693.7500000000009</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" si="4"/>
-        <v>0.796875</v>
-      </c>
-      <c r="L3" s="2">
-        <f t="shared" si="5"/>
-        <v>2.4379001280409738</v>
+        <v>1.1156249999999999</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3451016481218105</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="5"/>
+        <v>0.11946791600435037</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="6"/>
-        <v>3.9686746270434455E-2</v>
-      </c>
-      <c r="N3" s="1">
-        <f t="shared" si="7"/>
-        <v>0.15236875800256086</v>
-      </c>
-      <c r="O3" s="5">
-        <v>2.1424226942072359E-2</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0.13028246113422379</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>10</v>
+        <v>0.20906885300761316</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2000</v>
       </c>
       <c r="R3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1500</v>
-      </c>
-      <c r="T3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="U3" s="1">
         <v>4000</v>
       </c>
       <c r="V3" s="1"/>
       <c r="X3" s="1">
-        <f>AA18/X2</f>
-        <v>6.5693430656934311</v>
+        <v>35</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1">
         <v>3</v>
       </c>
-      <c r="AA3" s="1">
-        <v>45</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="1">
+      <c r="AE3" s="1">
         <v>3</v>
       </c>
-      <c r="AG3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D44" si="8">D3+C4</f>
+        <f t="shared" ref="D4:D45" si="8">D3+C4</f>
         <v>106</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
-        <v>10</v>
+      <c r="F4" s="1">
+        <f t="shared" si="7"/>
+        <v>15.899999999999999</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>10.600000000000001</v>
+        <v>21.200000000000003</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="1"/>
-        <v>15.900000000000002</v>
+        <v>55.650000000000006</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="2"/>
-        <v>39.750000000000007</v>
+        <v>9738.7500000000018</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="3"/>
-        <v>6956.2500000000009</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="4"/>
-        <v>0.828125</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" si="5"/>
-        <v>2.5284679823938667</v>
+        <v>1.1593749999999998</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="4"/>
+        <v>3.4668075757154382</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.12381455627555137</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="6"/>
-        <v>4.1161106690132711E-2</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="7"/>
-        <v>0.15802924889961667</v>
-      </c>
-      <c r="O4" s="5">
-        <v>4.4483331307975875E-2</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0.2705067444403938</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>11</v>
+        <v>0.21667547348221489</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>1</v>
       </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="AA4" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF4" s="1">
+      <c r="X4" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="1">
         <v>3</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AE4" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
@@ -1076,84 +1001,73 @@
       <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
+        <f t="shared" si="7"/>
+        <v>16.8</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>22.400000000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>58.800000000000004</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>10290</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2249999999999999</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="4"/>
+        <v>3.6481276312873918</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.13029027254597828</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.22800797695546199</v>
+      </c>
+      <c r="N5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>11.200000000000001</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>16.800000000000004</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="2"/>
-        <v>42.000000000000014</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="3"/>
-        <v>7350.0000000000027</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="4"/>
-        <v>0.875</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="5"/>
-        <v>2.6636466591166488</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="6"/>
-        <v>4.3361689799573354E-2</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="7"/>
-        <v>0.16647791619479055</v>
-      </c>
-      <c r="O5" s="5">
-        <v>4.692939882223518E-2</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0.28538147932440311</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>12</v>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="U5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="V5" s="1"/>
-      <c r="X5" s="1">
-        <f>V11/AA15</f>
+        <f>S11/X15</f>
         <v>12.142857142857142</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA5" s="1"/>
-      <c r="AF5" s="1">
+      <c r="V5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD5" s="1">
         <v>3</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AE5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1165,76 +1079,64 @@
       <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
-        <v>10</v>
+      <c r="F6" s="1">
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>18.000000000000004</v>
+        <v>63</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>45.000000000000007</v>
+        <v>11025</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="3"/>
-        <v>7875.0000000000009</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="4"/>
-        <v>0.9375</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="5"/>
-        <v>2.84263959390863</v>
+        <v>1.3125</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="4"/>
+        <v>3.8876033057851243</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.13884297520661157</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="6"/>
-        <v>4.6275528272931181E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="7"/>
-        <v>0.17766497461928937</v>
-      </c>
-      <c r="O6" s="5">
-        <v>5.0179211469534066E-2</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0.30514385353095036</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+        <v>0.24297520661157027</v>
+      </c>
+      <c r="U6" s="1">
+        <f>S10+U5</f>
+        <v>14.892857142857142</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="X6" s="1">
-        <f>V10+X5</f>
-        <v>14.892857142857142</v>
+        <v>600</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>420</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF6" s="1">
+        <v>69</v>
+      </c>
+      <c r="AD6" s="1">
         <v>3</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AE6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -1246,82 +1148,72 @@
       <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="4">
-        <v>10</v>
+      <c r="F7" s="1">
+        <f t="shared" si="7"/>
+        <v>19.5</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>19.500000000000004</v>
+        <v>68.25</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="2"/>
-        <v>48.75</v>
+        <v>11943.75</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>8531.25</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="4"/>
-        <v>1.015625</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="5"/>
-        <v>3.0644029746036203</v>
+        <v>1.421875</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="4"/>
+        <v>4.183335613627035</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.14940484334382267</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="6"/>
-        <v>4.9885629819128703E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="7"/>
-        <v>0.19152518591272627</v>
-      </c>
-      <c r="O7" s="5">
-        <v>5.4222930808190614E-2</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0.32973403869845641</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>13</v>
+        <v>0.26145847585168969</v>
+      </c>
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.25</v>
       </c>
       <c r="R7" s="1">
         <v>0.25</v>
       </c>
-      <c r="S7" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="V7" s="1"/>
-      <c r="AA7" s="1">
+      <c r="X7" s="1">
         <v>10</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF7" s="1">
+      <c r="Y7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD7" s="1">
         <v>3</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AE7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1">
         <v>12</v>
@@ -1333,64 +1225,51 @@
       <c r="E8" s="1">
         <v>4</v>
       </c>
-      <c r="F8" s="4">
-        <v>15</v>
+      <c r="F8" s="1">
+        <f t="shared" si="7"/>
+        <v>21.3</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>14.200000000000001</v>
+        <v>28.400000000000002</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>21.300000000000004</v>
+        <v>99.4</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="2"/>
-        <v>71.000000000000014</v>
+        <v>17395</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>12425.000000000002</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>1.109375</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="5"/>
-        <v>4.4368810154833325</v>
+        <v>1.5531249999999999</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="4"/>
+        <v>6.0440294253372784</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.21585819376204565</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="6"/>
-        <v>7.222829560089146E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="7"/>
-        <v>0.27730506346770828</v>
-      </c>
-      <c r="O8" s="5">
-        <v>8.8572598319003965E-2</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0.53861715193988891</v>
-      </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AF8" s="1">
+        <v>0.3777518390835799</v>
+      </c>
+      <c r="AD8" s="1">
         <v>3</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AE8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>14</v>
@@ -1402,73 +1281,64 @@
       <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="4">
-        <v>15</v>
+      <c r="F9" s="1">
+        <f t="shared" si="7"/>
+        <v>23.4</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>15.600000000000001</v>
+        <v>31.200000000000003</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>23.400000000000002</v>
+        <v>109.2</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>19110</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>13650</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="4"/>
-        <v>1.21875</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="5"/>
-        <v>4.8412302576891104</v>
+        <v>1.7062499999999998</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="4"/>
+        <v>6.5786670969824108</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.23495239632080039</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="6"/>
-        <v>7.8810725125171566E-2</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="7"/>
-        <v>0.3025768911055694</v>
-      </c>
-      <c r="O9" s="5">
-        <v>9.6961843052555813E-2</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0.58963282937365014</v>
+        <v>0.41116669356140068</v>
+      </c>
+      <c r="U9" s="1">
+        <f>X9*3600</f>
+        <v>10800</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="X9" s="1">
-        <f>AA9*3600</f>
-        <v>21600</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF9" s="1">
+        <v>67</v>
+      </c>
+      <c r="AD9" s="1">
         <v>3</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AE9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>16</v>
@@ -1480,90 +1350,81 @@
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="4">
-        <v>15</v>
+      <c r="F10" s="1">
+        <f t="shared" si="7"/>
+        <v>25.8</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>17.2</v>
+        <v>34.4</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>25.800000000000004</v>
+        <v>120.4</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>21070</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>15050</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="4"/>
-        <v>1.34375</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="5"/>
-        <v>5.2966730822106136</v>
+        <v>1.8812499999999999</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="4"/>
+        <v>7.1777292808857185</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.25634747431734711</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="6"/>
-        <v>8.6224910640637892E-2</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="7"/>
-        <v>0.33104206763816335</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0.10647736507481238</v>
-      </c>
-      <c r="P10" s="5">
-        <v>0.64749749031980497</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>81</v>
+        <v>0.44860808005535741</v>
+      </c>
+      <c r="N10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="1">
+        <f>O2*O7</f>
+        <v>0.25</v>
+      </c>
+      <c r="P10" s="1">
+        <f>P2*P7</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>Q2*Q7</f>
+        <v>0.75</v>
       </c>
       <c r="R10" s="1">
         <f>R2*R7</f>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S10" s="1">
-        <f>S2*S7</f>
-        <v>0.5</v>
-      </c>
-      <c r="T10" s="1">
-        <f>T2*T7</f>
-        <v>0.75</v>
-      </c>
-      <c r="U10" s="1">
-        <f>U2*U7</f>
-        <v>1.25</v>
-      </c>
-      <c r="V10" s="1">
-        <f>SUM(R10:U10)</f>
+        <f>SUM(O10:R10)</f>
         <v>2.75</v>
       </c>
-      <c r="X10" s="2">
-        <f>X9/AA6+AA7</f>
-        <v>61.428571428571431</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF10" s="1">
+      <c r="U10" s="2">
+        <f>U9/X6+X7</f>
+        <v>28</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD10" s="1">
         <v>4</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AE10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>18</v>
@@ -1575,83 +1436,74 @@
       <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="F11" s="4">
-        <v>20</v>
+      <c r="F11" s="1">
+        <f t="shared" si="7"/>
+        <v>28.5</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>28.500000000000004</v>
+        <v>266</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>46550</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>33250</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="4"/>
-        <v>1.484375</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="5"/>
-        <v>11.601471991277089</v>
+        <v>2.078125</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="4"/>
+        <v>15.673812968565041</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5597790345916086</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="6"/>
-        <v>0.18886117195102237</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" si="7"/>
-        <v>0.72509199945481806</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0.15612185817054117</v>
-      </c>
-      <c r="P11" s="5">
-        <v>0.94938967806410168</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>83</v>
+        <v>0.97961331053531508</v>
+      </c>
+      <c r="N11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="1">
+        <f>O3*O7</f>
+        <v>250</v>
+      </c>
+      <c r="P11" s="1">
+        <f>P3*P7</f>
+        <v>375</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>Q3*Q7</f>
+        <v>500</v>
       </c>
       <c r="R11" s="1">
         <f>R3*R7</f>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="S11" s="1">
-        <f>S3*S7</f>
-        <v>375</v>
-      </c>
-      <c r="T11" s="1">
-        <f>T3*T7</f>
-        <v>500</v>
-      </c>
-      <c r="U11" s="1">
-        <f>U3*U7</f>
-        <v>1000</v>
-      </c>
-      <c r="V11" s="1">
-        <f>SUM(R11:U11)</f>
+        <f>SUM(O11:R11)</f>
         <v>2125</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AD11" s="1">
         <v>4</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AE11" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
         <v>20</v>
@@ -1663,89 +1515,80 @@
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="4">
-        <v>20</v>
+      <c r="F12" s="1">
+        <f t="shared" si="7"/>
+        <v>31.5</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
-        <v>31.500000000000004</v>
+        <v>183.75</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="2"/>
-        <v>131.25</v>
+        <v>32156.25</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>22968.75</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="4"/>
-        <v>1.640625</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="5"/>
-        <v>7.9384366140137708</v>
+        <v>2.296875</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="4"/>
+        <v>10.689520841449163</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.38176860148032726</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="6"/>
-        <v>0.12923036348394509</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" si="7"/>
-        <v>0.49615228837586067</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0.17169780050666478</v>
-      </c>
-      <c r="P12" s="5">
-        <v>1.0441082463243128</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>82</v>
-      </c>
-      <c r="R12" s="1">
-        <f>R5*R7</f>
+        <v>0.66809505259057267</v>
+      </c>
+      <c r="N12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="1">
+        <f>O5*O7</f>
         <v>0</v>
       </c>
-      <c r="S12" s="1">
-        <f t="shared" ref="S12:U12" si="9">S5*S7</f>
+      <c r="P12" s="1">
+        <f t="shared" ref="P12:R12" si="9">P5*P7</f>
         <v>0</v>
       </c>
-      <c r="T12" s="1">
+      <c r="Q12" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U12" s="1">
+      <c r="R12" s="1">
         <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="V12" s="1">
-        <f>SUM(R12:U12)</f>
+      <c r="S12" s="1">
+        <f>SUM(O12:R12)</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AA12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF12" s="1">
+      <c r="X12" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD12" s="1">
         <v>4</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AE12" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
         <v>22</v>
@@ -1757,69 +1600,57 @@
       <c r="E13" s="1">
         <v>6</v>
       </c>
-      <c r="F13" s="4">
-        <v>15</v>
+      <c r="F13" s="1">
+        <f t="shared" si="7"/>
+        <v>34.799999999999997</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>23.200000000000003</v>
+        <v>46.400000000000006</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>34.800000000000004</v>
+        <v>243.60000000000002</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="2"/>
-        <v>174.00000000000003</v>
+        <v>42630.000000000007</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>30450.000000000004</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8125</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="5"/>
-        <v>10.415820416889366</v>
+        <v>2.5374999999999996</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="4"/>
+        <v>13.975617252330707</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.49912918758323954</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="6"/>
-        <v>0.16955986725168734</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" si="7"/>
-        <v>0.65098877605558536</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0.14149006310633894</v>
-      </c>
-      <c r="P13" s="5">
-        <v>0.86041254591692584</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="AA13" s="1">
+        <v>0.8734760782706692</v>
+      </c>
+      <c r="X13" s="1">
         <v>0.05</v>
       </c>
-      <c r="AB13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF13" s="1">
+      <c r="Y13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD13" s="1">
         <v>5</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AE13" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1">
         <v>24</v>
@@ -1831,61 +1662,51 @@
       <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F14" s="4">
-        <v>25</v>
+      <c r="F14" s="1">
+        <f t="shared" si="7"/>
+        <v>38.4</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>25.6</v>
+        <v>51.2</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>358.4</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="2"/>
-        <v>256</v>
+        <v>62719.999999999993</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="3"/>
-        <v>44800</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="5"/>
-        <v>15.154334038054969</v>
+        <v>2.8</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="4"/>
+        <v>20.256762212353653</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72345579329834475</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="6"/>
-        <v>0.24669846108461577</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="7"/>
-        <v>0.94714587737843559</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0.2586766541822722</v>
-      </c>
-      <c r="P14" s="5">
-        <v>1.5730337078651686</v>
-      </c>
-      <c r="AA14" s="1"/>
-      <c r="AF14" s="1">
+        <v>1.2660476382721033</v>
+      </c>
+      <c r="AD14" s="1">
         <v>5</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AE14" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1">
         <v>26</v>
@@ -1897,66 +1718,57 @@
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="4">
-        <v>20</v>
+      <c r="F15" s="1">
+        <f t="shared" si="7"/>
+        <v>42.3</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>28.200000000000003</v>
+        <v>56.400000000000006</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>42.300000000000004</v>
+        <v>493.5</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="2"/>
-        <v>352.5</v>
+        <v>86362.5</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="3"/>
-        <v>61687.5</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="4"/>
-        <v>2.203125</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="5"/>
-        <v>20.618879749314534</v>
+        <v>3.0843749999999996</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="4"/>
+        <v>27.45138940624302</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.98040676450867925</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="6"/>
-        <v>0.33565618196558544</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="7"/>
-        <v>1.2886799843321584</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0.22651129253599425</v>
-      </c>
-      <c r="P15" s="5">
-        <v>1.3774335356918568</v>
-      </c>
-      <c r="AA15" s="1">
+        <v>1.7157118378901888</v>
+      </c>
+      <c r="X15" s="1">
         <v>175</v>
       </c>
-      <c r="AB15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF15" s="1">
+      <c r="Y15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD15" s="1">
         <v>5</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AE15" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
         <v>28</v>
@@ -1968,61 +1780,51 @@
       <c r="E16" s="1">
         <v>10</v>
       </c>
-      <c r="F16" s="4">
-        <v>25</v>
+      <c r="F16" s="1">
+        <f t="shared" si="7"/>
+        <v>46.5</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
-        <v>46.500000000000007</v>
+        <v>542.5</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="2"/>
-        <v>387.5</v>
+        <v>94937.5</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="3"/>
-        <v>67812.5</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="4"/>
-        <v>2.421875</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="5"/>
-        <v>22.379785999742168</v>
+        <v>3.390625</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="4"/>
+        <v>29.67159077035771</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0596996703699182</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="6"/>
-        <v>0.36432209767022133</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="7"/>
-        <v>1.3987366249838855</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0.30913823241773897</v>
-      </c>
-      <c r="P16" s="5">
-        <v>1.8798946565943586</v>
-      </c>
-      <c r="AA16" s="1"/>
-      <c r="AF16" s="1">
+        <v>1.8544744231473569</v>
+      </c>
+      <c r="AD16" s="1">
         <v>6</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AE16" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1">
         <v>30</v>
@@ -2034,60 +1836,51 @@
       <c r="E17" s="1">
         <v>12</v>
       </c>
-      <c r="F17" s="4">
-        <v>30</v>
+      <c r="F17" s="1">
+        <f t="shared" si="7"/>
+        <v>51</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>51.000000000000007</v>
+        <v>714</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="2"/>
-        <v>510</v>
+        <v>124950</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="3"/>
-        <v>89250</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="4"/>
-        <v>2.65625</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="5"/>
-        <v>29.061307555329435</v>
+        <v>3.7187499999999996</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="4"/>
+        <v>38.363156632285921</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3701127368673542</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="6"/>
-        <v>0.47309105322629313</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="7"/>
-        <v>1.8163317222080897</v>
-      </c>
-      <c r="O17" s="5">
-        <v>0.40392642539333062</v>
-      </c>
-      <c r="P17" s="5">
-        <v>2.4563093436080914</v>
-      </c>
-      <c r="AF17" s="1">
+        <v>2.3976972895178701</v>
+      </c>
+      <c r="AD17" s="1">
         <v>8</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AE17" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
         <v>32</v>
@@ -2099,89 +1892,51 @@
       <c r="E18" s="1">
         <v>10</v>
       </c>
-      <c r="F18" s="4">
-        <v>30</v>
+      <c r="F18" s="1">
+        <f t="shared" si="7"/>
+        <v>55.8</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>37.200000000000003</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="1"/>
-        <v>55.800000000000011</v>
+        <v>651</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="2"/>
-        <v>465.00000000000006</v>
+        <v>113925</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="3"/>
-        <v>81375.000000000015</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="4"/>
-        <v>2.90625</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="5"/>
-        <v>26.124905944319043</v>
+        <v>4.0687499999999996</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="4"/>
+        <v>34.332532843621983</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2261618872722138</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="6"/>
-        <v>0.42528916653542626</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="7"/>
-        <v>1.6328066215199402</v>
-      </c>
-      <c r="O18" s="5">
-        <v>0.43856343028813338</v>
-      </c>
-      <c r="P18" s="5">
-        <v>2.6669397787791893</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" s="1">
-        <f>R10*$X3</f>
-        <v>1.6423357664233578</v>
-      </c>
-      <c r="S18" s="1">
-        <f>S10*$X3</f>
-        <v>3.2846715328467155</v>
-      </c>
-      <c r="T18" s="1">
-        <f>T10*$X3</f>
-        <v>4.9270072992700733</v>
-      </c>
-      <c r="U18" s="1">
-        <f>U10*$X3</f>
-        <v>8.2116788321167888</v>
-      </c>
-      <c r="V18" s="1">
-        <f>SUM(R18:U18)</f>
-        <v>18.065693430656935</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>900</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF18" s="1">
+        <v>2.145783302726374</v>
+      </c>
+      <c r="AD18" s="1">
         <v>10</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AE18" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1">
         <v>34</v>
@@ -2193,83 +1948,51 @@
       <c r="E19" s="1">
         <v>16</v>
       </c>
-      <c r="F19" s="4">
-        <v>40</v>
+      <c r="F19" s="1">
+        <f t="shared" si="7"/>
+        <v>60.9</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>40.6</v>
+        <v>81.2</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
-        <v>60.900000000000006</v>
+        <v>1136.8</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="2"/>
-        <v>812</v>
+        <v>198940</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="3"/>
-        <v>142100</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="4"/>
-        <v>3.171875</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" si="5"/>
-        <v>44.949462498455453</v>
+        <v>4.4406249999999998</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="4"/>
+        <v>58.799547417276649</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="5"/>
+        <v>2.099983836331309</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="6"/>
-        <v>0.73173543602136781</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="7"/>
-        <v>2.8093414061534658</v>
-      </c>
-      <c r="O19" s="5">
-        <v>0.63305263950031987</v>
-      </c>
-      <c r="P19" s="5">
-        <v>3.849644429393837</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>15</v>
-      </c>
-      <c r="R19" s="1">
-        <f>R11*$X3</f>
-        <v>1642.3357664233577</v>
-      </c>
-      <c r="S19" s="1">
-        <f>S11*$X3</f>
-        <v>2463.5036496350367</v>
-      </c>
-      <c r="T19" s="1">
-        <f>T11*$X3</f>
-        <v>3284.6715328467153</v>
-      </c>
-      <c r="U19" s="1">
-        <f>U11*$X3</f>
-        <v>6569.3430656934306</v>
-      </c>
-      <c r="V19" s="1">
-        <f>SUM(R19:U19)</f>
-        <v>13959.854014598539</v>
-      </c>
-      <c r="AF19" s="1">
+        <v>3.6749717135797906</v>
+      </c>
+      <c r="AD19" s="1">
         <v>10</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AE19" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1">
         <v>36</v>
@@ -2281,83 +2004,51 @@
       <c r="E20" s="1">
         <v>15</v>
       </c>
-      <c r="F20" s="4">
-        <v>30</v>
+      <c r="F20" s="1">
+        <f t="shared" si="7"/>
+        <v>66.3</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>44.2</v>
+        <v>88.4</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="1"/>
-        <v>66.300000000000011</v>
+        <v>1160.25</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>828.75000000000011</v>
+        <v>203043.75</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="3"/>
-        <v>145031.25000000003</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="4"/>
-        <v>3.453125</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="5"/>
-        <v>45.173378756539734</v>
+        <v>4.8343749999999996</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="4"/>
+        <v>58.814637126886787</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1005227545316711</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="6"/>
-        <v>0.73538058440878629</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="7"/>
-        <v>2.8233361722837333</v>
-      </c>
-      <c r="O20" s="5">
-        <v>0.51251538960893617</v>
-      </c>
-      <c r="P20" s="5">
-        <v>3.116647639513801</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>80</v>
-      </c>
-      <c r="R20" s="1">
-        <f>R5*R7*$X3</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
-        <f>S5*S7*$X3</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <f>T5*T7*$X3</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
-        <f>U12*$X3</f>
-        <v>0.41058394160583944</v>
-      </c>
-      <c r="V20" s="1">
-        <f>SUM(R20:U20)</f>
-        <v>0.41058394160583944</v>
-      </c>
-      <c r="AF20" s="1">
+        <v>3.6759148204304242</v>
+      </c>
+      <c r="AD20" s="1">
         <v>10</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AE20" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1">
         <v>38</v>
@@ -2369,66 +2060,51 @@
       <c r="E21" s="1">
         <v>15</v>
       </c>
-      <c r="F21" s="4">
-        <v>35</v>
+      <c r="F21" s="1">
+        <f t="shared" si="7"/>
+        <v>72</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>72.000000000000014</v>
+        <v>1260</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="2"/>
-        <v>900.00000000000011</v>
+        <v>220500</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="3"/>
-        <v>157500.00000000003</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="4"/>
-        <v>3.75</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="5"/>
-        <v>48.275862068965523</v>
+        <v>5.25</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="4"/>
+        <v>62.553191489361701</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2340425531914891</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="6"/>
-        <v>0.78588612670408986</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="7"/>
-        <v>3.0172413793103452</v>
-      </c>
-      <c r="O21" s="5">
-        <v>0.64359247426340094</v>
-      </c>
-      <c r="P21" s="5">
-        <v>3.9137380191693301</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF21" s="1">
+        <v>3.9095744680851063</v>
+      </c>
+      <c r="AD21" s="1">
         <v>10</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AE21" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1">
         <v>40</v>
@@ -2440,60 +2116,57 @@
       <c r="E22" s="1">
         <v>20</v>
       </c>
-      <c r="F22" s="4">
-        <v>40</v>
+      <c r="F22" s="1">
+        <f t="shared" si="7"/>
+        <v>78</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="1"/>
-        <v>78.000000000000014</v>
+        <v>1820</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="2"/>
-        <v>1300</v>
+        <v>318500</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="3"/>
-        <v>227500</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="4"/>
-        <v>4.0625</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="5"/>
-        <v>68.582195007065479</v>
+        <v>5.6875</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="4"/>
+        <v>88.433839479392631</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1583514099783083</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="6"/>
-        <v>1.1164543373243216</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="7"/>
-        <v>4.2863871879415925</v>
-      </c>
-      <c r="O22" s="5">
-        <v>0.78947214162197021</v>
-      </c>
-      <c r="P22" s="5">
-        <v>4.8008441044579264</v>
-      </c>
-      <c r="AF22" s="1">
+        <v>5.5271149674620395</v>
+      </c>
+      <c r="X22" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD22" s="1">
         <v>15</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AE22" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1">
         <v>42</v>
@@ -2505,60 +2178,51 @@
       <c r="E23" s="1">
         <v>18</v>
       </c>
-      <c r="F23" s="4">
-        <v>35</v>
+      <c r="F23" s="1">
+        <f t="shared" si="7"/>
+        <v>84.3</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>56.2</v>
+        <v>112.4</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>84.300000000000011</v>
+        <v>1770.3</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="2"/>
-        <v>1264.5</v>
+        <v>309802.5</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="3"/>
-        <v>221287.5</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="4"/>
-        <v>4.390625</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="5"/>
-        <v>65.574256279661995</v>
+        <v>6.1468749999999996</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="4"/>
+        <v>84.140805024507216</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0050287508752578</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="6"/>
-        <v>1.06748789292473</v>
-      </c>
-      <c r="N23" s="1">
-        <f t="shared" si="7"/>
-        <v>4.0983910174788747</v>
-      </c>
-      <c r="O23" s="5">
-        <v>0.73941465467819079</v>
-      </c>
-      <c r="P23" s="5">
-        <v>4.4964404676376466</v>
-      </c>
-      <c r="AF23" s="1">
+        <v>5.258800314031701</v>
+      </c>
+      <c r="AD23" s="1">
         <v>15</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AE23" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1">
         <v>44</v>
@@ -2570,63 +2234,79 @@
       <c r="E24" s="1">
         <v>20</v>
       </c>
-      <c r="F24" s="4">
-        <v>30</v>
+      <c r="F24" s="1">
+        <f t="shared" si="7"/>
+        <v>90.899999999999991</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>60.6</v>
+        <v>121.2</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="1"/>
-        <v>90.90000000000002</v>
+        <v>2121</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="2"/>
-        <v>1515.0000000000002</v>
+        <v>371175</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="3"/>
-        <v>265125.00000000006</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="4"/>
-        <v>4.734375</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="5"/>
-        <v>77.188672807915395</v>
+        <v>6.6281249999999998</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="4"/>
+        <v>98.554981641670295</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5198207729167961</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="6"/>
-        <v>1.256559789896297</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="7"/>
-        <v>4.8242920504947122</v>
-      </c>
-      <c r="O24" s="5">
-        <v>0.67659877141933411</v>
-      </c>
-      <c r="P24" s="5">
-        <v>4.1144519883608153</v>
-      </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="AF24" s="1">
+        <v>6.1596863526043935</v>
+      </c>
+      <c r="N24" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>5000</v>
+      </c>
+      <c r="R24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="S24" s="1">
+        <f>AVERAGE(O24:R24)</f>
+        <v>4500</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="X24" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD24" s="1">
         <v>15</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AE24" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1">
         <v>46</v>
@@ -2638,60 +2318,79 @@
       <c r="E25" s="1">
         <v>20</v>
       </c>
-      <c r="F25" s="4">
-        <v>30</v>
+      <c r="F25" s="1">
+        <f t="shared" si="7"/>
+        <v>97.8</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>65.2</v>
+        <v>130.4</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="1"/>
-        <v>97.800000000000011</v>
+        <v>2282</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="2"/>
-        <v>1630</v>
+        <v>399350</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="3"/>
-        <v>285250</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="4"/>
-        <v>5.09375</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="5"/>
-        <v>81.554612463703378</v>
+        <v>7.1312499999999996</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="4"/>
+        <v>103.61373494952772</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="5"/>
+        <v>3.7004905339117045</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="6"/>
-        <v>1.3276332261533108</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" si="7"/>
-        <v>5.0971632789814612</v>
-      </c>
-      <c r="O25" s="5">
-        <v>0.72045735739579342</v>
-      </c>
-      <c r="P25" s="5">
-        <v>4.3811596057852302</v>
-      </c>
-      <c r="AF25" s="1">
+        <v>6.4758584343454828</v>
+      </c>
+      <c r="N25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2</v>
+      </c>
+      <c r="P25" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>5</v>
+      </c>
+      <c r="R25" s="1">
+        <v>10</v>
+      </c>
+      <c r="S25" s="1">
+        <f>AVERAGE(O25:R25)</f>
+        <v>5</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD25" s="1">
         <v>15</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AE25" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1">
         <v>48</v>
@@ -2703,60 +2402,57 @@
       <c r="E26" s="1">
         <v>20</v>
       </c>
-      <c r="F26" s="4">
-        <v>30</v>
+      <c r="F26" s="1">
+        <f t="shared" si="7"/>
+        <v>105</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="1"/>
-        <v>105.00000000000001</v>
+        <v>2450</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="2"/>
-        <v>1750</v>
+        <v>428750</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="3"/>
-        <v>306250</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="4"/>
-        <v>5.46875</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="5"/>
-        <v>85.946064459548353</v>
+        <v>7.6562499999999991</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="4"/>
+        <v>108.65175212829143</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="5"/>
+        <v>3.8804197188675511</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="6"/>
-        <v>1.3991219795740428</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" si="7"/>
-        <v>5.3716290287217721</v>
-      </c>
-      <c r="O26" s="5">
-        <v>0.76526951162888868</v>
-      </c>
-      <c r="P26" s="5">
-        <v>4.6536659490945933</v>
-      </c>
-      <c r="AF26" s="1">
+        <v>6.7907345080182147</v>
+      </c>
+      <c r="N26" t="s">
+        <v>93</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AD26" s="1">
         <v>15</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AE26" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1">
         <v>50</v>
@@ -2768,60 +2464,57 @@
       <c r="E27" s="1">
         <v>25</v>
       </c>
-      <c r="F27" s="4">
-        <v>35</v>
+      <c r="F27" s="1">
+        <f t="shared" si="7"/>
+        <v>112.5</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="1"/>
-        <v>112.50000000000001</v>
+        <v>3281.25</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="2"/>
-        <v>2343.75</v>
+        <v>574218.75</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="3"/>
-        <v>410156.25</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="4"/>
-        <v>5.859375</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="5"/>
-        <v>112.93965795417877</v>
+        <v>8.203125</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="4"/>
+        <v>142.07016526529429</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="5"/>
+        <v>5.0739344737605103</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="6"/>
-        <v>1.8385525713470963</v>
-      </c>
-      <c r="N27" s="1">
-        <f t="shared" si="7"/>
-        <v>7.0587286221361731</v>
-      </c>
-      <c r="O27" s="5">
-        <v>0.94610390965829627</v>
-      </c>
-      <c r="P27" s="5">
-        <v>5.7533345857599096</v>
-      </c>
-      <c r="AF27" s="1">
+        <v>8.8793853290808933</v>
+      </c>
+      <c r="X27" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD27" s="1">
         <v>15</v>
       </c>
-      <c r="AG27" s="1">
+      <c r="AE27" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1">
         <v>52</v>
@@ -2833,60 +2526,76 @@
       <c r="E28" s="1">
         <v>20</v>
       </c>
-      <c r="F28" s="4">
-        <v>40</v>
+      <c r="F28" s="1">
+        <f t="shared" si="7"/>
+        <v>120.3</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
-        <v>80.2</v>
+        <v>160.4</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="1"/>
-        <v>120.30000000000001</v>
+        <v>2807</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="2"/>
-        <v>2005</v>
+        <v>491225</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="3"/>
-        <v>350875</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="4"/>
-        <v>6.265625</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="5"/>
-        <v>94.761050743749337</v>
+        <v>8.7718749999999996</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="4"/>
+        <v>118.61532947235376</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="5"/>
+        <v>4.2362617668697773</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="6"/>
-        <v>1.5426217562935938</v>
-      </c>
-      <c r="N28" s="1">
-        <f t="shared" si="7"/>
-        <v>5.9225656714843335</v>
-      </c>
-      <c r="O28" s="5">
-        <v>1.143199939460233</v>
-      </c>
-      <c r="P28" s="5">
-        <v>6.9518915237446599</v>
-      </c>
-      <c r="AF28" s="1">
+        <v>7.4134580920221103</v>
+      </c>
+      <c r="O28" s="1">
+        <v>20000</v>
+      </c>
+      <c r="P28" s="1">
+        <v>30000</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>40000</v>
+      </c>
+      <c r="R28" s="1">
+        <v>50000</v>
+      </c>
+      <c r="S28" s="1">
+        <f>AVERAGE(O28:R28)</f>
+        <v>35000</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="X28" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD28" s="1">
         <v>15</v>
       </c>
-      <c r="AG28" s="1">
+      <c r="AE28" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1">
         <v>54</v>
@@ -2898,60 +2607,70 @@
       <c r="E29" s="1">
         <v>30</v>
       </c>
-      <c r="F29" s="4">
-        <v>45</v>
+      <c r="F29" s="1">
+        <f t="shared" si="7"/>
+        <v>128.4</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
-        <v>85.600000000000009</v>
+        <v>171.20000000000002</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="1"/>
-        <v>128.4</v>
+        <v>4494</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="2"/>
-        <v>3210</v>
+        <v>786450</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="3"/>
-        <v>561750</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="4"/>
-        <v>6.6875</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" si="5"/>
-        <v>148.74637980968143</v>
+        <v>9.3624999999999989</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="4"/>
+        <v>185.27865714496062</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="5"/>
+        <v>6.6170948980343081</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="6"/>
-        <v>2.4214526945762094</v>
-      </c>
-      <c r="N29" s="1">
-        <f t="shared" si="7"/>
-        <v>9.2966487381050893</v>
-      </c>
-      <c r="O29" s="5">
-        <v>1.3568176254589965</v>
-      </c>
-      <c r="P29" s="5">
-        <v>8.2509179926560599</v>
-      </c>
-      <c r="AF29" s="1">
+        <v>11.579916071560039</v>
+      </c>
+      <c r="O29" s="1">
+        <v>50</v>
+      </c>
+      <c r="P29" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>70</v>
+      </c>
+      <c r="R29" s="1">
+        <v>80</v>
+      </c>
+      <c r="S29" s="1">
+        <f>AVERAGE(O29:R29)</f>
+        <v>65</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AD29" s="1">
         <v>15</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AE29" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1">
         <v>56</v>
@@ -2963,60 +2682,57 @@
       <c r="E30" s="1">
         <v>28</v>
       </c>
-      <c r="F30" s="4">
-        <v>35</v>
+      <c r="F30" s="1">
+        <f t="shared" si="7"/>
+        <v>136.79999999999998</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="0"/>
-        <v>91.2</v>
+        <v>182.4</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="1"/>
-        <v>136.80000000000001</v>
+        <v>4468.8</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="2"/>
-        <v>3192</v>
+        <v>782040</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="3"/>
-        <v>558600</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="4"/>
-        <v>7.125</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="5"/>
-        <v>144.97323600973237</v>
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="4"/>
+        <v>179.70185264971997</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="5"/>
+        <v>6.4179233089185699</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="6"/>
-        <v>2.360029423414248</v>
-      </c>
-      <c r="N30" s="1">
-        <f t="shared" si="7"/>
-        <v>9.0608272506082734</v>
-      </c>
-      <c r="O30" s="5">
-        <v>1.1110143525237866</v>
-      </c>
-      <c r="P30" s="5">
-        <v>6.7561683599419453</v>
-      </c>
-      <c r="AF30" s="1">
+        <v>11.231365790607498</v>
+      </c>
+      <c r="N30" t="s">
+        <v>94</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AD30" s="1">
         <v>15</v>
       </c>
-      <c r="AG30" s="1">
+      <c r="AE30" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1">
         <v>58</v>
@@ -3028,60 +2744,51 @@
       <c r="E31" s="1">
         <v>32</v>
       </c>
-      <c r="F31" s="4">
-        <v>45</v>
+      <c r="F31" s="1">
+        <f t="shared" si="7"/>
+        <v>145.5</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>145.50000000000003</v>
+        <v>5432</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="2"/>
-        <v>3880.0000000000005</v>
+        <v>950600</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="3"/>
-        <v>679000.00000000012</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="4"/>
-        <v>7.578125</v>
-      </c>
-      <c r="L31" s="2">
-        <f t="shared" si="5"/>
-        <v>172.66713022747592</v>
+        <v>10.609375</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="4"/>
+        <v>213.00096280087527</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="5"/>
+        <v>7.6071772428884028</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="6"/>
-        <v>2.81086025951705</v>
-      </c>
-      <c r="N31" s="1">
-        <f t="shared" si="7"/>
-        <v>10.791695639217245</v>
-      </c>
-      <c r="O31" s="5">
-        <v>1.5008662405161601</v>
-      </c>
-      <c r="P31" s="5">
-        <v>9.1268893004361082</v>
-      </c>
-      <c r="AF31" s="1">
+        <v>13.312560175054704</v>
+      </c>
+      <c r="AD31" s="1">
         <v>15</v>
       </c>
-      <c r="AG31" s="1">
+      <c r="AE31" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1">
         <v>60</v>
@@ -3093,60 +2800,51 @@
       <c r="E32" s="1">
         <v>35</v>
       </c>
-      <c r="F32" s="4">
-        <v>40</v>
+      <c r="F32" s="1">
+        <f t="shared" si="7"/>
+        <v>154.5</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>154.50000000000003</v>
+        <v>6308.75</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="2"/>
-        <v>4506.25</v>
+        <v>1104031.25</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="3"/>
-        <v>788593.75</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="4"/>
-        <v>8.046875</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" si="5"/>
-        <v>196.43864941130681</v>
+        <v>11.265625</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="4"/>
+        <v>241.17416161788549</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="5"/>
+        <v>8.6133629149244815</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="6"/>
-        <v>3.1978384787887153</v>
-      </c>
-      <c r="N32" s="1">
-        <f t="shared" si="7"/>
-        <v>12.277415588206676</v>
-      </c>
-      <c r="O32" s="5">
-        <v>1.3990730361017696</v>
-      </c>
-      <c r="P32" s="5">
-        <v>8.5078765708891382</v>
-      </c>
-      <c r="AF32" s="1">
+        <v>15.073385101117843</v>
+      </c>
+      <c r="AD32" s="1">
         <v>15</v>
       </c>
-      <c r="AG32" s="1">
+      <c r="AE32" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1">
         <v>62</v>
@@ -3158,60 +2856,51 @@
       <c r="E33" s="1">
         <v>30</v>
       </c>
-      <c r="F33" s="4">
-        <v>35</v>
+      <c r="F33" s="1">
+        <f t="shared" si="7"/>
+        <v>163.79999999999998</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="0"/>
-        <v>109.2</v>
+        <v>218.4</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="1"/>
-        <v>163.80000000000001</v>
+        <v>5733</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="2"/>
-        <v>4095</v>
+        <v>1003275</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="3"/>
-        <v>716625</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="4"/>
-        <v>8.53125</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" si="5"/>
-        <v>174.81989708404802</v>
+        <v>11.94375</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="4"/>
+        <v>213.62611039025853</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="5"/>
+        <v>7.629503942509233</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="6"/>
-        <v>2.8459053013682234</v>
-      </c>
-      <c r="N33" s="1">
-        <f t="shared" si="7"/>
-        <v>10.926243567753001</v>
-      </c>
-      <c r="O33" s="5">
-        <v>1.2814711250922366</v>
-      </c>
-      <c r="P33" s="5">
-        <v>7.7927298147500874</v>
-      </c>
-      <c r="AF33" s="1">
+        <v>13.351631899391158</v>
+      </c>
+      <c r="AD33" s="1">
         <v>20</v>
       </c>
-      <c r="AG33" s="1">
+      <c r="AE33" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1">
         <v>64</v>
@@ -3223,60 +2912,51 @@
       <c r="E34" s="1">
         <v>32</v>
       </c>
-      <c r="F34" s="4">
-        <v>45</v>
+      <c r="F34" s="1">
+        <f t="shared" si="7"/>
+        <v>173.4</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
-        <v>115.60000000000001</v>
+        <v>231.20000000000002</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="1"/>
-        <v>173.40000000000003</v>
+        <v>6473.6</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="2"/>
-        <v>4624.0000000000009</v>
+        <v>1132880</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="3"/>
-        <v>809200.00000000012</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="4"/>
-        <v>9.03125</v>
-      </c>
-      <c r="L34" s="2">
-        <f t="shared" si="5"/>
-        <v>193.27785034521369</v>
+        <v>12.643749999999999</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="4"/>
+        <v>235.09069096332806</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="5"/>
+        <v>8.3960961058331449</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="6"/>
-        <v>3.1463836102709206</v>
-      </c>
-      <c r="N34" s="1">
-        <f t="shared" si="7"/>
-        <v>12.079865646575856</v>
-      </c>
-      <c r="O34" s="5">
-        <v>1.7217021276595748</v>
-      </c>
-      <c r="P34" s="5">
-        <v>10.469810235767683</v>
-      </c>
-      <c r="AF34" s="1">
+        <v>14.693168185208004</v>
+      </c>
+      <c r="AD34" s="1">
         <v>20</v>
       </c>
-      <c r="AG34" s="1">
+      <c r="AE34" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1">
         <v>66</v>
@@ -3288,60 +2968,51 @@
       <c r="E35" s="1">
         <v>30</v>
       </c>
-      <c r="F35" s="4">
-        <v>50</v>
+      <c r="F35" s="1">
+        <f t="shared" si="7"/>
+        <v>183.29999999999998</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="0"/>
-        <v>122.2</v>
+        <v>244.4</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="1"/>
-        <v>183.30000000000004</v>
+        <v>6415.5</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="2"/>
-        <v>4582.5000000000009</v>
+        <v>1122712.5</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="3"/>
-        <v>801937.50000000012</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="4"/>
-        <v>9.546875</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="5"/>
-        <v>187.5020549821902</v>
+        <v>13.365625</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="4"/>
+        <v>227.02917897597121</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="5"/>
+        <v>8.1081849634275436</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="6"/>
-        <v>3.0523590345937941</v>
-      </c>
-      <c r="N35" s="1">
-        <f t="shared" si="7"/>
-        <v>11.718878436386888</v>
-      </c>
-      <c r="O35" s="5">
-        <v>1.9957121868477643</v>
-      </c>
-      <c r="P35" s="5">
-        <v>12.13608762272289</v>
-      </c>
-      <c r="AF35" s="1">
+        <v>14.1893236859982</v>
+      </c>
+      <c r="AD35" s="1">
         <v>20</v>
       </c>
-      <c r="AG35" s="1">
+      <c r="AE35" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C36" s="1">
         <v>68</v>
@@ -3353,60 +3024,51 @@
       <c r="E36" s="1">
         <v>40</v>
       </c>
-      <c r="F36" s="4">
-        <v>50</v>
+      <c r="F36" s="1">
+        <f t="shared" si="7"/>
+        <v>193.5</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="1"/>
-        <v>193.50000000000003</v>
+        <v>9030</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="2"/>
-        <v>6450</v>
+        <v>1580250</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="3"/>
-        <v>1128750</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="4"/>
-        <v>10.078125</v>
-      </c>
-      <c r="L36" s="2">
-        <f t="shared" si="5"/>
-        <v>258.29981228211318</v>
+        <v>14.109374999999998</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="4"/>
+        <v>311.35534518586934</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="5"/>
+        <v>11.11983375663819</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="6"/>
-        <v>4.2048806650576562</v>
-      </c>
-      <c r="N36" s="1">
-        <f t="shared" si="7"/>
-        <v>16.143738267632074</v>
-      </c>
-      <c r="O36" s="5">
-        <v>2.0786904828564499</v>
-      </c>
-      <c r="P36" s="5">
-        <v>12.640685368721654</v>
-      </c>
-      <c r="AF36" s="1">
+        <v>19.459709074116834</v>
+      </c>
+      <c r="AD36" s="1">
         <v>20</v>
       </c>
-      <c r="AG36" s="1">
+      <c r="AE36" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1">
         <v>70</v>
@@ -3418,60 +3080,51 @@
       <c r="E37" s="1">
         <v>40</v>
       </c>
-      <c r="F37" s="4">
-        <v>60</v>
+      <c r="F37" s="1">
+        <f t="shared" si="7"/>
+        <v>204</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="1"/>
-        <v>204.00000000000003</v>
+        <v>9520</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="2"/>
-        <v>6800</v>
+        <v>1666000</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="3"/>
-        <v>1190000</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="4"/>
-        <v>10.625</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="5"/>
-        <v>266.48005598320503</v>
+        <v>14.874999999999998</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="4"/>
+        <v>319.80803839232158</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="5"/>
+        <v>11.421715656868628</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="6"/>
-        <v>4.3380474229824078</v>
-      </c>
-      <c r="N37" s="1">
-        <f t="shared" si="7"/>
-        <v>16.655003498950315</v>
-      </c>
-      <c r="O37" s="5">
-        <v>2.5941964943290619</v>
-      </c>
-      <c r="P37" s="5">
-        <v>15.775519222271322</v>
-      </c>
-      <c r="AF37" s="1">
+        <v>19.988002399520099</v>
+      </c>
+      <c r="AD37" s="1">
         <v>20</v>
       </c>
-      <c r="AG37" s="1">
+      <c r="AE37" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1">
         <v>72</v>
@@ -3481,62 +3134,53 @@
         <v>1432</v>
       </c>
       <c r="E38" s="1">
-        <v>44</v>
-      </c>
-      <c r="F38" s="4">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="7"/>
+        <v>214.79999999999998</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="0"/>
-        <v>143.20000000000002</v>
+        <v>286.40000000000003</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="1"/>
-        <v>214.80000000000004</v>
+        <v>10024</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="2"/>
-        <v>7876.0000000000009</v>
+        <v>1754200</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="3"/>
-        <v>1378300.0000000002</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="4"/>
-        <v>11.1875</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" si="5"/>
-        <v>301.98972954467655</v>
+        <v>15.6625</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="4"/>
+        <v>328.06031207994857</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="5"/>
+        <v>11.71643971714102</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="6"/>
-        <v>4.9161118763086877</v>
-      </c>
-      <c r="N38" s="1">
-        <f t="shared" si="7"/>
-        <v>18.874358096542284</v>
-      </c>
-      <c r="O38" s="5">
-        <v>2.4695334253407917</v>
-      </c>
-      <c r="P38" s="5">
-        <v>15.017432991937245</v>
-      </c>
-      <c r="AF38" s="1">
+        <v>20.503769504996786</v>
+      </c>
+      <c r="AD38" s="1">
         <v>25</v>
       </c>
-      <c r="AG38" s="1">
+      <c r="AE38" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1">
         <v>74</v>
@@ -3546,62 +3190,53 @@
         <v>1506</v>
       </c>
       <c r="E39" s="1">
-        <v>42</v>
-      </c>
-      <c r="F39" s="4">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="7"/>
+        <v>225.9</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="0"/>
-        <v>150.6</v>
+        <v>301.2</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="1"/>
-        <v>225.90000000000003</v>
+        <v>11596.2</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="2"/>
-        <v>7906.5</v>
+        <v>2029335.0000000002</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="3"/>
-        <v>1383637.5</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="4"/>
-        <v>11.765625</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="5"/>
-        <v>296.58477769404675</v>
+        <v>16.471875000000001</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="4"/>
+        <v>369.72099577266323</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="5"/>
+        <v>13.204321277595115</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="6"/>
-        <v>4.8281242880426216</v>
-      </c>
-      <c r="N39" s="1">
-        <f t="shared" si="7"/>
-        <v>18.536548605877922</v>
-      </c>
-      <c r="O39" s="5">
-        <v>2.5610135195630765</v>
-      </c>
-      <c r="P39" s="5">
-        <v>15.573730862207897</v>
-      </c>
-      <c r="AF39" s="1">
+        <v>23.107562235791452</v>
+      </c>
+      <c r="AD39" s="1">
         <v>25</v>
       </c>
-      <c r="AG39" s="1">
+      <c r="AE39" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1">
         <v>76</v>
@@ -3611,62 +3246,53 @@
         <v>1582</v>
       </c>
       <c r="E40" s="1">
-        <v>40</v>
-      </c>
-      <c r="F40" s="4">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="7"/>
+        <v>237.29999999999998</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="0"/>
-        <v>158.20000000000002</v>
+        <v>316.40000000000003</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="1"/>
-        <v>237.30000000000004</v>
+        <v>11627.7</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="2"/>
-        <v>7910.0000000000009</v>
+        <v>2034847.5000000002</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="3"/>
-        <v>1384250.0000000002</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="4"/>
-        <v>12.359375</v>
-      </c>
-      <c r="L40" s="2">
-        <f t="shared" si="5"/>
-        <v>290.25145384552383</v>
+        <v>17.303124999999998</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="4"/>
+        <v>361.1537597581775</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="5"/>
+        <v>12.898348562792053</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="6"/>
-        <v>4.7250236672527137</v>
-      </c>
-      <c r="N40" s="1">
-        <f t="shared" si="7"/>
-        <v>18.140715865345239</v>
-      </c>
-      <c r="O40" s="5">
-        <v>2.4112305727686274</v>
-      </c>
-      <c r="P40" s="5">
-        <v>14.662888618187599</v>
-      </c>
-      <c r="AF40" s="1">
+        <v>22.572109984886094</v>
+      </c>
+      <c r="AD40" s="1">
         <v>25</v>
       </c>
-      <c r="AG40" s="1">
+      <c r="AE40" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1">
         <v>78</v>
@@ -3678,60 +3304,51 @@
       <c r="E41" s="1">
         <v>40</v>
       </c>
-      <c r="F41" s="4">
-        <v>55</v>
+      <c r="F41" s="1">
+        <f t="shared" si="7"/>
+        <v>249</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>332</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="1"/>
-        <v>249.00000000000003</v>
+        <v>11620</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="2"/>
-        <v>8300</v>
+        <v>2033500</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="3"/>
-        <v>1452500</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="4"/>
-        <v>12.96875</v>
-      </c>
-      <c r="L41" s="2">
-        <f t="shared" si="5"/>
-        <v>297.90097740746677</v>
+        <v>18.15625</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="4"/>
+        <v>351.59800081048229</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="5"/>
+        <v>12.557071457517225</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="6"/>
-        <v>4.849550795005273</v>
-      </c>
-      <c r="N41" s="1">
-        <f t="shared" si="7"/>
-        <v>18.618811087966673</v>
-      </c>
-      <c r="O41" s="5">
-        <v>2.7434594456626411</v>
-      </c>
-      <c r="P41" s="5">
-        <v>16.683199331732276</v>
-      </c>
-      <c r="AF41" s="1">
+        <v>21.974875050655143</v>
+      </c>
+      <c r="AD41" s="1">
         <v>25</v>
       </c>
-      <c r="AG41" s="1">
+      <c r="AE41" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1">
         <v>80</v>
@@ -3741,62 +3358,53 @@
         <v>1740</v>
       </c>
       <c r="E42" s="1">
-        <v>44</v>
-      </c>
-      <c r="F42" s="4">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="7"/>
+        <v>261</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="1"/>
-        <v>261.00000000000006</v>
+        <v>12180</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="2"/>
-        <v>9570.0000000000018</v>
+        <v>2131500</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="3"/>
-        <v>1674750.0000000002</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="4"/>
-        <v>13.59375</v>
-      </c>
-      <c r="L42" s="2">
-        <f t="shared" si="5"/>
-        <v>335.94734367653979</v>
+        <v>19.03125</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="4"/>
+        <v>359.03671535728392</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="5"/>
+        <v>12.822739834188711</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="6"/>
-        <v>5.4689102458971588</v>
-      </c>
-      <c r="N42" s="1">
-        <f t="shared" si="7"/>
-        <v>20.996708979783737</v>
-      </c>
-      <c r="O42" s="5">
-        <v>3.3495591917944503</v>
-      </c>
-      <c r="P42" s="5">
-        <v>20.368941031182466</v>
-      </c>
-      <c r="AF42" s="1">
+        <v>22.439794709830245</v>
+      </c>
+      <c r="AD42" s="1">
         <v>25</v>
       </c>
-      <c r="AG42" s="1">
+      <c r="AE42" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C43" s="1">
         <v>82</v>
@@ -3808,60 +3416,51 @@
       <c r="E43" s="1">
         <v>44</v>
       </c>
-      <c r="F43" s="4">
-        <v>60</v>
+      <c r="F43" s="1">
+        <f t="shared" si="7"/>
+        <v>273.3</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="0"/>
-        <v>182.20000000000002</v>
+        <v>364.40000000000003</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="1"/>
-        <v>273.30000000000007</v>
+        <v>14029.400000000001</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="2"/>
-        <v>10021.000000000002</v>
+        <v>2455145.0000000005</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="3"/>
-        <v>1753675.0000000002</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="4"/>
-        <v>14.234375</v>
-      </c>
-      <c r="L43" s="2">
-        <f t="shared" si="5"/>
-        <v>344.04230209211443</v>
+        <v>19.928124999999998</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="4"/>
+        <v>402.90075513788645</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="5"/>
+        <v>14.389312683495945</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="6"/>
-        <v>5.6006886387088395</v>
-      </c>
-      <c r="N43" s="1">
-        <f t="shared" si="7"/>
-        <v>21.502643880757152</v>
-      </c>
-      <c r="O43" s="5">
-        <v>3.1904940587867427</v>
-      </c>
-      <c r="P43" s="5">
-        <v>19.401653060189652</v>
-      </c>
-      <c r="AF43" s="1">
+        <v>25.181297196117903</v>
+      </c>
+      <c r="AD43" s="1">
         <v>25</v>
       </c>
-      <c r="AG43" s="1">
+      <c r="AE43" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1">
         <v>84</v>
@@ -3871,585 +3470,623 @@
         <v>1906</v>
       </c>
       <c r="E44" s="1">
-        <v>50</v>
-      </c>
-      <c r="F44" s="4">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="7"/>
+        <v>285.89999999999998</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="0"/>
-        <v>190.60000000000002</v>
+        <v>381.20000000000005</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="1"/>
-        <v>285.90000000000003</v>
+        <v>14676.2</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="2"/>
-        <v>11912.500000000002</v>
+        <v>2568335</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="3"/>
-        <v>2084687.5000000002</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="4"/>
-        <v>14.890625</v>
-      </c>
-      <c r="L44" s="2">
-        <f t="shared" si="5"/>
-        <v>399.97002173424272</v>
+        <v>20.846874999999997</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="4"/>
+        <v>410.64101827447951</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="5"/>
+        <v>14.665750652659982</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="6"/>
-        <v>6.5111398886969747</v>
-      </c>
-      <c r="N44" s="1">
-        <f t="shared" si="7"/>
-        <v>24.99812635839017</v>
-      </c>
-      <c r="O44" s="5">
-        <v>3.8366536208954409</v>
-      </c>
-      <c r="P44" s="5">
-        <v>23.33100174868849</v>
-      </c>
-      <c r="AF44" s="1">
+        <v>25.665063642154969</v>
+      </c>
+      <c r="AD44" s="1">
         <v>25</v>
       </c>
-      <c r="AG44" s="1">
+      <c r="AE44" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="AF45" s="1">
+      <c r="B45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="1">
+        <v>86</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="8"/>
+        <v>1992</v>
+      </c>
+      <c r="E45" s="1">
+        <v>50</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="7"/>
+        <v>298.8</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>398.40000000000003</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="1"/>
+        <v>17430</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="2"/>
+        <v>3050250</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="3"/>
+        <v>21.787499999999998</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="4"/>
+        <v>475.18621293997376</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="5"/>
+        <v>16.970936176427635</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="6"/>
+        <v>29.69913830874836</v>
+      </c>
+      <c r="AD45" s="1">
         <v>35</v>
       </c>
-      <c r="AG45" s="1">
+      <c r="AE45" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="M46" s="1">
-        <f>SUM(M2:M45)</f>
-        <v>79.908030347965564</v>
-      </c>
-      <c r="O46" s="5">
-        <v>45.807555838637825</v>
-      </c>
-      <c r="AF46" s="1">
+      <c r="AD46" s="1">
         <v>35</v>
       </c>
-      <c r="AG46" s="1">
+      <c r="AE46" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="L47" s="1">
+        <f>SUM(L2:L46)</f>
+        <v>226.4514477012354</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>35</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="AF47" s="1">
+      <c r="AD48" s="1">
         <v>35</v>
       </c>
-      <c r="AG47" s="1">
+      <c r="AE48" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="AF48" s="1">
+      <c r="AD49" s="1">
         <v>35</v>
       </c>
-      <c r="AG48" s="1">
+      <c r="AE49" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="AF49" s="1">
+      <c r="AD50" s="1">
         <v>35</v>
       </c>
-      <c r="AG49" s="1">
+      <c r="AE50" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="AF50" s="1">
+      <c r="AD51" s="1">
         <v>35</v>
       </c>
-      <c r="AG50" s="1">
+      <c r="AE51" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="AF51" s="1">
+      <c r="AD52" s="1">
         <v>35</v>
       </c>
-      <c r="AG51" s="1">
+      <c r="AE52" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="AF52" s="1">
+      <c r="AD53" s="1">
         <v>35</v>
       </c>
-      <c r="AG52" s="1">
+      <c r="AE53" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="AF53" s="1">
+      <c r="AD54" s="1">
         <v>35</v>
       </c>
-      <c r="AG53" s="1">
+      <c r="AE54" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE58" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="AF54" s="1">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE59" s="1">
         <v>35</v>
       </c>
-      <c r="AG54" s="1">
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE60" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="AF55" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG55" s="1">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE61" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="AF56" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG56" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="AF57" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG57" s="1">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE62" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="AF58" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG58" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="AF59" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG59" s="1">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE65" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="AF60" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG60" s="1">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE67" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="AF61" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG61" s="1">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE69" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="AF62" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG62" s="1">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE72" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE73" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="AF63" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG63" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="AF64" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG64" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="AF65" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG65" s="1">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE75" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="AF66" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG66" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="AF67" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG67" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="AF68" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG68" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF69" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG69" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="AF70" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG70" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="AF71" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG71" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="AF72" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG72" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="AF73" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG73" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="AF74" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG74" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="AF75" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG75" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="AE76" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="AG76" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+      <c r="AE77" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="AG77" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+      <c r="AE78" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="AG78" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="AE79" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="AG79" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+      <c r="AE80" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="AG80" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="AE81" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="AG81" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="AE82" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="AG82" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="AE83" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="AG83" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="AE84" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="AG84" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+      <c r="AE85" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="AG85" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="AE86" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="AG86" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+      <c r="AE87" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="AG87" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="AE88" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="AG88" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="AE89" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="AG89" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="AE90" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="AG90" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="AE91" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="AG91" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="AE92" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="AG92" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="AE93" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="AG93" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
     </row>
